--- a/opm_hero_property/heroes/2.xlsx
+++ b/opm_hero_property/heroes/2.xlsx
@@ -14,6 +14,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="talent" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mechanical" sheetId="6" state="visible" r:id="rId6"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="limiter" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="status" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1197,7 +1198,7 @@
         <v>11248</v>
       </c>
       <c r="D4" t="n">
-        <v>11248</v>
+        <v>11553</v>
       </c>
       <c r="E4" t="n">
         <v>239</v>
@@ -1304,7 +1305,7 @@
         <v>12662</v>
       </c>
       <c r="D5" t="n">
-        <v>12662</v>
+        <v>13314</v>
       </c>
       <c r="E5" t="n">
         <v>359</v>
@@ -1411,7 +1412,7 @@
         <v>14326</v>
       </c>
       <c r="D6" t="n">
-        <v>14326</v>
+        <v>15385</v>
       </c>
       <c r="E6" t="n">
         <v>491</v>
@@ -1518,7 +1519,7 @@
         <v>16239</v>
       </c>
       <c r="D7" t="n">
-        <v>16239</v>
+        <v>19708</v>
       </c>
       <c r="E7" t="n">
         <v>921</v>
@@ -1625,7 +1626,7 @@
         <v>18402</v>
       </c>
       <c r="D8" t="n">
-        <v>18402</v>
+        <v>25688</v>
       </c>
       <c r="E8" t="n">
         <v>1365</v>
@@ -1732,7 +1733,7 @@
         <v>20898</v>
       </c>
       <c r="D9" t="n">
-        <v>20898</v>
+        <v>33739</v>
       </c>
       <c r="E9" t="n">
         <v>1802</v>
@@ -1839,7 +1840,7 @@
         <v>22229</v>
       </c>
       <c r="D10" t="n">
-        <v>22229</v>
+        <v>40444</v>
       </c>
       <c r="E10" t="n">
         <v>2129</v>
@@ -1946,7 +1947,7 @@
         <v>23810</v>
       </c>
       <c r="D11" t="n">
-        <v>23810</v>
+        <v>48676</v>
       </c>
       <c r="E11" t="n">
         <v>2484</v>
@@ -2053,7 +2054,7 @@
         <v>27137</v>
       </c>
       <c r="D12" t="n">
-        <v>27137</v>
+        <v>63329</v>
       </c>
       <c r="E12" t="n">
         <v>3057</v>
@@ -2160,7 +2161,7 @@
         <v>27803</v>
       </c>
       <c r="D13" t="n">
-        <v>27803</v>
+        <v>65400</v>
       </c>
       <c r="E13" t="n">
         <v>3440</v>
@@ -2267,7 +2268,7 @@
         <v>28468</v>
       </c>
       <c r="D14" t="n">
-        <v>28468</v>
+        <v>67471</v>
       </c>
       <c r="E14" t="n">
         <v>3822</v>
@@ -2374,7 +2375,7 @@
         <v>29134</v>
       </c>
       <c r="D15" t="n">
-        <v>29134</v>
+        <v>69542</v>
       </c>
       <c r="E15" t="n">
         <v>4204</v>
@@ -2481,7 +2482,7 @@
         <v>29800</v>
       </c>
       <c r="D16" t="n">
-        <v>29800</v>
+        <v>71613</v>
       </c>
       <c r="E16" t="n">
         <v>4586</v>
@@ -2588,7 +2589,7 @@
         <v>30465</v>
       </c>
       <c r="D17" t="n">
-        <v>30465</v>
+        <v>73684</v>
       </c>
       <c r="E17" t="n">
         <v>4968</v>
@@ -6534,4 +6535,2652 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:AK23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>战斗类型</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>品质</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>pve等级</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>等级强化</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>装备品质%</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>装备强化%</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>天赋</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>研究所核心</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>职阶</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>限制器</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>机械核心</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>HeroId</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>Type</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>Quality</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>Level</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>EnhancePeriod</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>Equips</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>TalentLevel</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t>Skills</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
+          <t>hp</t>
+        </is>
+      </c>
+      <c r="U1" t="inlineStr">
+        <is>
+          <t>atk</t>
+        </is>
+      </c>
+      <c r="V1" t="inlineStr">
+        <is>
+          <t>def</t>
+        </is>
+      </c>
+      <c r="W1" t="inlineStr">
+        <is>
+          <t>crit</t>
+        </is>
+      </c>
+      <c r="X1" t="inlineStr">
+        <is>
+          <t>crit_res</t>
+        </is>
+      </c>
+      <c r="Y1" t="inlineStr">
+        <is>
+          <t>crit_dmg</t>
+        </is>
+      </c>
+      <c r="Z1" t="inlineStr">
+        <is>
+          <t>precise</t>
+        </is>
+      </c>
+      <c r="AA1" t="inlineStr">
+        <is>
+          <t>parry</t>
+        </is>
+      </c>
+      <c r="AB1" t="inlineStr">
+        <is>
+          <t>dmg_res</t>
+        </is>
+      </c>
+      <c r="AC1" t="inlineStr">
+        <is>
+          <t>fury</t>
+        </is>
+      </c>
+      <c r="AD1" t="inlineStr">
+        <is>
+          <t>show_level</t>
+        </is>
+      </c>
+      <c r="AE1" t="inlineStr">
+        <is>
+          <t>chase</t>
+        </is>
+      </c>
+      <c r="AF1" t="inlineStr">
+        <is>
+          <t>academy</t>
+        </is>
+      </c>
+      <c r="AG1" t="inlineStr">
+        <is>
+          <t>job</t>
+        </is>
+      </c>
+      <c r="AH1" t="inlineStr">
+        <is>
+          <t>limiter</t>
+        </is>
+      </c>
+      <c r="AI1" t="inlineStr">
+        <is>
+          <t>mechanical</t>
+        </is>
+      </c>
+      <c r="AJ1" t="inlineStr">
+        <is>
+          <t>aura</t>
+        </is>
+      </c>
+      <c r="AK1" t="inlineStr">
+        <is>
+          <t>type_aura</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>5</v>
+      </c>
+      <c r="C2" t="n">
+        <v>81</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>5</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>2</v>
+      </c>
+      <c r="M2" t="n">
+        <v>2</v>
+      </c>
+      <c r="N2" t="n">
+        <v>5</v>
+      </c>
+      <c r="O2" t="n">
+        <v>81</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>3,2,1,1,0,0,0,0,0</t>
+        </is>
+      </c>
+      <c r="T2" t="n">
+        <v>35962.2207568</v>
+      </c>
+      <c r="U2" t="n">
+        <v>4127.1494</v>
+      </c>
+      <c r="V2" t="n">
+        <v>2633.645035</v>
+      </c>
+      <c r="W2" t="n">
+        <v>1300</v>
+      </c>
+      <c r="X2" t="n">
+        <v>400</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>400</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>1600</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>1900</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>81</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ2" t="inlineStr"/>
+      <c r="AK2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>7</v>
+      </c>
+      <c r="C3" t="n">
+        <v>121</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>7</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>2</v>
+      </c>
+      <c r="M3" t="n">
+        <v>2</v>
+      </c>
+      <c r="N3" t="n">
+        <v>7</v>
+      </c>
+      <c r="O3" t="n">
+        <v>121</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>3,2,2,2,0,0,0,0,0</t>
+        </is>
+      </c>
+      <c r="T3" t="n">
+        <v>48944.6406271</v>
+      </c>
+      <c r="U3" t="n">
+        <v>6259.3012</v>
+      </c>
+      <c r="V3" t="n">
+        <v>3974.76736</v>
+      </c>
+      <c r="W3" t="n">
+        <v>1300</v>
+      </c>
+      <c r="X3" t="n">
+        <v>400</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>400</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>1600</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>1900</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>121</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ3" t="inlineStr"/>
+      <c r="AK3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>9</v>
+      </c>
+      <c r="C4" t="n">
+        <v>161</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>9</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H4" t="n">
+        <v>15</v>
+      </c>
+      <c r="I4" t="n">
+        <v>4</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>2</v>
+      </c>
+      <c r="M4" t="n">
+        <v>2</v>
+      </c>
+      <c r="N4" t="n">
+        <v>9</v>
+      </c>
+      <c r="O4" t="n">
+        <v>161</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>4,3,2,2,0,0,0,0,0</t>
+        </is>
+      </c>
+      <c r="T4" t="n">
+        <v>84360.81800840001</v>
+      </c>
+      <c r="U4" t="n">
+        <v>11695.975</v>
+      </c>
+      <c r="V4" t="n">
+        <v>8292.17792</v>
+      </c>
+      <c r="W4" t="n">
+        <v>1300</v>
+      </c>
+      <c r="X4" t="n">
+        <v>400</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>400</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>1600</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>1900</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>161</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>4</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ4" t="inlineStr"/>
+      <c r="AK4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>9</v>
+      </c>
+      <c r="C5" t="n">
+        <v>161</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>9</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H5" t="n">
+        <v>15</v>
+      </c>
+      <c r="I5" t="n">
+        <v>5</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>2</v>
+      </c>
+      <c r="M5" t="n">
+        <v>2</v>
+      </c>
+      <c r="N5" t="n">
+        <v>9</v>
+      </c>
+      <c r="O5" t="n">
+        <v>161</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>4,3,2,2,0,1,0,0,1</t>
+        </is>
+      </c>
+      <c r="T5" t="n">
+        <v>84360.81800840001</v>
+      </c>
+      <c r="U5" t="n">
+        <v>11695.975</v>
+      </c>
+      <c r="V5" t="n">
+        <v>8292.17792</v>
+      </c>
+      <c r="W5" t="n">
+        <v>1300</v>
+      </c>
+      <c r="X5" t="n">
+        <v>400</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>470</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>1600</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>1970</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>161</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ5" t="inlineStr"/>
+      <c r="AK5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>9</v>
+      </c>
+      <c r="C6" t="n">
+        <v>161</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>9</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>15</v>
+      </c>
+      <c r="I6" t="n">
+        <v>5</v>
+      </c>
+      <c r="J6" t="n">
+        <v>2</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>2</v>
+      </c>
+      <c r="M6" t="n">
+        <v>2</v>
+      </c>
+      <c r="N6" t="n">
+        <v>9</v>
+      </c>
+      <c r="O6" t="n">
+        <v>161</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>4,3,2,2,1,1,0,0,2</t>
+        </is>
+      </c>
+      <c r="T6" t="n">
+        <v>71767.9545164</v>
+      </c>
+      <c r="U6" t="n">
+        <v>11695.975</v>
+      </c>
+      <c r="V6" t="n">
+        <v>7006.488319999999</v>
+      </c>
+      <c r="W6" t="n">
+        <v>1300</v>
+      </c>
+      <c r="X6" t="n">
+        <v>400</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>470</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>1600</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>1070</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>161</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>2</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ6" t="inlineStr"/>
+      <c r="AK6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>11</v>
+      </c>
+      <c r="C7" t="n">
+        <v>240</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>10</v>
+      </c>
+      <c r="F7" t="n">
+        <v>5</v>
+      </c>
+      <c r="G7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H7" t="n">
+        <v>25</v>
+      </c>
+      <c r="I7" t="n">
+        <v>15</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>2</v>
+      </c>
+      <c r="M7" t="n">
+        <v>2</v>
+      </c>
+      <c r="N7" t="n">
+        <v>11</v>
+      </c>
+      <c r="O7" t="n">
+        <v>240</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>5,3,3,3,0,2,1,0,0</t>
+        </is>
+      </c>
+      <c r="T7" t="n">
+        <v>300370.5023154</v>
+      </c>
+      <c r="U7" t="n">
+        <v>42164.152</v>
+      </c>
+      <c r="V7" t="n">
+        <v>35875.729593</v>
+      </c>
+      <c r="W7" t="n">
+        <v>1940</v>
+      </c>
+      <c r="X7" t="n">
+        <v>720</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>930</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>2880</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>2910</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>240</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>25</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ7" t="inlineStr"/>
+      <c r="AK7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>11</v>
+      </c>
+      <c r="C8" t="n">
+        <v>240</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>10</v>
+      </c>
+      <c r="F8" t="n">
+        <v>5</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>25</v>
+      </c>
+      <c r="I8" t="n">
+        <v>15</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>2</v>
+      </c>
+      <c r="M8" t="n">
+        <v>2</v>
+      </c>
+      <c r="N8" t="n">
+        <v>11</v>
+      </c>
+      <c r="O8" t="n">
+        <v>240</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>5,3,3,3,1,2,1,0,1</t>
+        </is>
+      </c>
+      <c r="T8" t="n">
+        <v>243176.7769134</v>
+      </c>
+      <c r="U8" t="n">
+        <v>42164.152</v>
+      </c>
+      <c r="V8" t="n">
+        <v>29035.333503</v>
+      </c>
+      <c r="W8" t="n">
+        <v>1940</v>
+      </c>
+      <c r="X8" t="n">
+        <v>720</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>930</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>2880</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>2010</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>240</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>25</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ8" t="inlineStr"/>
+      <c r="AK8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>11</v>
+      </c>
+      <c r="C9" t="n">
+        <v>240</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>10</v>
+      </c>
+      <c r="F9" t="n">
+        <v>5</v>
+      </c>
+      <c r="G9" t="n">
+        <v>10</v>
+      </c>
+      <c r="H9" t="n">
+        <v>25</v>
+      </c>
+      <c r="I9" t="n">
+        <v>15</v>
+      </c>
+      <c r="J9" t="n">
+        <v>5</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>2</v>
+      </c>
+      <c r="M9" t="n">
+        <v>2</v>
+      </c>
+      <c r="N9" t="n">
+        <v>11</v>
+      </c>
+      <c r="O9" t="n">
+        <v>240</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="n">
+        <v>10</v>
+      </c>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>5,3,3,3,2,2,1,0,5</t>
+        </is>
+      </c>
+      <c r="T9" t="n">
+        <v>262241.3520474</v>
+      </c>
+      <c r="U9" t="n">
+        <v>42164.152</v>
+      </c>
+      <c r="V9" t="n">
+        <v>31315.465533</v>
+      </c>
+      <c r="W9" t="n">
+        <v>1940</v>
+      </c>
+      <c r="X9" t="n">
+        <v>720</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>930</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>2880</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>2310</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>240</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>25</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>5</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ9" t="inlineStr"/>
+      <c r="AK9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>11</v>
+      </c>
+      <c r="C10" t="n">
+        <v>240</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>10</v>
+      </c>
+      <c r="F10" t="n">
+        <v>5</v>
+      </c>
+      <c r="G10" t="n">
+        <v>20</v>
+      </c>
+      <c r="H10" t="n">
+        <v>25</v>
+      </c>
+      <c r="I10" t="n">
+        <v>15</v>
+      </c>
+      <c r="J10" t="n">
+        <v>5</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>2</v>
+      </c>
+      <c r="M10" t="n">
+        <v>2</v>
+      </c>
+      <c r="N10" t="n">
+        <v>11</v>
+      </c>
+      <c r="O10" t="n">
+        <v>240</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="n">
+        <v>20</v>
+      </c>
+      <c r="S10" t="inlineStr">
+        <is>
+          <t>5,3,3,3,3,2,1,0,5</t>
+        </is>
+      </c>
+      <c r="T10" t="n">
+        <v>281305.9271814</v>
+      </c>
+      <c r="U10" t="n">
+        <v>42164.152</v>
+      </c>
+      <c r="V10" t="n">
+        <v>33595.597563</v>
+      </c>
+      <c r="W10" t="n">
+        <v>1940</v>
+      </c>
+      <c r="X10" t="n">
+        <v>720</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>930</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>2880</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>2610</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>240</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>25</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>5</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ10" t="inlineStr"/>
+      <c r="AK10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>11</v>
+      </c>
+      <c r="C11" t="n">
+        <v>240</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>10</v>
+      </c>
+      <c r="F11" t="n">
+        <v>5</v>
+      </c>
+      <c r="G11" t="n">
+        <v>30</v>
+      </c>
+      <c r="H11" t="n">
+        <v>25</v>
+      </c>
+      <c r="I11" t="n">
+        <v>15</v>
+      </c>
+      <c r="J11" t="n">
+        <v>10</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>2</v>
+      </c>
+      <c r="M11" t="n">
+        <v>2</v>
+      </c>
+      <c r="N11" t="n">
+        <v>11</v>
+      </c>
+      <c r="O11" t="n">
+        <v>240</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="inlineStr"/>
+      <c r="R11" t="n">
+        <v>30</v>
+      </c>
+      <c r="S11" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,2,1,0,10</t>
+        </is>
+      </c>
+      <c r="T11" t="n">
+        <v>300370.5023154</v>
+      </c>
+      <c r="U11" t="n">
+        <v>42164.152</v>
+      </c>
+      <c r="V11" t="n">
+        <v>35875.729593</v>
+      </c>
+      <c r="W11" t="n">
+        <v>1940</v>
+      </c>
+      <c r="X11" t="n">
+        <v>720</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>930</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>2880</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>2910</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>240</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>25</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ11" t="inlineStr"/>
+      <c r="AK11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>11</v>
+      </c>
+      <c r="C12" t="n">
+        <v>240</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>10</v>
+      </c>
+      <c r="F12" t="n">
+        <v>5</v>
+      </c>
+      <c r="G12" t="n">
+        <v>30</v>
+      </c>
+      <c r="H12" t="n">
+        <v>25</v>
+      </c>
+      <c r="I12" t="n">
+        <v>14</v>
+      </c>
+      <c r="J12" t="n">
+        <v>5</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>2</v>
+      </c>
+      <c r="M12" t="n">
+        <v>2</v>
+      </c>
+      <c r="N12" t="n">
+        <v>11</v>
+      </c>
+      <c r="O12" t="n">
+        <v>240</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="inlineStr"/>
+      <c r="R12" t="n">
+        <v>30</v>
+      </c>
+      <c r="S12" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,2,0,0,5</t>
+        </is>
+      </c>
+      <c r="T12" t="n">
+        <v>300370.5023154</v>
+      </c>
+      <c r="U12" t="n">
+        <v>42164.152</v>
+      </c>
+      <c r="V12" t="n">
+        <v>35875.729593</v>
+      </c>
+      <c r="W12" t="n">
+        <v>1940</v>
+      </c>
+      <c r="X12" t="n">
+        <v>720</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>860</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>2880</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>2840</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>240</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>25</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>14</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>5</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ12" t="inlineStr"/>
+      <c r="AK12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>13</v>
+      </c>
+      <c r="C13" t="n">
+        <v>260</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>10</v>
+      </c>
+      <c r="F13" t="n">
+        <v>5</v>
+      </c>
+      <c r="G13" t="n">
+        <v>30</v>
+      </c>
+      <c r="H13" t="n">
+        <v>35</v>
+      </c>
+      <c r="I13" t="n">
+        <v>24</v>
+      </c>
+      <c r="J13" t="n">
+        <v>6</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>2</v>
+      </c>
+      <c r="M13" t="n">
+        <v>2</v>
+      </c>
+      <c r="N13" t="n">
+        <v>13</v>
+      </c>
+      <c r="O13" t="n">
+        <v>260</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" t="inlineStr"/>
+      <c r="R13" t="n">
+        <v>30</v>
+      </c>
+      <c r="S13" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,2,2,0,6</t>
+        </is>
+      </c>
+      <c r="T13" t="n">
+        <v>439068.2552688</v>
+      </c>
+      <c r="U13" t="n">
+        <v>63892.3752</v>
+      </c>
+      <c r="V13" t="n">
+        <v>60436.657798</v>
+      </c>
+      <c r="W13" t="n">
+        <v>1940</v>
+      </c>
+      <c r="X13" t="n">
+        <v>720</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>2880</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>2980</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>260</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>35</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>24</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>6</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ13" t="inlineStr"/>
+      <c r="AK13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>13</v>
+      </c>
+      <c r="C14" t="n">
+        <v>260</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>10</v>
+      </c>
+      <c r="F14" t="n">
+        <v>5</v>
+      </c>
+      <c r="G14" t="n">
+        <v>30</v>
+      </c>
+      <c r="H14" t="n">
+        <v>35</v>
+      </c>
+      <c r="I14" t="n">
+        <v>25</v>
+      </c>
+      <c r="J14" t="n">
+        <v>7</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>2</v>
+      </c>
+      <c r="M14" t="n">
+        <v>2</v>
+      </c>
+      <c r="N14" t="n">
+        <v>13</v>
+      </c>
+      <c r="O14" t="n">
+        <v>260</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="inlineStr"/>
+      <c r="R14" t="n">
+        <v>30</v>
+      </c>
+      <c r="S14" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,2,2,1,7</t>
+        </is>
+      </c>
+      <c r="T14" t="n">
+        <v>439068.2552688</v>
+      </c>
+      <c r="U14" t="n">
+        <v>63892.3752</v>
+      </c>
+      <c r="V14" t="n">
+        <v>60436.657798</v>
+      </c>
+      <c r="W14" t="n">
+        <v>1940</v>
+      </c>
+      <c r="X14" t="n">
+        <v>720</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>1070</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>2880</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>3050</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>260</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>35</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>25</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>7</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ14" t="inlineStr"/>
+      <c r="AK14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>15</v>
+      </c>
+      <c r="C15" t="n">
+        <v>300</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>10</v>
+      </c>
+      <c r="F15" t="n">
+        <v>5</v>
+      </c>
+      <c r="G15" t="n">
+        <v>30</v>
+      </c>
+      <c r="H15" t="n">
+        <v>55</v>
+      </c>
+      <c r="I15" t="n">
+        <v>45</v>
+      </c>
+      <c r="J15" t="n">
+        <v>8</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>2</v>
+      </c>
+      <c r="M15" t="n">
+        <v>2</v>
+      </c>
+      <c r="N15" t="n">
+        <v>15</v>
+      </c>
+      <c r="O15" t="n">
+        <v>300</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q15" t="inlineStr"/>
+      <c r="R15" t="n">
+        <v>30</v>
+      </c>
+      <c r="S15" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,3,3,3,8</t>
+        </is>
+      </c>
+      <c r="T15" t="n">
+        <v>1025737.9632116</v>
+      </c>
+      <c r="U15" t="n">
+        <v>160476.96</v>
+      </c>
+      <c r="V15" t="n">
+        <v>169322.059</v>
+      </c>
+      <c r="W15" t="n">
+        <v>1940</v>
+      </c>
+      <c r="X15" t="n">
+        <v>720</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>1350</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>2880</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>3330</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>300</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>55</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>45</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ15" t="inlineStr"/>
+      <c r="AK15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>16</v>
+      </c>
+      <c r="C16" t="n">
+        <v>400</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" t="n">
+        <v>10</v>
+      </c>
+      <c r="F16" t="n">
+        <v>5</v>
+      </c>
+      <c r="G16" t="n">
+        <v>30</v>
+      </c>
+      <c r="H16" t="n">
+        <v>95</v>
+      </c>
+      <c r="I16" t="n">
+        <v>85</v>
+      </c>
+      <c r="J16" t="n">
+        <v>10</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>2</v>
+      </c>
+      <c r="M16" t="n">
+        <v>2</v>
+      </c>
+      <c r="N16" t="n">
+        <v>16</v>
+      </c>
+      <c r="O16" t="n">
+        <v>400</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q16" t="inlineStr"/>
+      <c r="R16" t="n">
+        <v>30</v>
+      </c>
+      <c r="S16" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,5,5,5,10</t>
+        </is>
+      </c>
+      <c r="T16" t="n">
+        <v>5420424.8662278</v>
+      </c>
+      <c r="U16" t="n">
+        <v>833050.5745</v>
+      </c>
+      <c r="V16" t="n">
+        <v>853721.0043080001</v>
+      </c>
+      <c r="W16" t="n">
+        <v>1940</v>
+      </c>
+      <c r="X16" t="n">
+        <v>720</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>1910</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>2880</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>3890</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>400</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>95</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>85</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ16" t="inlineStr"/>
+      <c r="AK16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>16</v>
+      </c>
+      <c r="C17" t="n">
+        <v>500</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>10</v>
+      </c>
+      <c r="F17" t="n">
+        <v>5</v>
+      </c>
+      <c r="G17" t="n">
+        <v>30</v>
+      </c>
+      <c r="H17" t="n">
+        <v>160</v>
+      </c>
+      <c r="I17" t="n">
+        <v>150</v>
+      </c>
+      <c r="J17" t="n">
+        <v>10</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>2</v>
+      </c>
+      <c r="M17" t="n">
+        <v>2</v>
+      </c>
+      <c r="N17" t="n">
+        <v>16</v>
+      </c>
+      <c r="O17" t="n">
+        <v>500</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="inlineStr"/>
+      <c r="R17" t="n">
+        <v>30</v>
+      </c>
+      <c r="S17" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,5,5,5,10</t>
+        </is>
+      </c>
+      <c r="T17" t="n">
+        <v>8845668.6970999</v>
+      </c>
+      <c r="U17" t="n">
+        <v>1363901.8855</v>
+      </c>
+      <c r="V17" t="n">
+        <v>1387463.278256</v>
+      </c>
+      <c r="W17" t="n">
+        <v>1940</v>
+      </c>
+      <c r="X17" t="n">
+        <v>720</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>2820</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>2880</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>4800</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>500</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>160</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>150</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ17" t="inlineStr"/>
+      <c r="AK17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>pvp</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>9</v>
+      </c>
+      <c r="C18" t="n">
+        <v>161</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" t="n">
+        <v>9</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>15</v>
+      </c>
+      <c r="I18" t="n">
+        <v>5</v>
+      </c>
+      <c r="J18" t="n">
+        <v>1</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>2</v>
+      </c>
+      <c r="M18" t="n">
+        <v>2</v>
+      </c>
+      <c r="N18" t="n">
+        <v>9</v>
+      </c>
+      <c r="O18" t="n">
+        <v>256</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q18" t="inlineStr"/>
+      <c r="R18" t="n">
+        <v>0</v>
+      </c>
+      <c r="S18" t="inlineStr">
+        <is>
+          <t>5,3,3,3,1,1,0,0,1</t>
+        </is>
+      </c>
+      <c r="T18" t="n">
+        <v>224961.2515871</v>
+      </c>
+      <c r="U18" t="n">
+        <v>43835.3747</v>
+      </c>
+      <c r="V18" t="n">
+        <v>26196.115552</v>
+      </c>
+      <c r="W18" t="n">
+        <v>1300</v>
+      </c>
+      <c r="X18" t="n">
+        <v>400</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>470</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>1600</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>1070</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>256</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ18" t="inlineStr"/>
+      <c r="AK18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>pvp</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>10</v>
+      </c>
+      <c r="C19" t="n">
+        <v>200</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="n">
+        <v>9</v>
+      </c>
+      <c r="F19" t="n">
+        <v>5</v>
+      </c>
+      <c r="G19" t="n">
+        <v>10</v>
+      </c>
+      <c r="H19" t="n">
+        <v>20</v>
+      </c>
+      <c r="I19" t="n">
+        <v>10</v>
+      </c>
+      <c r="J19" t="n">
+        <v>2</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" t="n">
+        <v>2</v>
+      </c>
+      <c r="M19" t="n">
+        <v>2</v>
+      </c>
+      <c r="N19" t="n">
+        <v>10</v>
+      </c>
+      <c r="O19" t="n">
+        <v>260</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q19" t="inlineStr"/>
+      <c r="R19" t="n">
+        <v>10</v>
+      </c>
+      <c r="S19" t="inlineStr">
+        <is>
+          <t>5,3,3,3,2,2,0,0,2</t>
+        </is>
+      </c>
+      <c r="T19" t="n">
+        <v>315195.4733008</v>
+      </c>
+      <c r="U19" t="n">
+        <v>53805.734</v>
+      </c>
+      <c r="V19" t="n">
+        <v>38591.171128</v>
+      </c>
+      <c r="W19" t="n">
+        <v>1940</v>
+      </c>
+      <c r="X19" t="n">
+        <v>720</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>860</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>2880</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>2240</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>260</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>20</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>2</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ19" t="inlineStr"/>
+      <c r="AK19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>pvp</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>11</v>
+      </c>
+      <c r="C20" t="n">
+        <v>240</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>10</v>
+      </c>
+      <c r="F20" t="n">
+        <v>5</v>
+      </c>
+      <c r="G20" t="n">
+        <v>20</v>
+      </c>
+      <c r="H20" t="n">
+        <v>25</v>
+      </c>
+      <c r="I20" t="n">
+        <v>15</v>
+      </c>
+      <c r="J20" t="n">
+        <v>5</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>2</v>
+      </c>
+      <c r="M20" t="n">
+        <v>2</v>
+      </c>
+      <c r="N20" t="n">
+        <v>11</v>
+      </c>
+      <c r="O20" t="n">
+        <v>264</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="inlineStr"/>
+      <c r="R20" t="n">
+        <v>20</v>
+      </c>
+      <c r="S20" t="inlineStr">
+        <is>
+          <t>5,3,3,3,3,2,1,0,5</t>
+        </is>
+      </c>
+      <c r="T20" t="n">
+        <v>414593.5216346001</v>
+      </c>
+      <c r="U20" t="n">
+        <v>65390.4367</v>
+      </c>
+      <c r="V20" t="n">
+        <v>56401.482761</v>
+      </c>
+      <c r="W20" t="n">
+        <v>1940</v>
+      </c>
+      <c r="X20" t="n">
+        <v>720</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>930</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>2880</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>2610</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>264</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>25</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>5</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ20" t="inlineStr"/>
+      <c r="AK20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>pvp</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>13</v>
+      </c>
+      <c r="C21" t="n">
+        <v>260</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" t="n">
+        <v>10</v>
+      </c>
+      <c r="F21" t="n">
+        <v>5</v>
+      </c>
+      <c r="G21" t="n">
+        <v>30</v>
+      </c>
+      <c r="H21" t="n">
+        <v>35</v>
+      </c>
+      <c r="I21" t="n">
+        <v>25</v>
+      </c>
+      <c r="J21" t="n">
+        <v>7</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" t="n">
+        <v>2</v>
+      </c>
+      <c r="M21" t="n">
+        <v>2</v>
+      </c>
+      <c r="N21" t="n">
+        <v>13</v>
+      </c>
+      <c r="O21" t="n">
+        <v>266</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q21" t="inlineStr"/>
+      <c r="R21" t="n">
+        <v>30</v>
+      </c>
+      <c r="S21" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,2,2,1,7</t>
+        </is>
+      </c>
+      <c r="T21" t="n">
+        <v>487629.3863176</v>
+      </c>
+      <c r="U21" t="n">
+        <v>74612.4296</v>
+      </c>
+      <c r="V21" t="n">
+        <v>69245.52171099999</v>
+      </c>
+      <c r="W21" t="n">
+        <v>1940</v>
+      </c>
+      <c r="X21" t="n">
+        <v>720</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>1070</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>2880</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>3050</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>266</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>35</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>25</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>7</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ21" t="inlineStr"/>
+      <c r="AK21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>pvp</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>15</v>
+      </c>
+      <c r="C22" t="n">
+        <v>300</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" t="n">
+        <v>10</v>
+      </c>
+      <c r="F22" t="n">
+        <v>5</v>
+      </c>
+      <c r="G22" t="n">
+        <v>30</v>
+      </c>
+      <c r="H22" t="n">
+        <v>55</v>
+      </c>
+      <c r="I22" t="n">
+        <v>45</v>
+      </c>
+      <c r="J22" t="n">
+        <v>8</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>2</v>
+      </c>
+      <c r="M22" t="n">
+        <v>2</v>
+      </c>
+      <c r="N22" t="n">
+        <v>15</v>
+      </c>
+      <c r="O22" t="n">
+        <v>270</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="inlineStr"/>
+      <c r="R22" t="n">
+        <v>30</v>
+      </c>
+      <c r="S22" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,3,3,3,8</t>
+        </is>
+      </c>
+      <c r="T22" t="n">
+        <v>557268.48404</v>
+      </c>
+      <c r="U22" t="n">
+        <v>91109.51999999999</v>
+      </c>
+      <c r="V22" t="n">
+        <v>84569.15152699999</v>
+      </c>
+      <c r="W22" t="n">
+        <v>1940</v>
+      </c>
+      <c r="X22" t="n">
+        <v>720</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>1350</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>2880</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>3330</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>270</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>55</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>45</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ22" t="inlineStr"/>
+      <c r="AK22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>pvp</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>16</v>
+      </c>
+      <c r="C23" t="n">
+        <v>400</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>10</v>
+      </c>
+      <c r="F23" t="n">
+        <v>5</v>
+      </c>
+      <c r="G23" t="n">
+        <v>30</v>
+      </c>
+      <c r="H23" t="n">
+        <v>95</v>
+      </c>
+      <c r="I23" t="n">
+        <v>85</v>
+      </c>
+      <c r="J23" t="n">
+        <v>10</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>2</v>
+      </c>
+      <c r="M23" t="n">
+        <v>2</v>
+      </c>
+      <c r="N23" t="n">
+        <v>16</v>
+      </c>
+      <c r="O23" t="n">
+        <v>280</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="inlineStr"/>
+      <c r="R23" t="n">
+        <v>30</v>
+      </c>
+      <c r="S23" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,5,5,5,10</t>
+        </is>
+      </c>
+      <c r="T23" t="n">
+        <v>700702.8953131</v>
+      </c>
+      <c r="U23" t="n">
+        <v>124651.1565</v>
+      </c>
+      <c r="V23" t="n">
+        <v>115667.323924</v>
+      </c>
+      <c r="W23" t="n">
+        <v>1940</v>
+      </c>
+      <c r="X23" t="n">
+        <v>720</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>1910</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>2880</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>3890</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>280</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>95</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>85</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ23" t="inlineStr"/>
+      <c r="AK23" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/opm_hero_property/heroes/2.xlsx
+++ b/opm_hero_property/heroes/2.xlsx
@@ -6543,7 +6543,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AK23"/>
+  <dimension ref="A1:AS25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6737,6 +6737,46 @@
           <t>type_aura</t>
         </is>
       </c>
+      <c r="AL1" t="inlineStr">
+        <is>
+          <t>基础战力</t>
+        </is>
+      </c>
+      <c r="AM1" t="inlineStr">
+        <is>
+          <t>装备战力</t>
+        </is>
+      </c>
+      <c r="AN1" t="inlineStr">
+        <is>
+          <t>天赋战力</t>
+        </is>
+      </c>
+      <c r="AO1" t="inlineStr">
+        <is>
+          <t>研究所战力</t>
+        </is>
+      </c>
+      <c r="AP1" t="inlineStr">
+        <is>
+          <t>职阶战力</t>
+        </is>
+      </c>
+      <c r="AQ1" t="inlineStr">
+        <is>
+          <t>机械核心战力</t>
+        </is>
+      </c>
+      <c r="AR1" t="inlineStr">
+        <is>
+          <t>限制器战力</t>
+        </is>
+      </c>
+      <c r="AS1" t="inlineStr">
+        <is>
+          <t>总战力</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -6745,31 +6785,31 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>16</v>
+      </c>
+      <c r="C2" t="n">
+        <v>400</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>10</v>
+      </c>
+      <c r="F2" t="n">
         <v>5</v>
       </c>
-      <c r="C2" t="n">
-        <v>81</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>5</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
       <c r="G2" t="n">
-        <v>-1</v>
+        <v>30</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -6781,106 +6821,130 @@
         <v>2</v>
       </c>
       <c r="N2" t="n">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="O2" t="n">
-        <v>81</v>
+        <v>400</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="n">
-        <v>-1</v>
+        <v>30</v>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>3,2,1,1,0,0,0,0,0</t>
+          <t>5,3,3,3,4,5,5,5,10</t>
         </is>
       </c>
       <c r="T2" t="n">
-        <v>35962.2207568</v>
+        <v>5555301.8662278</v>
       </c>
       <c r="U2" t="n">
-        <v>4127.1494</v>
+        <v>856778.5745</v>
       </c>
       <c r="V2" t="n">
-        <v>2633.645035</v>
+        <v>875561.0043080001</v>
       </c>
       <c r="W2" t="n">
-        <v>1300</v>
+        <v>1940</v>
       </c>
       <c r="X2" t="n">
-        <v>400</v>
+        <v>720</v>
       </c>
       <c r="Y2" t="n">
         <v>15000</v>
       </c>
       <c r="Z2" t="n">
+        <v>1910</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>2880</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>3890</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD2" t="n">
         <v>400</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>1600</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>1900</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>81</v>
       </c>
       <c r="AE2" t="n">
         <v>5000</v>
       </c>
       <c r="AF2" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="AG2" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="AH2" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AI2" t="n">
         <v>0</v>
       </c>
       <c r="AJ2" t="inlineStr"/>
       <c r="AK2" t="inlineStr"/>
+      <c r="AL2" t="n">
+        <v>11692188.96395</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>114159.6</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>2223419.9410988</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>481003.7</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>2006045.6</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>16516817.8050488</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>pve</t>
+          <t>pvp</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C3" t="n">
-        <v>121</v>
+        <v>400</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G3" t="n">
-        <v>-1</v>
+        <v>30</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -6892,73 +6956,97 @@
         <v>2</v>
       </c>
       <c r="N3" t="n">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="O3" t="n">
-        <v>121</v>
+        <v>280</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="n">
-        <v>-1</v>
+        <v>30</v>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>3,2,2,2,0,0,0,0,0</t>
+          <t>5,3,3,3,4,5,5,5,10</t>
         </is>
       </c>
       <c r="T3" t="n">
-        <v>48944.6406271</v>
+        <v>700702.8953131</v>
       </c>
       <c r="U3" t="n">
-        <v>6259.3012</v>
+        <v>124651.1565</v>
       </c>
       <c r="V3" t="n">
-        <v>3974.76736</v>
+        <v>115667.323924</v>
       </c>
       <c r="W3" t="n">
-        <v>1300</v>
+        <v>1940</v>
       </c>
       <c r="X3" t="n">
-        <v>400</v>
+        <v>720</v>
       </c>
       <c r="Y3" t="n">
         <v>15000</v>
       </c>
       <c r="Z3" t="n">
-        <v>400</v>
+        <v>1910</v>
       </c>
       <c r="AA3" t="n">
-        <v>1600</v>
+        <v>2880</v>
       </c>
       <c r="AB3" t="n">
-        <v>1900</v>
+        <v>3890</v>
       </c>
       <c r="AC3" t="n">
         <v>0</v>
       </c>
       <c r="AD3" t="n">
-        <v>121</v>
+        <v>280</v>
       </c>
       <c r="AE3" t="n">
         <v>5000</v>
       </c>
       <c r="AF3" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="AG3" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="AH3" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AI3" t="n">
         <v>0</v>
       </c>
       <c r="AJ3" t="inlineStr"/>
       <c r="AK3" t="inlineStr"/>
+      <c r="AL3" t="n">
+        <v>1325072.60625</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>114159.6</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>254149.7314761</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>68760.45</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>479008.6</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>2241150.9877261</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -6967,16 +7055,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C4" t="n">
-        <v>161</v>
+        <v>81</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -6985,10 +7073,10 @@
         <v>-1</v>
       </c>
       <c r="H4" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -7003,10 +7091,10 @@
         <v>2</v>
       </c>
       <c r="N4" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="O4" t="n">
-        <v>161</v>
+        <v>81</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -7017,50 +7105,50 @@
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>4,3,2,2,0,0,0,0,0</t>
+          <t>3,2,1,1,0,0,0,0,0</t>
         </is>
       </c>
       <c r="T4" t="n">
-        <v>84360.81800840001</v>
+        <v>7673.5248</v>
       </c>
       <c r="U4" t="n">
-        <v>11695.975</v>
+        <v>1613.1494</v>
       </c>
       <c r="V4" t="n">
-        <v>8292.17792</v>
+        <v>607.6985</v>
       </c>
       <c r="W4" t="n">
-        <v>1300</v>
+        <v>550</v>
       </c>
       <c r="X4" t="n">
-        <v>400</v>
+        <v>80</v>
       </c>
       <c r="Y4" t="n">
         <v>15000</v>
       </c>
       <c r="Z4" t="n">
-        <v>400</v>
+        <v>80</v>
       </c>
       <c r="AA4" t="n">
-        <v>1600</v>
+        <v>320</v>
       </c>
       <c r="AB4" t="n">
-        <v>1900</v>
+        <v>200</v>
       </c>
       <c r="AC4" t="n">
         <v>0</v>
       </c>
       <c r="AD4" t="n">
-        <v>161</v>
+        <v>81</v>
       </c>
       <c r="AE4" t="n">
         <v>5000</v>
       </c>
       <c r="AF4" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AH4" t="n">
         <v>0</v>
@@ -7070,6 +7158,30 @@
       </c>
       <c r="AJ4" t="inlineStr"/>
       <c r="AK4" t="inlineStr"/>
+      <c r="AL4" t="n">
+        <v>19529.122035</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>4498.9</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>24028.022035</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -7078,16 +7190,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C5" t="n">
-        <v>161</v>
+        <v>121</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -7096,13 +7208,13 @@
         <v>-1</v>
       </c>
       <c r="H5" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -7114,10 +7226,10 @@
         <v>2</v>
       </c>
       <c r="N5" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="O5" t="n">
-        <v>161</v>
+        <v>121</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
@@ -7128,59 +7240,83 @@
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>4,3,2,2,0,1,0,0,1</t>
+          <t>3,2,2,2,0,0,0,0,0</t>
         </is>
       </c>
       <c r="T5" t="n">
-        <v>84360.81800840001</v>
+        <v>20462.6731</v>
       </c>
       <c r="U5" t="n">
-        <v>11695.975</v>
+        <v>4043.3012</v>
       </c>
       <c r="V5" t="n">
-        <v>8292.17792</v>
+        <v>1853.456</v>
       </c>
       <c r="W5" t="n">
-        <v>1300</v>
+        <v>638</v>
       </c>
       <c r="X5" t="n">
-        <v>400</v>
+        <v>160</v>
       </c>
       <c r="Y5" t="n">
         <v>15000</v>
       </c>
       <c r="Z5" t="n">
-        <v>470</v>
+        <v>160</v>
       </c>
       <c r="AA5" t="n">
-        <v>1600</v>
+        <v>640</v>
       </c>
       <c r="AB5" t="n">
-        <v>1970</v>
+        <v>400</v>
       </c>
       <c r="AC5" t="n">
         <v>0</v>
       </c>
       <c r="AD5" t="n">
-        <v>161</v>
+        <v>121</v>
       </c>
       <c r="AE5" t="n">
         <v>5000</v>
       </c>
       <c r="AF5" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AH5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI5" t="n">
         <v>0</v>
       </c>
       <c r="AJ5" t="inlineStr"/>
       <c r="AK5" t="inlineStr"/>
+      <c r="AL5" t="n">
+        <v>49808.72338</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>11906.8</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>61715.52338</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -7204,16 +7340,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H6" t="n">
         <v>15</v>
       </c>
       <c r="I6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -7235,39 +7371,39 @@
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>4,3,2,2,1,1,0,0,2</t>
+          <t>4,3,2,2,0,0,0,0,0</t>
         </is>
       </c>
       <c r="T6" t="n">
-        <v>71767.9545164</v>
+        <v>57348.1924</v>
       </c>
       <c r="U6" t="n">
-        <v>11695.975</v>
+        <v>10355.975</v>
       </c>
       <c r="V6" t="n">
-        <v>7006.488319999999</v>
+        <v>5963.632</v>
       </c>
       <c r="W6" t="n">
-        <v>1300</v>
+        <v>900</v>
       </c>
       <c r="X6" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="Y6" t="n">
         <v>15000</v>
       </c>
       <c r="Z6" t="n">
-        <v>470</v>
+        <v>300</v>
       </c>
       <c r="AA6" t="n">
-        <v>1600</v>
+        <v>1200</v>
       </c>
       <c r="AB6" t="n">
-        <v>1070</v>
+        <v>750</v>
       </c>
       <c r="AC6" t="n">
         <v>0</v>
@@ -7282,16 +7418,40 @@
         <v>15</v>
       </c>
       <c r="AG6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AH6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AI6" t="n">
         <v>0</v>
       </c>
       <c r="AJ6" t="inlineStr"/>
       <c r="AK6" t="inlineStr"/>
+      <c r="AL6" t="n">
+        <v>119407.0039</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>32738.5</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>6160.5</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>9356.799999999999</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>167662.8039</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -7300,31 +7460,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C7" t="n">
-        <v>240</v>
+        <v>161</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F7" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>-1</v>
       </c>
       <c r="H7" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="I7" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -7336,10 +7496,10 @@
         <v>2</v>
       </c>
       <c r="N7" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="O7" t="n">
-        <v>240</v>
+        <v>161</v>
       </c>
       <c r="P7" t="n">
         <v>0</v>
@@ -7350,59 +7510,83 @@
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>5,3,3,3,0,2,1,0,0</t>
+          <t>4,3,2,2,0,1,0,0,1</t>
         </is>
       </c>
       <c r="T7" t="n">
-        <v>300370.5023154</v>
+        <v>57348.1924</v>
       </c>
       <c r="U7" t="n">
-        <v>42164.152</v>
+        <v>10355.975</v>
       </c>
       <c r="V7" t="n">
-        <v>35875.729593</v>
+        <v>5963.632</v>
       </c>
       <c r="W7" t="n">
-        <v>1940</v>
+        <v>900</v>
       </c>
       <c r="X7" t="n">
-        <v>720</v>
+        <v>300</v>
       </c>
       <c r="Y7" t="n">
         <v>15000</v>
       </c>
       <c r="Z7" t="n">
-        <v>930</v>
+        <v>370</v>
       </c>
       <c r="AA7" t="n">
-        <v>2880</v>
+        <v>1200</v>
       </c>
       <c r="AB7" t="n">
-        <v>2910</v>
+        <v>820</v>
       </c>
       <c r="AC7" t="n">
         <v>0</v>
       </c>
       <c r="AD7" t="n">
-        <v>240</v>
+        <v>161</v>
       </c>
       <c r="AE7" t="n">
         <v>5000</v>
       </c>
       <c r="AF7" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="AG7" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="AH7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI7" t="n">
         <v>0</v>
       </c>
       <c r="AJ7" t="inlineStr"/>
       <c r="AK7" t="inlineStr"/>
+      <c r="AL7" t="n">
+        <v>119407.0039</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>32738.5</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>6160.5</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>9538.799999999999</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>167844.8039</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -7411,31 +7595,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C8" t="n">
-        <v>240</v>
+        <v>161</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>15</v>
+      </c>
+      <c r="I8" t="n">
         <v>5</v>
       </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>25</v>
-      </c>
-      <c r="I8" t="n">
-        <v>15</v>
-      </c>
       <c r="J8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -7447,10 +7631,10 @@
         <v>2</v>
       </c>
       <c r="N8" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="O8" t="n">
-        <v>240</v>
+        <v>161</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
@@ -7461,59 +7645,83 @@
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>5,3,3,3,1,2,1,0,1</t>
+          <t>4,3,2,2,1,1,0,0,2</t>
         </is>
       </c>
       <c r="T8" t="n">
-        <v>243176.7769134</v>
+        <v>57767.9545164</v>
       </c>
       <c r="U8" t="n">
-        <v>42164.152</v>
+        <v>10355.975</v>
       </c>
       <c r="V8" t="n">
-        <v>29035.333503</v>
+        <v>6006.488319999999</v>
       </c>
       <c r="W8" t="n">
-        <v>1940</v>
+        <v>900</v>
       </c>
       <c r="X8" t="n">
-        <v>720</v>
+        <v>300</v>
       </c>
       <c r="Y8" t="n">
         <v>15000</v>
       </c>
       <c r="Z8" t="n">
-        <v>930</v>
+        <v>370</v>
       </c>
       <c r="AA8" t="n">
-        <v>2880</v>
+        <v>1200</v>
       </c>
       <c r="AB8" t="n">
-        <v>2010</v>
+        <v>820</v>
       </c>
       <c r="AC8" t="n">
         <v>0</v>
       </c>
       <c r="AD8" t="n">
-        <v>240</v>
+        <v>161</v>
       </c>
       <c r="AE8" t="n">
         <v>5000</v>
       </c>
       <c r="AF8" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="AG8" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="AH8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AI8" t="n">
         <v>0</v>
       </c>
       <c r="AJ8" t="inlineStr"/>
       <c r="AK8" t="inlineStr"/>
+      <c r="AL8" t="n">
+        <v>119407.0039</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>32738.5</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>666.1859563999999</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>6160.5</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>9538.799999999999</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>168510.9898564</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -7537,7 +7745,7 @@
         <v>5</v>
       </c>
       <c r="G9" t="n">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="H9" t="n">
         <v>25</v>
@@ -7546,7 +7754,7 @@
         <v>15</v>
       </c>
       <c r="J9" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -7568,21 +7776,21 @@
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="n">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>5,3,3,3,2,2,1,0,5</t>
+          <t>5,3,3,3,0,2,1,0,0</t>
         </is>
       </c>
       <c r="T9" t="n">
-        <v>262241.3520474</v>
+        <v>240481.3194</v>
       </c>
       <c r="U9" t="n">
-        <v>42164.152</v>
+        <v>42321.152</v>
       </c>
       <c r="V9" t="n">
-        <v>31315.465533</v>
+        <v>28934.3203</v>
       </c>
       <c r="W9" t="n">
         <v>1940</v>
@@ -7600,7 +7808,7 @@
         <v>2880</v>
       </c>
       <c r="AB9" t="n">
-        <v>2310</v>
+        <v>2010</v>
       </c>
       <c r="AC9" t="n">
         <v>0</v>
@@ -7618,13 +7826,37 @@
         <v>15</v>
       </c>
       <c r="AH9" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AI9" t="n">
         <v>0</v>
       </c>
       <c r="AJ9" t="inlineStr"/>
       <c r="AK9" t="inlineStr"/>
+      <c r="AL9" t="n">
+        <v>541848.9599250001</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>114159.6</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>15121.05</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>38885</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>710014.609925</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -7648,7 +7880,7 @@
         <v>5</v>
       </c>
       <c r="G10" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>25</v>
@@ -7657,7 +7889,7 @@
         <v>15</v>
       </c>
       <c r="J10" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -7679,21 +7911,21 @@
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>5,3,3,3,3,2,1,0,5</t>
+          <t>5,3,3,3,1,2,1,0,1</t>
         </is>
       </c>
       <c r="T10" t="n">
-        <v>281305.9271814</v>
+        <v>242387.7769134</v>
       </c>
       <c r="U10" t="n">
-        <v>42164.152</v>
+        <v>42321.152</v>
       </c>
       <c r="V10" t="n">
-        <v>33595.597563</v>
+        <v>29162.333503</v>
       </c>
       <c r="W10" t="n">
         <v>1940</v>
@@ -7711,7 +7943,7 @@
         <v>2880</v>
       </c>
       <c r="AB10" t="n">
-        <v>2610</v>
+        <v>2010</v>
       </c>
       <c r="AC10" t="n">
         <v>0</v>
@@ -7729,13 +7961,37 @@
         <v>15</v>
       </c>
       <c r="AH10" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AI10" t="n">
         <v>0</v>
       </c>
       <c r="AJ10" t="inlineStr"/>
       <c r="AK10" t="inlineStr"/>
+      <c r="AL10" t="n">
+        <v>541848.9599250001</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>114159.6</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>3217.53343065</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>15121.05</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>38885</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS10" t="n">
+        <v>713232.14335565</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -7759,7 +8015,7 @@
         <v>5</v>
       </c>
       <c r="G11" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="H11" t="n">
         <v>25</v>
@@ -7768,7 +8024,7 @@
         <v>15</v>
       </c>
       <c r="J11" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -7790,21 +8046,21 @@
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,2,1,0,10</t>
+          <t>5,3,3,3,2,2,1,0,5</t>
         </is>
       </c>
       <c r="T11" t="n">
-        <v>300370.5023154</v>
+        <v>261452.3520474</v>
       </c>
       <c r="U11" t="n">
-        <v>42164.152</v>
+        <v>42321.152</v>
       </c>
       <c r="V11" t="n">
-        <v>35875.729593</v>
+        <v>31442.465533</v>
       </c>
       <c r="W11" t="n">
         <v>1940</v>
@@ -7822,7 +8078,7 @@
         <v>2880</v>
       </c>
       <c r="AB11" t="n">
-        <v>2910</v>
+        <v>2310</v>
       </c>
       <c r="AC11" t="n">
         <v>0</v>
@@ -7840,13 +8096,37 @@
         <v>15</v>
       </c>
       <c r="AH11" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AI11" t="n">
         <v>0</v>
       </c>
       <c r="AJ11" t="inlineStr"/>
       <c r="AK11" t="inlineStr"/>
+      <c r="AL11" t="n">
+        <v>541848.9599250001</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>114159.6</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>35917.86773714999</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>15121.05</v>
+      </c>
+      <c r="AP11" t="n">
+        <v>38885</v>
+      </c>
+      <c r="AQ11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS11" t="n">
+        <v>745932.4776621499</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -7870,13 +8150,13 @@
         <v>5</v>
       </c>
       <c r="G12" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H12" t="n">
         <v>25</v>
       </c>
       <c r="I12" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J12" t="n">
         <v>5</v>
@@ -7901,21 +8181,21 @@
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,2,0,0,5</t>
+          <t>5,3,3,3,3,2,1,0,5</t>
         </is>
       </c>
       <c r="T12" t="n">
-        <v>300370.5023154</v>
+        <v>280516.9271814</v>
       </c>
       <c r="U12" t="n">
-        <v>42164.152</v>
+        <v>42321.152</v>
       </c>
       <c r="V12" t="n">
-        <v>35875.729593</v>
+        <v>33722.597563</v>
       </c>
       <c r="W12" t="n">
         <v>1940</v>
@@ -7927,13 +8207,13 @@
         <v>15000</v>
       </c>
       <c r="Z12" t="n">
-        <v>860</v>
+        <v>930</v>
       </c>
       <c r="AA12" t="n">
         <v>2880</v>
       </c>
       <c r="AB12" t="n">
-        <v>2840</v>
+        <v>2610</v>
       </c>
       <c r="AC12" t="n">
         <v>0</v>
@@ -7948,7 +8228,7 @@
         <v>25</v>
       </c>
       <c r="AG12" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AH12" t="n">
         <v>5</v>
@@ -7958,6 +8238,30 @@
       </c>
       <c r="AJ12" t="inlineStr"/>
       <c r="AK12" t="inlineStr"/>
+      <c r="AL12" t="n">
+        <v>541848.9599250001</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>114159.6</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>68618.20204365</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>15121.05</v>
+      </c>
+      <c r="AP12" t="n">
+        <v>38885</v>
+      </c>
+      <c r="AQ12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS12" t="n">
+        <v>778632.81196865</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -7966,10 +8270,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C13" t="n">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -7984,13 +8288,13 @@
         <v>30</v>
       </c>
       <c r="H13" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="I13" t="n">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="J13" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -8002,10 +8306,10 @@
         <v>2</v>
       </c>
       <c r="N13" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O13" t="n">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
@@ -8016,17 +8320,17 @@
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,2,2,0,6</t>
+          <t>5,3,3,3,4,2,1,0,10</t>
         </is>
       </c>
       <c r="T13" t="n">
-        <v>439068.2552688</v>
+        <v>299581.5023154</v>
       </c>
       <c r="U13" t="n">
-        <v>63892.3752</v>
+        <v>42321.152</v>
       </c>
       <c r="V13" t="n">
-        <v>60436.657798</v>
+        <v>36002.729593</v>
       </c>
       <c r="W13" t="n">
         <v>1940</v>
@@ -8038,37 +8342,61 @@
         <v>15000</v>
       </c>
       <c r="Z13" t="n">
-        <v>1000</v>
+        <v>930</v>
       </c>
       <c r="AA13" t="n">
         <v>2880</v>
       </c>
       <c r="AB13" t="n">
-        <v>2980</v>
+        <v>2910</v>
       </c>
       <c r="AC13" t="n">
         <v>0</v>
       </c>
       <c r="AD13" t="n">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="AE13" t="n">
         <v>5000</v>
       </c>
       <c r="AF13" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="AG13" t="n">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="AH13" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AI13" t="n">
         <v>0</v>
       </c>
       <c r="AJ13" t="inlineStr"/>
       <c r="AK13" t="inlineStr"/>
+      <c r="AL13" t="n">
+        <v>541848.9599250001</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>114159.6</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>101318.53635015</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>15121.05</v>
+      </c>
+      <c r="AP13" t="n">
+        <v>38885</v>
+      </c>
+      <c r="AQ13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS13" t="n">
+        <v>811333.14627515</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -8077,10 +8405,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C14" t="n">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -8095,13 +8423,13 @@
         <v>30</v>
       </c>
       <c r="H14" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="I14" t="n">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="J14" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -8113,10 +8441,10 @@
         <v>2</v>
       </c>
       <c r="N14" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O14" t="n">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -8127,17 +8455,17 @@
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,2,2,1,7</t>
+          <t>5,3,3,3,4,2,0,0,5</t>
         </is>
       </c>
       <c r="T14" t="n">
-        <v>439068.2552688</v>
+        <v>299581.5023154</v>
       </c>
       <c r="U14" t="n">
-        <v>63892.3752</v>
+        <v>42321.152</v>
       </c>
       <c r="V14" t="n">
-        <v>60436.657798</v>
+        <v>36002.729593</v>
       </c>
       <c r="W14" t="n">
         <v>1940</v>
@@ -8149,37 +8477,61 @@
         <v>15000</v>
       </c>
       <c r="Z14" t="n">
-        <v>1070</v>
+        <v>860</v>
       </c>
       <c r="AA14" t="n">
         <v>2880</v>
       </c>
       <c r="AB14" t="n">
-        <v>3050</v>
+        <v>2840</v>
       </c>
       <c r="AC14" t="n">
         <v>0</v>
       </c>
       <c r="AD14" t="n">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="AE14" t="n">
         <v>5000</v>
       </c>
       <c r="AF14" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="AG14" t="n">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="AH14" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AI14" t="n">
         <v>0</v>
       </c>
       <c r="AJ14" t="inlineStr"/>
       <c r="AK14" t="inlineStr"/>
+      <c r="AL14" t="n">
+        <v>541848.9599250001</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>114159.6</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>101318.53635015</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>15121.05</v>
+      </c>
+      <c r="AP14" t="n">
+        <v>38703</v>
+      </c>
+      <c r="AQ14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS14" t="n">
+        <v>811151.14627515</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -8188,10 +8540,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C15" t="n">
-        <v>300</v>
+        <v>260</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -8206,13 +8558,13 @@
         <v>30</v>
       </c>
       <c r="H15" t="n">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="I15" t="n">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="J15" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -8224,10 +8576,10 @@
         <v>2</v>
       </c>
       <c r="N15" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O15" t="n">
-        <v>300</v>
+        <v>260</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -8238,17 +8590,17 @@
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,3,3,3,8</t>
+          <t>5,3,3,3,4,2,2,0,6</t>
         </is>
       </c>
       <c r="T15" t="n">
-        <v>1025737.9632116</v>
+        <v>441568.2552688</v>
       </c>
       <c r="U15" t="n">
-        <v>160476.96</v>
+        <v>64700.3752</v>
       </c>
       <c r="V15" t="n">
-        <v>169322.059</v>
+        <v>61210.657798</v>
       </c>
       <c r="W15" t="n">
         <v>1940</v>
@@ -8260,37 +8612,61 @@
         <v>15000</v>
       </c>
       <c r="Z15" t="n">
-        <v>1350</v>
+        <v>1000</v>
       </c>
       <c r="AA15" t="n">
         <v>2880</v>
       </c>
       <c r="AB15" t="n">
-        <v>3330</v>
+        <v>2980</v>
       </c>
       <c r="AC15" t="n">
         <v>0</v>
       </c>
       <c r="AD15" t="n">
-        <v>300</v>
+        <v>260</v>
       </c>
       <c r="AE15" t="n">
         <v>5000</v>
       </c>
       <c r="AF15" t="n">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="AG15" t="n">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="AH15" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AI15" t="n">
         <v>0</v>
       </c>
       <c r="AJ15" t="inlineStr"/>
       <c r="AK15" t="inlineStr"/>
+      <c r="AL15" t="n">
+        <v>835628.09403</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>114159.6</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>158436.4324573</v>
+      </c>
+      <c r="AO15" t="n">
+        <v>33220.2</v>
+      </c>
+      <c r="AP15" t="n">
+        <v>111419.8</v>
+      </c>
+      <c r="AQ15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS15" t="n">
+        <v>1252864.1264873</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -8299,10 +8675,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C16" t="n">
-        <v>400</v>
+        <v>260</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -8317,13 +8693,13 @@
         <v>30</v>
       </c>
       <c r="H16" t="n">
-        <v>95</v>
+        <v>35</v>
       </c>
       <c r="I16" t="n">
-        <v>85</v>
+        <v>25</v>
       </c>
       <c r="J16" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -8335,10 +8711,10 @@
         <v>2</v>
       </c>
       <c r="N16" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="O16" t="n">
-        <v>400</v>
+        <v>260</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
@@ -8349,17 +8725,17 @@
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,5,5,5,10</t>
+          <t>5,3,3,3,4,2,2,1,7</t>
         </is>
       </c>
       <c r="T16" t="n">
-        <v>5420424.8662278</v>
+        <v>441568.2552688</v>
       </c>
       <c r="U16" t="n">
-        <v>833050.5745</v>
+        <v>64700.3752</v>
       </c>
       <c r="V16" t="n">
-        <v>853721.0043080001</v>
+        <v>61210.657798</v>
       </c>
       <c r="W16" t="n">
         <v>1940</v>
@@ -8371,37 +8747,61 @@
         <v>15000</v>
       </c>
       <c r="Z16" t="n">
-        <v>1910</v>
+        <v>1070</v>
       </c>
       <c r="AA16" t="n">
         <v>2880</v>
       </c>
       <c r="AB16" t="n">
-        <v>3890</v>
+        <v>3050</v>
       </c>
       <c r="AC16" t="n">
         <v>0</v>
       </c>
       <c r="AD16" t="n">
-        <v>400</v>
+        <v>260</v>
       </c>
       <c r="AE16" t="n">
         <v>5000</v>
       </c>
       <c r="AF16" t="n">
-        <v>95</v>
+        <v>35</v>
       </c>
       <c r="AG16" t="n">
-        <v>85</v>
+        <v>25</v>
       </c>
       <c r="AH16" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AI16" t="n">
         <v>0</v>
       </c>
       <c r="AJ16" t="inlineStr"/>
       <c r="AK16" t="inlineStr"/>
+      <c r="AL16" t="n">
+        <v>835628.09403</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>114159.6</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>158436.4324573</v>
+      </c>
+      <c r="AO16" t="n">
+        <v>33220.2</v>
+      </c>
+      <c r="AP16" t="n">
+        <v>111601.8</v>
+      </c>
+      <c r="AQ16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS16" t="n">
+        <v>1253046.1264873</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -8410,10 +8810,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C17" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -8428,13 +8828,13 @@
         <v>30</v>
       </c>
       <c r="H17" t="n">
-        <v>160</v>
+        <v>55</v>
       </c>
       <c r="I17" t="n">
-        <v>150</v>
+        <v>45</v>
       </c>
       <c r="J17" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -8446,10 +8846,10 @@
         <v>2</v>
       </c>
       <c r="N17" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="O17" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -8460,17 +8860,17 @@
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,5,5,5,10</t>
+          <t>5,3,3,3,4,3,3,3,8</t>
         </is>
       </c>
       <c r="T17" t="n">
-        <v>8845668.6970999</v>
+        <v>1063232.9632116</v>
       </c>
       <c r="U17" t="n">
-        <v>1363901.8855</v>
+        <v>167333.96</v>
       </c>
       <c r="V17" t="n">
-        <v>1387463.278256</v>
+        <v>175955.059</v>
       </c>
       <c r="W17" t="n">
         <v>1940</v>
@@ -8482,70 +8882,94 @@
         <v>15000</v>
       </c>
       <c r="Z17" t="n">
-        <v>2820</v>
+        <v>1350</v>
       </c>
       <c r="AA17" t="n">
         <v>2880</v>
       </c>
       <c r="AB17" t="n">
-        <v>4800</v>
+        <v>3330</v>
       </c>
       <c r="AC17" t="n">
         <v>0</v>
       </c>
       <c r="AD17" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="AE17" t="n">
         <v>5000</v>
       </c>
       <c r="AF17" t="n">
-        <v>160</v>
+        <v>55</v>
       </c>
       <c r="AG17" t="n">
-        <v>150</v>
+        <v>45</v>
       </c>
       <c r="AH17" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AI17" t="n">
         <v>0</v>
       </c>
       <c r="AJ17" t="inlineStr"/>
       <c r="AK17" t="inlineStr"/>
+      <c r="AL17" t="n">
+        <v>1918109.8266</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>114159.6</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>369821.8998616</v>
+      </c>
+      <c r="AO17" t="n">
+        <v>155697.55</v>
+      </c>
+      <c r="AP17" t="n">
+        <v>685602</v>
+      </c>
+      <c r="AQ17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS17" t="n">
+        <v>3243390.8764616</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>pvp</t>
+          <t>pve</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C18" t="n">
-        <v>161</v>
+        <v>400</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="H18" t="n">
-        <v>15</v>
+        <v>95</v>
       </c>
       <c r="I18" t="n">
-        <v>5</v>
+        <v>85</v>
       </c>
       <c r="J18" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -8557,106 +8981,130 @@
         <v>2</v>
       </c>
       <c r="N18" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="O18" t="n">
-        <v>256</v>
+        <v>400</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>5,3,3,3,1,1,0,0,1</t>
+          <t>5,3,3,3,4,5,5,5,10</t>
         </is>
       </c>
       <c r="T18" t="n">
-        <v>224961.2515871</v>
+        <v>5555301.8662278</v>
       </c>
       <c r="U18" t="n">
-        <v>43835.3747</v>
+        <v>856778.5745</v>
       </c>
       <c r="V18" t="n">
-        <v>26196.115552</v>
+        <v>875561.0043080001</v>
       </c>
       <c r="W18" t="n">
-        <v>1300</v>
+        <v>1940</v>
       </c>
       <c r="X18" t="n">
-        <v>400</v>
+        <v>720</v>
       </c>
       <c r="Y18" t="n">
         <v>15000</v>
       </c>
       <c r="Z18" t="n">
-        <v>470</v>
+        <v>1910</v>
       </c>
       <c r="AA18" t="n">
-        <v>1600</v>
+        <v>2880</v>
       </c>
       <c r="AB18" t="n">
-        <v>1070</v>
+        <v>3890</v>
       </c>
       <c r="AC18" t="n">
         <v>0</v>
       </c>
       <c r="AD18" t="n">
-        <v>256</v>
+        <v>400</v>
       </c>
       <c r="AE18" t="n">
         <v>5000</v>
       </c>
       <c r="AF18" t="n">
-        <v>15</v>
+        <v>95</v>
       </c>
       <c r="AG18" t="n">
-        <v>5</v>
+        <v>85</v>
       </c>
       <c r="AH18" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="AI18" t="n">
         <v>0</v>
       </c>
       <c r="AJ18" t="inlineStr"/>
       <c r="AK18" t="inlineStr"/>
+      <c r="AL18" t="n">
+        <v>11692188.96395</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>114159.6</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>2223419.9410988</v>
+      </c>
+      <c r="AO18" t="n">
+        <v>481003.7</v>
+      </c>
+      <c r="AP18" t="n">
+        <v>2006045.6</v>
+      </c>
+      <c r="AQ18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS18" t="n">
+        <v>16516817.8050488</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>pvp</t>
+          <t>pve</t>
         </is>
       </c>
       <c r="B19" t="n">
+        <v>16</v>
+      </c>
+      <c r="C19" t="n">
+        <v>500</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="n">
         <v>10</v>
-      </c>
-      <c r="C19" t="n">
-        <v>200</v>
-      </c>
-      <c r="D19" t="n">
-        <v>0</v>
-      </c>
-      <c r="E19" t="n">
-        <v>9</v>
       </c>
       <c r="F19" t="n">
         <v>5</v>
       </c>
       <c r="G19" t="n">
+        <v>30</v>
+      </c>
+      <c r="H19" t="n">
+        <v>160</v>
+      </c>
+      <c r="I19" t="n">
+        <v>150</v>
+      </c>
+      <c r="J19" t="n">
         <v>10</v>
-      </c>
-      <c r="H19" t="n">
-        <v>20</v>
-      </c>
-      <c r="I19" t="n">
-        <v>10</v>
-      </c>
-      <c r="J19" t="n">
-        <v>2</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -8668,31 +9116,31 @@
         <v>2</v>
       </c>
       <c r="N19" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="O19" t="n">
-        <v>260</v>
+        <v>500</v>
       </c>
       <c r="P19" t="n">
         <v>0</v>
       </c>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="S19" t="inlineStr">
         <is>
-          <t>5,3,3,3,2,2,0,0,2</t>
+          <t>5,3,3,3,4,5,5,5,10</t>
         </is>
       </c>
       <c r="T19" t="n">
-        <v>315195.4733008</v>
+        <v>9155386.6970999</v>
       </c>
       <c r="U19" t="n">
-        <v>53805.734</v>
+        <v>1417934.8855</v>
       </c>
       <c r="V19" t="n">
-        <v>38591.171128</v>
+        <v>1436695.278256</v>
       </c>
       <c r="W19" t="n">
         <v>1940</v>
@@ -8704,37 +9152,61 @@
         <v>15000</v>
       </c>
       <c r="Z19" t="n">
-        <v>860</v>
+        <v>2820</v>
       </c>
       <c r="AA19" t="n">
         <v>2880</v>
       </c>
       <c r="AB19" t="n">
-        <v>2240</v>
+        <v>4800</v>
       </c>
       <c r="AC19" t="n">
         <v>0</v>
       </c>
       <c r="AD19" t="n">
-        <v>260</v>
+        <v>500</v>
       </c>
       <c r="AE19" t="n">
         <v>5000</v>
       </c>
       <c r="AF19" t="n">
-        <v>20</v>
+        <v>160</v>
       </c>
       <c r="AG19" t="n">
+        <v>150</v>
+      </c>
+      <c r="AH19" t="n">
         <v>10</v>
-      </c>
-      <c r="AH19" t="n">
-        <v>2</v>
       </c>
       <c r="AI19" t="n">
         <v>0</v>
       </c>
       <c r="AJ19" t="inlineStr"/>
       <c r="AK19" t="inlineStr"/>
+      <c r="AL19" t="n">
+        <v>18971715.02505</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>114159.6</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>3602893.831971901</v>
+      </c>
+      <c r="AO19" t="n">
+        <v>1061573.2</v>
+      </c>
+      <c r="AP19" t="n">
+        <v>3467427.6</v>
+      </c>
+      <c r="AQ19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS19" t="n">
+        <v>27217769.2570219</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -8743,31 +9215,31 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C20" t="n">
-        <v>240</v>
+        <v>161</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>15</v>
+      </c>
+      <c r="I20" t="n">
         <v>5</v>
       </c>
-      <c r="G20" t="n">
-        <v>20</v>
-      </c>
-      <c r="H20" t="n">
-        <v>25</v>
-      </c>
-      <c r="I20" t="n">
-        <v>15</v>
-      </c>
       <c r="J20" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -8779,73 +9251,97 @@
         <v>2</v>
       </c>
       <c r="N20" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="O20" t="n">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
       </c>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="S20" t="inlineStr">
         <is>
-          <t>5,3,3,3,3,2,1,0,5</t>
+          <t>5,3,3,3,1,1,0,0,1</t>
         </is>
       </c>
       <c r="T20" t="n">
-        <v>414593.5216346001</v>
+        <v>210961.2515871</v>
       </c>
       <c r="U20" t="n">
-        <v>65390.4367</v>
+        <v>42495.3747</v>
       </c>
       <c r="V20" t="n">
-        <v>56401.482761</v>
+        <v>25196.115552</v>
       </c>
       <c r="W20" t="n">
-        <v>1940</v>
+        <v>900</v>
       </c>
       <c r="X20" t="n">
-        <v>720</v>
+        <v>300</v>
       </c>
       <c r="Y20" t="n">
         <v>15000</v>
       </c>
       <c r="Z20" t="n">
-        <v>930</v>
+        <v>370</v>
       </c>
       <c r="AA20" t="n">
-        <v>2880</v>
+        <v>1200</v>
       </c>
       <c r="AB20" t="n">
-        <v>2610</v>
+        <v>820</v>
       </c>
       <c r="AC20" t="n">
         <v>0</v>
       </c>
       <c r="AD20" t="n">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="AE20" t="n">
         <v>5000</v>
       </c>
       <c r="AF20" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="AG20" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="AH20" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AI20" t="n">
         <v>0</v>
       </c>
       <c r="AJ20" t="inlineStr"/>
       <c r="AK20" t="inlineStr"/>
+      <c r="AL20" t="n">
+        <v>570370.8139299999</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>32738.5</v>
+      </c>
+      <c r="AN20" t="n">
+        <v>3246.4875111</v>
+      </c>
+      <c r="AO20" t="n">
+        <v>14696.9</v>
+      </c>
+      <c r="AP20" t="n">
+        <v>32753.8</v>
+      </c>
+      <c r="AQ20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS20" t="n">
+        <v>653806.5014411</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -8854,31 +9350,31 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C21" t="n">
-        <v>260</v>
+        <v>200</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F21" t="n">
         <v>5</v>
       </c>
       <c r="G21" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="H21" t="n">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="I21" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="J21" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -8890,73 +9386,97 @@
         <v>2</v>
       </c>
       <c r="N21" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="O21" t="n">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="S21" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,2,2,1,7</t>
+          <t>5,3,3,3,2,2,0,0,2</t>
         </is>
       </c>
       <c r="T21" t="n">
-        <v>487629.3863176</v>
+        <v>285795.4733008</v>
       </c>
       <c r="U21" t="n">
-        <v>74612.4296</v>
+        <v>50991.734</v>
       </c>
       <c r="V21" t="n">
-        <v>69245.52171099999</v>
+        <v>36491.171128</v>
       </c>
       <c r="W21" t="n">
-        <v>1940</v>
+        <v>1100</v>
       </c>
       <c r="X21" t="n">
-        <v>720</v>
+        <v>450</v>
       </c>
       <c r="Y21" t="n">
         <v>15000</v>
       </c>
       <c r="Z21" t="n">
-        <v>1070</v>
+        <v>590</v>
       </c>
       <c r="AA21" t="n">
-        <v>2880</v>
+        <v>1800</v>
       </c>
       <c r="AB21" t="n">
-        <v>3050</v>
+        <v>1565</v>
       </c>
       <c r="AC21" t="n">
         <v>0</v>
       </c>
       <c r="AD21" t="n">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="AE21" t="n">
         <v>5000</v>
       </c>
       <c r="AF21" t="n">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="AG21" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AH21" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AI21" t="n">
         <v>0</v>
       </c>
       <c r="AJ21" t="inlineStr"/>
       <c r="AK21" t="inlineStr"/>
+      <c r="AL21" t="n">
+        <v>676967.802</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>49107.75</v>
+      </c>
+      <c r="AN21" t="n">
+        <v>44179.1698868</v>
+      </c>
+      <c r="AO21" t="n">
+        <v>19028.1</v>
+      </c>
+      <c r="AP21" t="n">
+        <v>65507.60000000001</v>
+      </c>
+      <c r="AQ21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS21" t="n">
+        <v>854790.4218868001</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -8965,10 +9485,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C22" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -8980,16 +9500,16 @@
         <v>5</v>
       </c>
       <c r="G22" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H22" t="n">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="I22" t="n">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="J22" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -9001,31 +9521,31 @@
         <v>2</v>
       </c>
       <c r="N22" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="O22" t="n">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
       </c>
       <c r="Q22" t="inlineStr"/>
       <c r="R22" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="S22" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,3,3,3,8</t>
+          <t>5,3,3,3,3,2,1,0,5</t>
         </is>
       </c>
       <c r="T22" t="n">
-        <v>557268.48404</v>
+        <v>414593.5216346001</v>
       </c>
       <c r="U22" t="n">
-        <v>91109.51999999999</v>
+        <v>65390.4367</v>
       </c>
       <c r="V22" t="n">
-        <v>84569.15152699999</v>
+        <v>56401.482761</v>
       </c>
       <c r="W22" t="n">
         <v>1940</v>
@@ -9037,37 +9557,61 @@
         <v>15000</v>
       </c>
       <c r="Z22" t="n">
-        <v>1350</v>
+        <v>930</v>
       </c>
       <c r="AA22" t="n">
         <v>2880</v>
       </c>
       <c r="AB22" t="n">
-        <v>3330</v>
+        <v>2610</v>
       </c>
       <c r="AC22" t="n">
         <v>0</v>
       </c>
       <c r="AD22" t="n">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="AE22" t="n">
         <v>5000</v>
       </c>
       <c r="AF22" t="n">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="AG22" t="n">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="AH22" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AI22" t="n">
         <v>0</v>
       </c>
       <c r="AJ22" t="inlineStr"/>
       <c r="AK22" t="inlineStr"/>
+      <c r="AL22" t="n">
+        <v>859025.0884050002</v>
+      </c>
+      <c r="AM22" t="n">
+        <v>114159.6</v>
+      </c>
+      <c r="AN22" t="n">
+        <v>110334.27233535</v>
+      </c>
+      <c r="AO22" t="n">
+        <v>23382.7</v>
+      </c>
+      <c r="AP22" t="n">
+        <v>95389.39999999999</v>
+      </c>
+      <c r="AQ22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS22" t="n">
+        <v>1202291.06074035</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -9076,10 +9620,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C23" t="n">
-        <v>400</v>
+        <v>260</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -9094,13 +9638,13 @@
         <v>30</v>
       </c>
       <c r="H23" t="n">
-        <v>95</v>
+        <v>35</v>
       </c>
       <c r="I23" t="n">
-        <v>85</v>
+        <v>25</v>
       </c>
       <c r="J23" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -9112,10 +9656,10 @@
         <v>2</v>
       </c>
       <c r="N23" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="O23" t="n">
-        <v>280</v>
+        <v>266</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -9126,17 +9670,17 @@
       </c>
       <c r="S23" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,5,5,5,10</t>
+          <t>5,3,3,3,4,2,2,1,7</t>
         </is>
       </c>
       <c r="T23" t="n">
-        <v>700702.8953131</v>
+        <v>487629.3863176</v>
       </c>
       <c r="U23" t="n">
-        <v>124651.1565</v>
+        <v>74612.4296</v>
       </c>
       <c r="V23" t="n">
-        <v>115667.323924</v>
+        <v>69245.52171099999</v>
       </c>
       <c r="W23" t="n">
         <v>1940</v>
@@ -9148,37 +9692,331 @@
         <v>15000</v>
       </c>
       <c r="Z23" t="n">
-        <v>1910</v>
+        <v>1070</v>
       </c>
       <c r="AA23" t="n">
         <v>2880</v>
       </c>
       <c r="AB23" t="n">
-        <v>3890</v>
+        <v>3050</v>
       </c>
       <c r="AC23" t="n">
         <v>0</v>
       </c>
       <c r="AD23" t="n">
-        <v>280</v>
+        <v>266</v>
       </c>
       <c r="AE23" t="n">
         <v>5000</v>
       </c>
       <c r="AF23" t="n">
-        <v>95</v>
+        <v>35</v>
       </c>
       <c r="AG23" t="n">
-        <v>85</v>
+        <v>25</v>
       </c>
       <c r="AH23" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AI23" t="n">
         <v>0</v>
       </c>
       <c r="AJ23" t="inlineStr"/>
       <c r="AK23" t="inlineStr"/>
+      <c r="AL23" t="n">
+        <v>938900.111915</v>
+      </c>
+      <c r="AM23" t="n">
+        <v>114159.6</v>
+      </c>
+      <c r="AN23" t="n">
+        <v>178554.53848085</v>
+      </c>
+      <c r="AO23" t="n">
+        <v>30363.65</v>
+      </c>
+      <c r="AP23" t="n">
+        <v>151723</v>
+      </c>
+      <c r="AQ23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS23" t="n">
+        <v>1413700.90039585</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>pvp</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>15</v>
+      </c>
+      <c r="C24" t="n">
+        <v>300</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" t="n">
+        <v>10</v>
+      </c>
+      <c r="F24" t="n">
+        <v>5</v>
+      </c>
+      <c r="G24" t="n">
+        <v>30</v>
+      </c>
+      <c r="H24" t="n">
+        <v>55</v>
+      </c>
+      <c r="I24" t="n">
+        <v>45</v>
+      </c>
+      <c r="J24" t="n">
+        <v>8</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0</v>
+      </c>
+      <c r="L24" t="n">
+        <v>2</v>
+      </c>
+      <c r="M24" t="n">
+        <v>2</v>
+      </c>
+      <c r="N24" t="n">
+        <v>15</v>
+      </c>
+      <c r="O24" t="n">
+        <v>270</v>
+      </c>
+      <c r="P24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q24" t="inlineStr"/>
+      <c r="R24" t="n">
+        <v>30</v>
+      </c>
+      <c r="S24" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,3,3,3,8</t>
+        </is>
+      </c>
+      <c r="T24" t="n">
+        <v>557268.48404</v>
+      </c>
+      <c r="U24" t="n">
+        <v>91109.51999999999</v>
+      </c>
+      <c r="V24" t="n">
+        <v>84569.15152699999</v>
+      </c>
+      <c r="W24" t="n">
+        <v>1940</v>
+      </c>
+      <c r="X24" t="n">
+        <v>720</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>1350</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>2880</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>3330</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>270</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>55</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>45</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ24" t="inlineStr"/>
+      <c r="AK24" t="inlineStr"/>
+      <c r="AL24" t="n">
+        <v>1064663.960275</v>
+      </c>
+      <c r="AM24" t="n">
+        <v>114159.6</v>
+      </c>
+      <c r="AN24" t="n">
+        <v>203193.98304525</v>
+      </c>
+      <c r="AO24" t="n">
+        <v>43173.05</v>
+      </c>
+      <c r="AP24" t="n">
+        <v>260818.2</v>
+      </c>
+      <c r="AQ24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS24" t="n">
+        <v>1686008.79332025</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>pvp</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>16</v>
+      </c>
+      <c r="C25" t="n">
+        <v>400</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" t="n">
+        <v>10</v>
+      </c>
+      <c r="F25" t="n">
+        <v>5</v>
+      </c>
+      <c r="G25" t="n">
+        <v>30</v>
+      </c>
+      <c r="H25" t="n">
+        <v>95</v>
+      </c>
+      <c r="I25" t="n">
+        <v>85</v>
+      </c>
+      <c r="J25" t="n">
+        <v>10</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
+        <v>2</v>
+      </c>
+      <c r="M25" t="n">
+        <v>2</v>
+      </c>
+      <c r="N25" t="n">
+        <v>16</v>
+      </c>
+      <c r="O25" t="n">
+        <v>280</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q25" t="inlineStr"/>
+      <c r="R25" t="n">
+        <v>30</v>
+      </c>
+      <c r="S25" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,5,5,5,10</t>
+        </is>
+      </c>
+      <c r="T25" t="n">
+        <v>700702.8953131</v>
+      </c>
+      <c r="U25" t="n">
+        <v>124651.1565</v>
+      </c>
+      <c r="V25" t="n">
+        <v>115667.323924</v>
+      </c>
+      <c r="W25" t="n">
+        <v>1940</v>
+      </c>
+      <c r="X25" t="n">
+        <v>720</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>1910</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>2880</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>3890</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>280</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>95</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>85</v>
+      </c>
+      <c r="AH25" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ25" t="inlineStr"/>
+      <c r="AK25" t="inlineStr"/>
+      <c r="AL25" t="n">
+        <v>1325072.60625</v>
+      </c>
+      <c r="AM25" t="n">
+        <v>114159.6</v>
+      </c>
+      <c r="AN25" t="n">
+        <v>254149.7314761</v>
+      </c>
+      <c r="AO25" t="n">
+        <v>68760.45</v>
+      </c>
+      <c r="AP25" t="n">
+        <v>479008.6</v>
+      </c>
+      <c r="AQ25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS25" t="n">
+        <v>2241150.9877261</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/opm_hero_property/heroes/2.xlsx
+++ b/opm_hero_property/heroes/2.xlsx
@@ -997,87 +997,87 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,56251;31,5723;41,2935</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,168753;31,0;41,0</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,42157;31,0;41,2195</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,6790;31,695;41,410</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,20370;31,0;41,0</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,5088;31,0;41,306</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>1</v>
+        <v>56251.013</v>
       </c>
       <c r="O2" t="n">
-        <v>1</v>
+        <v>5723.63</v>
       </c>
       <c r="P2" t="n">
-        <v>1</v>
+        <v>2935.4727</v>
       </c>
       <c r="Q2" t="n">
-        <v>1</v>
+        <v>168753.039</v>
       </c>
       <c r="R2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>1</v>
+        <v>42157.3526</v>
       </c>
       <c r="U2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>1</v>
+        <v>2195.7021</v>
       </c>
       <c r="W2" t="n">
-        <v>1</v>
+        <v>6790.1015</v>
       </c>
       <c r="X2" t="n">
-        <v>1</v>
+        <v>695.9612000000001</v>
       </c>
       <c r="Y2" t="n">
-        <v>1</v>
+        <v>410.4119</v>
       </c>
       <c r="Z2" t="n">
-        <v>1</v>
+        <v>20370.3045</v>
       </c>
       <c r="AA2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC2" t="n">
-        <v>1</v>
+        <v>5088.8453</v>
       </c>
       <c r="AD2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE2" t="n">
-        <v>1</v>
+        <v>306.9837</v>
       </c>
     </row>
     <row r="3">
@@ -1104,87 +1104,87 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,56256;31,5724;41,2935</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,168769;31,0;41,0</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,42161;31,0;41,2196</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,6795;31,696;41,410</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,20386;31,0;41,0</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,5092;31,0;41,307</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>1</v>
+        <v>56256.473</v>
       </c>
       <c r="O3" t="n">
-        <v>1</v>
+        <v>5724.5816</v>
       </c>
       <c r="P3" t="n">
-        <v>1</v>
+        <v>2935.9203</v>
       </c>
       <c r="Q3" t="n">
-        <v>1</v>
+        <v>168769.419</v>
       </c>
       <c r="R3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>1</v>
+        <v>42161.4446</v>
       </c>
       <c r="U3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>1</v>
+        <v>2196.0369</v>
       </c>
       <c r="W3" t="n">
-        <v>1</v>
+        <v>6795.5615</v>
       </c>
       <c r="X3" t="n">
-        <v>1</v>
+        <v>696.9128000000001</v>
       </c>
       <c r="Y3" t="n">
-        <v>1</v>
+        <v>410.8595</v>
       </c>
       <c r="Z3" t="n">
-        <v>1</v>
+        <v>20386.6845</v>
       </c>
       <c r="AA3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC3" t="n">
-        <v>1</v>
+        <v>5092.9373</v>
       </c>
       <c r="AD3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE3" t="n">
-        <v>1</v>
+        <v>307.3185</v>
       </c>
     </row>
     <row r="4">
@@ -1211,87 +1211,87 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,59953;31,6427;41,3376</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,179861;31,0;41,0</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,44932;31,0;41,2525</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,7193;31,772;41,459</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,21581;31,0;41,0</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,5391;31,0;41,343</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>1</v>
+        <v>59953.8492917</v>
       </c>
       <c r="O4" t="n">
-        <v>1</v>
+        <v>6427.692156160001</v>
       </c>
       <c r="P4" t="n">
-        <v>1</v>
+        <v>3376.80604263</v>
       </c>
       <c r="Q4" t="n">
-        <v>1</v>
+        <v>179861.5478751</v>
       </c>
       <c r="R4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>1</v>
+        <v>44932.44529334</v>
       </c>
       <c r="U4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>1</v>
+        <v>2525.81470749</v>
       </c>
       <c r="W4" t="n">
-        <v>1</v>
+        <v>7193.894994650001</v>
       </c>
       <c r="X4" t="n">
-        <v>1</v>
+        <v>772.5702899200001</v>
       </c>
       <c r="Y4" t="n">
-        <v>1</v>
+        <v>459.60330039</v>
       </c>
       <c r="Z4" t="n">
-        <v>1</v>
+        <v>21581.68498395</v>
       </c>
       <c r="AA4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC4" t="n">
-        <v>1</v>
+        <v>5391.46855643</v>
       </c>
       <c r="AD4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE4" t="n">
-        <v>1</v>
+        <v>343.77833997</v>
       </c>
     </row>
     <row r="5">
@@ -1318,87 +1318,87 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,64143;31,7224;41,3876</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,192431;31,0;41,0</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,48072;31,0;41,2899</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,7644;31,858;41,514</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,22934;31,0;41,0</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,5729;31,0;41,385</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>1</v>
+        <v>64143.9016673</v>
       </c>
       <c r="O5" t="n">
-        <v>1</v>
+        <v>7224.226501040001</v>
       </c>
       <c r="P5" t="n">
-        <v>1</v>
+        <v>3876.63927294</v>
       </c>
       <c r="Q5" t="n">
-        <v>1</v>
+        <v>192431.7050019</v>
       </c>
       <c r="R5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>1</v>
+        <v>48072.68234846</v>
       </c>
       <c r="U5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>1</v>
+        <v>2899.68460362</v>
       </c>
       <c r="W5" t="n">
-        <v>1</v>
+        <v>7644.70246085</v>
       </c>
       <c r="X5" t="n">
-        <v>1</v>
+        <v>858.1922664800001</v>
       </c>
       <c r="Y5" t="n">
-        <v>1</v>
+        <v>514.77332382</v>
       </c>
       <c r="Z5" t="n">
-        <v>1</v>
+        <v>22934.10738255</v>
       </c>
       <c r="AA5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC5" t="n">
-        <v>1</v>
+        <v>5729.32645967</v>
       </c>
       <c r="AD5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE5" t="n">
-        <v>1</v>
+        <v>385.04492586</v>
       </c>
     </row>
     <row r="6">
@@ -1425,87 +1425,87 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>21,53131;31,11707;41,4189</t>
+          <t>21,69070;31,8161;41,4464</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>21,53131;31,11707;41,4189</t>
+          <t>21,207212;31,0;41,0</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>21,26565;31,5853;41,2094</t>
+          <t>21,51765;31,0;41,3339</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>21,6288;31,1375;41,543</t>
+          <t>21,8174;31,958;41,579</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>21,6288;31,1375;41,543</t>
+          <t>21,24523;31,0;41,0</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>21,3144;31,687;41,271</t>
+          <t>21,6126;31,0;41,433</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>53131</v>
+        <v>69070.67833119999</v>
       </c>
       <c r="O6" t="n">
-        <v>11707</v>
+        <v>8161.520175920001</v>
       </c>
       <c r="P6" t="n">
-        <v>4189</v>
+        <v>4464.45712335</v>
       </c>
       <c r="Q6" t="n">
-        <v>53131</v>
+        <v>207212.0349936</v>
       </c>
       <c r="R6" t="n">
-        <v>11707</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>4189</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>26565</v>
+        <v>51765.05782623999</v>
       </c>
       <c r="U6" t="n">
-        <v>5853</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>2094</v>
+        <v>3339.36605205</v>
       </c>
       <c r="W6" t="n">
-        <v>6288</v>
+        <v>8174.4040924</v>
       </c>
       <c r="X6" t="n">
-        <v>1375</v>
+        <v>958.8818530400001</v>
       </c>
       <c r="Y6" t="n">
-        <v>543</v>
+        <v>579.6510825500001</v>
       </c>
       <c r="Z6" t="n">
-        <v>6288</v>
+        <v>24523.2122772</v>
       </c>
       <c r="AA6" t="n">
-        <v>1375</v>
+        <v>0</v>
       </c>
       <c r="AB6" t="n">
-        <v>543</v>
+        <v>0</v>
       </c>
       <c r="AC6" t="n">
-        <v>3144</v>
+        <v>6126.31163848</v>
       </c>
       <c r="AD6" t="n">
-        <v>687</v>
+        <v>0</v>
       </c>
       <c r="AE6" t="n">
-        <v>271</v>
+        <v>433.5727936500001</v>
       </c>
     </row>
     <row r="7">
@@ -1532,87 +1532,87 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>21,59273;31,13254;41,5341</t>
+          <t>21,77055;31,9240;41,5692</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>21,59273;31,13254;41,5341</t>
+          <t>21,231166;31,0;41,0</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>21,29636;31,6627;41,2670</t>
+          <t>21,57749;31,0;41,4257</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>21,6955;31,1543;41,671</t>
+          <t>21,9041;31,1076;41,716</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>21,6955;31,1543;41,671</t>
+          <t>21,27124;31,0;41,0</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>21,3477;31,771;41,335</t>
+          <t>21,6776;31,0;41,535</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>59273</v>
+        <v>77055.36030009999</v>
       </c>
       <c r="O7" t="n">
-        <v>13254</v>
+        <v>9240.45013388</v>
       </c>
       <c r="P7" t="n">
-        <v>5341</v>
+        <v>5692.42803268</v>
       </c>
       <c r="Q7" t="n">
-        <v>59273</v>
+        <v>231166.0809003</v>
       </c>
       <c r="R7" t="n">
-        <v>13254</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>5341</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>29636</v>
+        <v>57749.18211501999</v>
       </c>
       <c r="U7" t="n">
-        <v>6627</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>2670</v>
+        <v>4257.87512364</v>
       </c>
       <c r="W7" t="n">
-        <v>6955</v>
+        <v>9041.660896450001</v>
       </c>
       <c r="X7" t="n">
-        <v>1543</v>
+        <v>1076.01876956</v>
       </c>
       <c r="Y7" t="n">
-        <v>671</v>
+        <v>716.03820804</v>
       </c>
       <c r="Z7" t="n">
-        <v>6955</v>
+        <v>27124.98268935</v>
       </c>
       <c r="AA7" t="n">
-        <v>1543</v>
+        <v>0</v>
       </c>
       <c r="AB7" t="n">
-        <v>671</v>
+        <v>0</v>
       </c>
       <c r="AC7" t="n">
-        <v>3477</v>
+        <v>6776.27772679</v>
       </c>
       <c r="AD7" t="n">
-        <v>771</v>
+        <v>0</v>
       </c>
       <c r="AE7" t="n">
-        <v>335</v>
+        <v>535.58890092</v>
       </c>
     </row>
     <row r="8">
@@ -1639,87 +1639,87 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>21,67216;31,15003;41,6934</t>
+          <t>21,87382;31,10459;41,7390</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>21,67216;31,15003;41,6934</t>
+          <t>21,262146;31,0;41,0</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>21,33608;31,7501;41,3467</t>
+          <t>21,65488;31,0;41,5528</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>21,7814;31,1732;41,848</t>
+          <t>21,10158;31,1207;41,904</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>21,7814;31,1732;41,848</t>
+          <t>21,30476;31,0;41,0</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>21,3907;31,866;41,424</t>
+          <t>21,7613;31,0;41,676</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>67216</v>
+        <v>87382.0583363</v>
       </c>
       <c r="O8" t="n">
-        <v>15003</v>
+        <v>10459.60262184</v>
       </c>
       <c r="P8" t="n">
-        <v>6934</v>
+        <v>7390.627878480001</v>
       </c>
       <c r="Q8" t="n">
-        <v>67216</v>
+        <v>262146.1750089001</v>
       </c>
       <c r="R8" t="n">
-        <v>15003</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>6934</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>33608</v>
+        <v>65488.53163226</v>
       </c>
       <c r="U8" t="n">
-        <v>7501</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>3467</v>
+        <v>5528.11039704</v>
       </c>
       <c r="W8" t="n">
-        <v>7814</v>
+        <v>10158.73721135</v>
       </c>
       <c r="X8" t="n">
-        <v>1732</v>
+        <v>1207.68649608</v>
       </c>
       <c r="Y8" t="n">
-        <v>848</v>
+        <v>904.25169544</v>
       </c>
       <c r="Z8" t="n">
-        <v>7814</v>
+        <v>30476.21163405</v>
       </c>
       <c r="AA8" t="n">
-        <v>1732</v>
+        <v>0</v>
       </c>
       <c r="AB8" t="n">
-        <v>848</v>
+        <v>0</v>
       </c>
       <c r="AC8" t="n">
-        <v>3907</v>
+        <v>7613.471184769999</v>
       </c>
       <c r="AD8" t="n">
-        <v>866</v>
+        <v>0</v>
       </c>
       <c r="AE8" t="n">
-        <v>424</v>
+        <v>676.37057112</v>
       </c>
     </row>
     <row r="9">
@@ -1746,87 +1746,87 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>21,77429;31,17020;41,9079</t>
+          <t>21,100658;31,11865;41,9676</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>21,77429;31,17020;41,9079</t>
+          <t>21,301976;31,0;41,0</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>21,38714;31,8510;41,4539</t>
+          <t>21,75438;31,0;41,7237</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>21,8914;31,1949;41,1085</t>
+          <t>21,11589;31,1358;41,1156</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>21,8914;31,1949;41,1085</t>
+          <t>21,34768;31,0;41,0</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>21,4457;31,974;41,542</t>
+          <t>21,8685;31,0;41,865</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>77429</v>
+        <v>100658.6862008</v>
       </c>
       <c r="O9" t="n">
-        <v>17020</v>
+        <v>11865.70173416</v>
       </c>
       <c r="P9" t="n">
-        <v>9079</v>
+        <v>9676.27257469</v>
       </c>
       <c r="Q9" t="n">
-        <v>77429</v>
+        <v>301976.0586024001</v>
       </c>
       <c r="R9" t="n">
-        <v>17020</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>9079</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>38714</v>
+        <v>75438.70768016001</v>
       </c>
       <c r="U9" t="n">
-        <v>8510</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>4539</v>
+        <v>7237.74811887</v>
       </c>
       <c r="W9" t="n">
-        <v>8914</v>
+        <v>11589.4767716</v>
       </c>
       <c r="X9" t="n">
-        <v>1949</v>
+        <v>1358.87947592</v>
       </c>
       <c r="Y9" t="n">
-        <v>1085</v>
+        <v>1156.96994157</v>
       </c>
       <c r="Z9" t="n">
-        <v>8914</v>
+        <v>34768.4303148</v>
       </c>
       <c r="AA9" t="n">
-        <v>1949</v>
+        <v>0</v>
       </c>
       <c r="AB9" t="n">
-        <v>1085</v>
+        <v>0</v>
       </c>
       <c r="AC9" t="n">
-        <v>4457</v>
+        <v>8685.739734319999</v>
       </c>
       <c r="AD9" t="n">
-        <v>974</v>
+        <v>0</v>
       </c>
       <c r="AE9" t="n">
-        <v>542</v>
+        <v>865.40110911</v>
       </c>
     </row>
     <row r="10">
@@ -1853,87 +1853,87 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>21,85083;31,18095;41,10865</t>
+          <t>21,110609;31,12615;41,11579</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>21,85083;31,18095;41,10865</t>
+          <t>21,331827;31,0;41,0</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>21,42541;31,9047;41,5432</t>
+          <t>21,82896;31,0;41,8661</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>21,9739;31,2064;41,1283</t>
+          <t>21,12661;31,1439;41,1367</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>21,9739;31,2064;41,1283</t>
+          <t>21,37985;31,0;41,0</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>21,4869;31,1032;41,641</t>
+          <t>21,9489;31,0;41,1022</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>85083</v>
+        <v>110609.2040053</v>
       </c>
       <c r="O10" t="n">
-        <v>18095</v>
+        <v>12615.43878468</v>
       </c>
       <c r="P10" t="n">
-        <v>10865</v>
+        <v>11579.80733524</v>
       </c>
       <c r="Q10" t="n">
-        <v>85083</v>
+        <v>331827.6120159</v>
       </c>
       <c r="R10" t="n">
-        <v>18095</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>10865</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>42541</v>
+        <v>82896.12871606</v>
       </c>
       <c r="U10" t="n">
-        <v>9047</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>5432</v>
+        <v>8661.571706520001</v>
       </c>
       <c r="W10" t="n">
-        <v>9739</v>
+        <v>12661.76096185</v>
       </c>
       <c r="X10" t="n">
-        <v>2064</v>
+        <v>1439.43380916</v>
       </c>
       <c r="Y10" t="n">
-        <v>1283</v>
+        <v>1367.45143572</v>
       </c>
       <c r="Z10" t="n">
-        <v>9739</v>
+        <v>37985.28288555</v>
       </c>
       <c r="AA10" t="n">
-        <v>2064</v>
+        <v>0</v>
       </c>
       <c r="AB10" t="n">
-        <v>1283</v>
+        <v>0</v>
       </c>
       <c r="AC10" t="n">
-        <v>4869</v>
+        <v>9489.36370987</v>
       </c>
       <c r="AD10" t="n">
-        <v>1032</v>
+        <v>0</v>
       </c>
       <c r="AE10" t="n">
-        <v>641</v>
+        <v>1022.83900956</v>
       </c>
     </row>
     <row r="11">
@@ -1960,87 +1960,87 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>21,94416;31,19373;41,13058</t>
+          <t>21,122741;31,13505;41,13916</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>21,94416;31,19373;41,13058</t>
+          <t>21,368225;31,0;41,0</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>21,47208;31,9686;41,6529</t>
+          <t>21,91988;31,0;41,10409</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>21,10744;31,2201;41,1525</t>
+          <t>21,13967;31,1534;41,1625</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>21,10744;31,2201;41,1525</t>
+          <t>21,41902;31,0;41,0</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>21,5372;31,1100;41,762</t>
+          <t>21,10467;31,0;41,1215</t>
         </is>
       </c>
       <c r="N11" t="n">
-        <v>94416</v>
+        <v>122741.8547992</v>
       </c>
       <c r="O11" t="n">
-        <v>19373</v>
+        <v>13505.8619652</v>
       </c>
       <c r="P11" t="n">
-        <v>13058</v>
+        <v>13916.55633996</v>
       </c>
       <c r="Q11" t="n">
-        <v>94416</v>
+        <v>368225.5643976</v>
       </c>
       <c r="R11" t="n">
-        <v>19373</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>13058</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>47208</v>
+        <v>91988.95051983999</v>
       </c>
       <c r="U11" t="n">
-        <v>9686</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>6529</v>
+        <v>10409.43490308</v>
       </c>
       <c r="W11" t="n">
-        <v>10744</v>
+        <v>13967.4182284</v>
       </c>
       <c r="X11" t="n">
-        <v>2201</v>
+        <v>1534.9825524</v>
       </c>
       <c r="Y11" t="n">
-        <v>1525</v>
+        <v>1625.57038988</v>
       </c>
       <c r="Z11" t="n">
-        <v>10744</v>
+        <v>41902.25468520001</v>
       </c>
       <c r="AA11" t="n">
-        <v>2201</v>
+        <v>0</v>
       </c>
       <c r="AB11" t="n">
-        <v>1525</v>
+        <v>0</v>
       </c>
       <c r="AC11" t="n">
-        <v>5372</v>
+        <v>10467.88926568</v>
       </c>
       <c r="AD11" t="n">
-        <v>1100</v>
+        <v>0</v>
       </c>
       <c r="AE11" t="n">
-        <v>762</v>
+        <v>1215.90921924</v>
       </c>
     </row>
     <row r="12">
@@ -2067,87 +2067,87 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>21,111617;31,22060;41,16960</t>
+          <t>21,145102;31,15379;41,18075</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>21,111617;31,22060;41,16960</t>
+          <t>21,435307;31,0;41,0</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>21,55808;31,11030;41,8480</t>
+          <t>21,108747;31,0;41,13520</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>21,12592;31,2490;41,1955</t>
+          <t>21,16370;31,1735;41,2084</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>21,12592;31,2490;41,1955</t>
+          <t>21,49111;31,0;41,0</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>21,6296;31,1245;41,977</t>
+          <t>21,12268;31,0;41,1559</t>
         </is>
       </c>
       <c r="N12" t="n">
-        <v>111617</v>
+        <v>145102.3578277</v>
       </c>
       <c r="O12" t="n">
-        <v>22060</v>
+        <v>15379.52066804</v>
       </c>
       <c r="P12" t="n">
-        <v>16960</v>
+        <v>18075.44528359</v>
       </c>
       <c r="Q12" t="n">
-        <v>111617</v>
+        <v>435307.0734831</v>
       </c>
       <c r="R12" t="n">
-        <v>22060</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>16960</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>55808</v>
+        <v>108747.04180054</v>
       </c>
       <c r="U12" t="n">
-        <v>11030</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>8480</v>
+        <v>13520.23923357</v>
       </c>
       <c r="W12" t="n">
-        <v>12592</v>
+        <v>16370.44346665</v>
       </c>
       <c r="X12" t="n">
-        <v>2490</v>
+        <v>1735.93584548</v>
       </c>
       <c r="Y12" t="n">
-        <v>1955</v>
+        <v>2084.48774327</v>
       </c>
       <c r="Z12" t="n">
-        <v>12592</v>
+        <v>49111.33039995</v>
       </c>
       <c r="AA12" t="n">
-        <v>2490</v>
+        <v>0</v>
       </c>
       <c r="AB12" t="n">
-        <v>1955</v>
+        <v>0</v>
       </c>
       <c r="AC12" t="n">
-        <v>6296</v>
+        <v>12268.83785083</v>
       </c>
       <c r="AD12" t="n">
-        <v>1245</v>
+        <v>0</v>
       </c>
       <c r="AE12" t="n">
-        <v>977</v>
+        <v>1559.17447821</v>
       </c>
     </row>
     <row r="13">
@@ -2174,87 +2174,87 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>21,114278;31,22600;41,17513</t>
+          <t>21,148562;31,15755;41,18664</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>21,114278;31,22600;41,17513</t>
+          <t>21,445687;31,0;41,0</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>21,57139;31,11300;41,8756</t>
+          <t>21,111340;31,0;41,13961</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>21,12887;31,2549;41,2018</t>
+          <t>21,16754;31,1777;41,2150</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>21,12887;31,2549;41,2018</t>
+          <t>21,50262;31,0;41,0</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>21,6443;31,1274;41,1009</t>
+          <t>21,12556;31,0;41,1608</t>
         </is>
       </c>
       <c r="N13" t="n">
-        <v>114278</v>
+        <v>148562.6632399</v>
       </c>
       <c r="O13" t="n">
-        <v>22600</v>
+        <v>15755.95151676</v>
       </c>
       <c r="P13" t="n">
-        <v>17513</v>
+        <v>18664.867034</v>
       </c>
       <c r="Q13" t="n">
-        <v>114278</v>
+        <v>445687.9897197</v>
       </c>
       <c r="R13" t="n">
-        <v>22600</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>17513</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>57139</v>
+        <v>111340.36959298</v>
       </c>
       <c r="U13" t="n">
-        <v>11300</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>8756</v>
+        <v>13961.120382</v>
       </c>
       <c r="W13" t="n">
-        <v>12887</v>
+        <v>16754.28018355</v>
       </c>
       <c r="X13" t="n">
-        <v>2549</v>
+        <v>1777.52395212</v>
       </c>
       <c r="Y13" t="n">
-        <v>2018</v>
+        <v>2150.969402</v>
       </c>
       <c r="Z13" t="n">
-        <v>12887</v>
+        <v>50262.84055065001</v>
       </c>
       <c r="AA13" t="n">
-        <v>2549</v>
+        <v>0</v>
       </c>
       <c r="AB13" t="n">
-        <v>2018</v>
+        <v>0</v>
       </c>
       <c r="AC13" t="n">
-        <v>6443</v>
+        <v>12556.50448921</v>
       </c>
       <c r="AD13" t="n">
-        <v>1274</v>
+        <v>0</v>
       </c>
       <c r="AE13" t="n">
-        <v>1009</v>
+        <v>1608.902046</v>
       </c>
     </row>
     <row r="14">
@@ -2281,87 +2281,87 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>21,116944;31,23139;41,18067</t>
+          <t>21,152028;31,16131;41,19254</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>21,116944;31,23139;41,18067</t>
+          <t>21,456085;31,0;41,0</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>21,58472;31,11569;41,9033</t>
+          <t>21,113937;31,0;41,14402</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>21,13183;31,2609;41,2080</t>
+          <t>21,17138;31,1819;41,2217</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>21,13183;31,2609;41,2080</t>
+          <t>21,51415;31,0;41,0</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>21,6591;31,1304;41,1040</t>
+          <t>21,12844;31,0;41,1658</t>
         </is>
       </c>
       <c r="N14" t="n">
-        <v>116944</v>
+        <v>152028.4583272</v>
       </c>
       <c r="O14" t="n">
-        <v>23139</v>
+        <v>16131.84411856</v>
       </c>
       <c r="P14" t="n">
-        <v>18067</v>
+        <v>19254.28878441</v>
       </c>
       <c r="Q14" t="n">
-        <v>116944</v>
+        <v>456085.3749816</v>
       </c>
       <c r="R14" t="n">
-        <v>23139</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>18067</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>58472</v>
+        <v>113937.81162544</v>
       </c>
       <c r="U14" t="n">
-        <v>11569</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>9033</v>
+        <v>14402.00153043</v>
       </c>
       <c r="W14" t="n">
-        <v>13183</v>
+        <v>17138.6604844</v>
       </c>
       <c r="X14" t="n">
-        <v>2609</v>
+        <v>1819.07657872</v>
       </c>
       <c r="Y14" t="n">
-        <v>2080</v>
+        <v>2217.45106073</v>
       </c>
       <c r="Z14" t="n">
-        <v>13183</v>
+        <v>51415.9814532</v>
       </c>
       <c r="AA14" t="n">
-        <v>2609</v>
+        <v>0</v>
       </c>
       <c r="AB14" t="n">
-        <v>2080</v>
+        <v>0</v>
       </c>
       <c r="AC14" t="n">
-        <v>6591</v>
+        <v>12844.57851688</v>
       </c>
       <c r="AD14" t="n">
-        <v>1304</v>
+        <v>0</v>
       </c>
       <c r="AE14" t="n">
-        <v>1040</v>
+        <v>1658.62961379</v>
       </c>
     </row>
     <row r="15">
@@ -2388,87 +2388,87 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>21,119606;31,23679;41,18620</t>
+          <t>21,155488;31,16508;41,19843</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>21,119606;31,23679;41,18620</t>
+          <t>21,466466;31,0;41,0</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>21,59803;31,11839;41,9310</t>
+          <t>21,116531;31,0;41,14842</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>21,13478;31,2669;41,2143</t>
+          <t>21,17522;31,1860;41,2283</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>21,13478;31,2669;41,2143</t>
+          <t>21,52567;31,0;41,0</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>21,6739;31,1334;41,1071</t>
+          <t>21,13132;31,0;41,1708</t>
         </is>
       </c>
       <c r="N15" t="n">
-        <v>119606</v>
+        <v>155488.7182394</v>
       </c>
       <c r="O15" t="n">
-        <v>23679</v>
+        <v>16508.29936728</v>
       </c>
       <c r="P15" t="n">
-        <v>18620</v>
+        <v>19843.67323482</v>
       </c>
       <c r="Q15" t="n">
-        <v>119606</v>
+        <v>466466.1547182</v>
       </c>
       <c r="R15" t="n">
-        <v>23679</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>18620</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>59803</v>
+        <v>116531.10531788</v>
       </c>
       <c r="U15" t="n">
-        <v>11839</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>9310</v>
+        <v>14842.85477886</v>
       </c>
       <c r="W15" t="n">
-        <v>13478</v>
+        <v>17522.4517013</v>
       </c>
       <c r="X15" t="n">
-        <v>2669</v>
+        <v>1860.68908536</v>
       </c>
       <c r="Y15" t="n">
-        <v>2143</v>
+        <v>2283.89541946</v>
       </c>
       <c r="Z15" t="n">
-        <v>13478</v>
+        <v>52567.35510390001</v>
       </c>
       <c r="AA15" t="n">
-        <v>2669</v>
+        <v>0</v>
       </c>
       <c r="AB15" t="n">
-        <v>2143</v>
+        <v>0</v>
       </c>
       <c r="AC15" t="n">
-        <v>6739</v>
+        <v>13132.21105526</v>
       </c>
       <c r="AD15" t="n">
-        <v>1334</v>
+        <v>0</v>
       </c>
       <c r="AE15" t="n">
-        <v>1071</v>
+        <v>1708.32928158</v>
       </c>
     </row>
     <row r="16">
@@ -2495,87 +2495,87 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>21,122268;31,24219;41,19173</t>
+          <t>21,158948;31,16884;41,20433</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>21,122268;31,24219;41,19173</t>
+          <t>21,476846;31,0;41,0</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>21,61134;31,12109;41,9586</t>
+          <t>21,119124;31,0;41,15283</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>21,13774;31,2728;41,2205</t>
+          <t>21,17906;31,1902;41,2350</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>21,13774;31,2728;41,2205</t>
+          <t>21,53718;31,0;41,0</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>21,6887;31,1364;41,1102</t>
+          <t>21,13419;31,0;41,1758</t>
         </is>
       </c>
       <c r="N16" t="n">
-        <v>122268</v>
+        <v>158948.9781516</v>
       </c>
       <c r="O16" t="n">
-        <v>24219</v>
+        <v>16884.730216</v>
       </c>
       <c r="P16" t="n">
-        <v>19173</v>
+        <v>20433.09498523</v>
       </c>
       <c r="Q16" t="n">
-        <v>122268</v>
+        <v>476846.9344548</v>
       </c>
       <c r="R16" t="n">
-        <v>24219</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>19173</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>61134</v>
+        <v>119124.39901032</v>
       </c>
       <c r="U16" t="n">
-        <v>12109</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>9586</v>
+        <v>15283.73592729</v>
       </c>
       <c r="W16" t="n">
-        <v>13774</v>
+        <v>17906.2429182</v>
       </c>
       <c r="X16" t="n">
-        <v>2728</v>
+        <v>1902.277192</v>
       </c>
       <c r="Y16" t="n">
-        <v>2205</v>
+        <v>2350.37707819</v>
       </c>
       <c r="Z16" t="n">
-        <v>13774</v>
+        <v>53718.72875460001</v>
       </c>
       <c r="AA16" t="n">
-        <v>2728</v>
+        <v>0</v>
       </c>
       <c r="AB16" t="n">
-        <v>2205</v>
+        <v>0</v>
       </c>
       <c r="AC16" t="n">
-        <v>6887</v>
+        <v>13419.84359364</v>
       </c>
       <c r="AD16" t="n">
-        <v>1364</v>
+        <v>0</v>
       </c>
       <c r="AE16" t="n">
-        <v>1102</v>
+        <v>1758.05684937</v>
       </c>
     </row>
     <row r="17">
@@ -2602,87 +2602,87 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>21,124934;31,24759;41,19726</t>
+          <t>21,162414;31,17260;41,21022</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>21,124934;31,24759;41,19726</t>
+          <t>21,487244;31,0;41,0</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>21,62467;31,12379;41,9863</t>
+          <t>21,121721;31,0;41,15724</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>21,14069;31,2788;41,2267</t>
+          <t>21,18290;31,1943;41,2416</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>21,14069;31,2788;41,2267</t>
+          <t>21,54871;31,0;41,0</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>21,7034;31,1394;41,1133</t>
+          <t>21,13707;31,0;41,1807</t>
         </is>
       </c>
       <c r="N17" t="n">
-        <v>124934</v>
+        <v>162414.7732389</v>
       </c>
       <c r="O17" t="n">
-        <v>24759</v>
+        <v>17260.6228178</v>
       </c>
       <c r="P17" t="n">
-        <v>19726</v>
+        <v>21022.47943564</v>
       </c>
       <c r="Q17" t="n">
-        <v>124934</v>
+        <v>487244.3197167001</v>
       </c>
       <c r="R17" t="n">
-        <v>24759</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>19726</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>62467</v>
+        <v>121721.84104278</v>
       </c>
       <c r="U17" t="n">
-        <v>12379</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>9863</v>
+        <v>15724.58917572</v>
       </c>
       <c r="W17" t="n">
-        <v>14069</v>
+        <v>18290.62321905</v>
       </c>
       <c r="X17" t="n">
-        <v>2788</v>
+        <v>1943.8298186</v>
       </c>
       <c r="Y17" t="n">
-        <v>2267</v>
+        <v>2416.82143692</v>
       </c>
       <c r="Z17" t="n">
-        <v>14069</v>
+        <v>54871.86965715</v>
       </c>
       <c r="AA17" t="n">
-        <v>2788</v>
+        <v>0</v>
       </c>
       <c r="AB17" t="n">
-        <v>2267</v>
+        <v>0</v>
       </c>
       <c r="AC17" t="n">
-        <v>7034</v>
+        <v>13707.91762131</v>
       </c>
       <c r="AD17" t="n">
-        <v>1394</v>
+        <v>0</v>
       </c>
       <c r="AE17" t="n">
-        <v>1133</v>
+        <v>1807.75651716</v>
       </c>
     </row>
   </sheetData>
@@ -5107,141 +5107,141 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>7360</v>
+        <v>9095</v>
       </c>
       <c r="C2" t="n">
-        <v>1575</v>
+        <v>970</v>
       </c>
       <c r="D2" t="n">
-        <v>823</v>
+        <v>1178</v>
       </c>
       <c r="E2" t="n">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="F2" t="n">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="G2" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H2" t="n">
-        <v>7360</v>
+        <v>21736</v>
       </c>
       <c r="I2" t="n">
-        <v>1575</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>823</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>40</v>
+        <v>156</v>
       </c>
       <c r="L2" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>3680</v>
+        <v>6234</v>
       </c>
       <c r="O2" t="n">
-        <v>787</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>411</v>
+        <v>807</v>
       </c>
       <c r="Q2" t="n">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="R2" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="T2" t="n">
-        <v>5003</v>
+        <v>4682</v>
       </c>
       <c r="U2" t="n">
-        <v>874</v>
+        <v>533</v>
       </c>
       <c r="V2" t="n">
-        <v>727</v>
+        <v>469</v>
       </c>
       <c r="W2" t="n">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="X2" t="n">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="Y2" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Z2" t="n">
-        <v>5003</v>
+        <v>11190</v>
       </c>
       <c r="AA2" t="n">
-        <v>874</v>
+        <v>0</v>
       </c>
       <c r="AB2" t="n">
-        <v>727</v>
+        <v>0</v>
       </c>
       <c r="AC2" t="n">
-        <v>35</v>
+        <v>136</v>
       </c>
       <c r="AD2" t="n">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="AE2" t="n">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="AF2" t="n">
-        <v>2501</v>
+        <v>3209</v>
       </c>
       <c r="AG2" t="n">
-        <v>437</v>
+        <v>0</v>
       </c>
       <c r="AH2" t="n">
-        <v>363</v>
+        <v>321</v>
       </c>
       <c r="AI2" t="n">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="AJ2" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="AK2" t="n">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="AL2" t="inlineStr">
         <is>
-          <t>21,7360;31,1575;41,823;22,40;32,40;42,40</t>
+          <t>21,9095;31,970;41,1178;22,52;32,28;42,42</t>
         </is>
       </c>
       <c r="AM2" t="inlineStr">
         <is>
-          <t>21,7360;31,1575;41,823;22,40;32,40;42,40</t>
+          <t>21,21736;31,0;41,0;22,156;32,0;42,0</t>
         </is>
       </c>
       <c r="AN2" t="inlineStr">
         <is>
-          <t>21,3680;31,787;41,411;22,20;32,20;42,20</t>
+          <t>21,6234;31,0;41,807;22,39;32,0;42,31</t>
         </is>
       </c>
       <c r="AO2" t="inlineStr">
         <is>
-          <t>21,5003;31,874;41,727;22,35;32,35;42,35</t>
+          <t>21,4682;31,533;41,469;22,45;32,24;42,37</t>
         </is>
       </c>
       <c r="AP2" t="inlineStr">
         <is>
-          <t>21,5003;31,874;41,727;22,35;32,35;42,35</t>
+          <t>21,11190;31,0;41,0;22,136;32,0;42,0</t>
         </is>
       </c>
       <c r="AQ2" t="inlineStr">
         <is>
-          <t>21,2501;31,437;41,363;22,17;32,17;42,17</t>
+          <t>21,3209;31,0;41,321;22,33;32,0;42,27</t>
         </is>
       </c>
     </row>
@@ -5250,141 +5250,141 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>14794</v>
+        <v>18190</v>
       </c>
       <c r="C3" t="n">
-        <v>3035</v>
+        <v>1941</v>
       </c>
       <c r="D3" t="n">
-        <v>1767</v>
+        <v>2356</v>
       </c>
       <c r="E3" t="n">
-        <v>80</v>
+        <v>104</v>
       </c>
       <c r="F3" t="n">
-        <v>80</v>
+        <v>56</v>
       </c>
       <c r="G3" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="H3" t="n">
-        <v>14794</v>
+        <v>43472</v>
       </c>
       <c r="I3" t="n">
-        <v>3035</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>1767</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>80</v>
+        <v>312</v>
       </c>
       <c r="L3" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>7397</v>
+        <v>12469</v>
       </c>
       <c r="O3" t="n">
-        <v>1517</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>883</v>
+        <v>1615</v>
       </c>
       <c r="Q3" t="n">
-        <v>40</v>
+        <v>78</v>
       </c>
       <c r="R3" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>40</v>
+        <v>63</v>
       </c>
       <c r="T3" t="n">
-        <v>5241</v>
+        <v>5387</v>
       </c>
       <c r="U3" t="n">
-        <v>915</v>
+        <v>594</v>
       </c>
       <c r="V3" t="n">
-        <v>768</v>
+        <v>584</v>
       </c>
       <c r="W3" t="n">
-        <v>70</v>
+        <v>91</v>
       </c>
       <c r="X3" t="n">
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="Y3" t="n">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="Z3" t="n">
-        <v>5241</v>
+        <v>12875</v>
       </c>
       <c r="AA3" t="n">
-        <v>915</v>
+        <v>0</v>
       </c>
       <c r="AB3" t="n">
-        <v>768</v>
+        <v>0</v>
       </c>
       <c r="AC3" t="n">
-        <v>70</v>
+        <v>273</v>
       </c>
       <c r="AD3" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="AE3" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="AF3" t="n">
-        <v>2620</v>
+        <v>3693</v>
       </c>
       <c r="AG3" t="n">
-        <v>457</v>
+        <v>0</v>
       </c>
       <c r="AH3" t="n">
-        <v>384</v>
+        <v>400</v>
       </c>
       <c r="AI3" t="n">
-        <v>35</v>
+        <v>68</v>
       </c>
       <c r="AJ3" t="n">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="AK3" t="n">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="AL3" t="inlineStr">
         <is>
-          <t>21,14794;31,3035;41,1767;22,80;32,80;42,80</t>
+          <t>21,18190;31,1941;41,2356;22,104;32,56;42,85</t>
         </is>
       </c>
       <c r="AM3" t="inlineStr">
         <is>
-          <t>21,14794;31,3035;41,1767;22,80;32,80;42,80</t>
+          <t>21,43472;31,0;41,0;22,312;32,0;42,0</t>
         </is>
       </c>
       <c r="AN3" t="inlineStr">
         <is>
-          <t>21,7397;31,1517;41,883;22,40;32,40;42,40</t>
+          <t>21,12469;31,0;41,1615;22,78;32,0;42,63</t>
         </is>
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>21,5241;31,915;41,768;22,70;32,70;42,70</t>
+          <t>21,5387;31,594;41,584;22,91;32,49;42,74</t>
         </is>
       </c>
       <c r="AP3" t="inlineStr">
         <is>
-          <t>21,5241;31,915;41,768;22,70;32,70;42,70</t>
+          <t>21,12875;31,0;41,0;22,273;32,0;42,0</t>
         </is>
       </c>
       <c r="AQ3" t="inlineStr">
         <is>
-          <t>21,2620;31,457;41,384;22,35;32,35;42,35</t>
+          <t>21,3693;31,0;41,400;22,68;32,0;42,55</t>
         </is>
       </c>
     </row>
@@ -5393,141 +5393,141 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>22060</v>
+        <v>27285</v>
       </c>
       <c r="C4" t="n">
-        <v>4368</v>
+        <v>2911</v>
       </c>
       <c r="D4" t="n">
-        <v>2874</v>
+        <v>3534</v>
       </c>
       <c r="E4" t="n">
-        <v>120</v>
+        <v>156</v>
       </c>
       <c r="F4" t="n">
-        <v>120</v>
+        <v>84</v>
       </c>
       <c r="G4" t="n">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="H4" t="n">
-        <v>22060</v>
+        <v>65208</v>
       </c>
       <c r="I4" t="n">
-        <v>4368</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>2874</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>120</v>
+        <v>468</v>
       </c>
       <c r="L4" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>11030</v>
+        <v>18703</v>
       </c>
       <c r="O4" t="n">
-        <v>2184</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>1437</v>
+        <v>2422</v>
       </c>
       <c r="Q4" t="n">
-        <v>60</v>
+        <v>117</v>
       </c>
       <c r="R4" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>60</v>
+        <v>95</v>
       </c>
       <c r="T4" t="n">
-        <v>5490</v>
+        <v>6582</v>
       </c>
       <c r="U4" t="n">
-        <v>959</v>
+        <v>701</v>
       </c>
       <c r="V4" t="n">
-        <v>812</v>
+        <v>784</v>
       </c>
       <c r="W4" t="n">
-        <v>105</v>
+        <v>136</v>
       </c>
       <c r="X4" t="n">
-        <v>105</v>
+        <v>73</v>
       </c>
       <c r="Y4" t="n">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="Z4" t="n">
-        <v>5490</v>
+        <v>15730</v>
       </c>
       <c r="AA4" t="n">
-        <v>959</v>
+        <v>0</v>
       </c>
       <c r="AB4" t="n">
-        <v>812</v>
+        <v>0</v>
       </c>
       <c r="AC4" t="n">
-        <v>105</v>
+        <v>409</v>
       </c>
       <c r="AD4" t="n">
-        <v>105</v>
+        <v>0</v>
       </c>
       <c r="AE4" t="n">
-        <v>105</v>
+        <v>0</v>
       </c>
       <c r="AF4" t="n">
-        <v>2745</v>
+        <v>4511</v>
       </c>
       <c r="AG4" t="n">
-        <v>479</v>
+        <v>0</v>
       </c>
       <c r="AH4" t="n">
-        <v>406</v>
+        <v>537</v>
       </c>
       <c r="AI4" t="n">
-        <v>52</v>
+        <v>101</v>
       </c>
       <c r="AJ4" t="n">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="AK4" t="n">
-        <v>52</v>
+        <v>83</v>
       </c>
       <c r="AL4" t="inlineStr">
         <is>
-          <t>21,22060;31,4368;41,2874;22,120;32,120;42,120</t>
+          <t>21,27285;31,2911;41,3534;22,156;32,84;42,127</t>
         </is>
       </c>
       <c r="AM4" t="inlineStr">
         <is>
-          <t>21,22060;31,4368;41,2874;22,120;32,120;42,120</t>
+          <t>21,65208;31,0;41,0;22,468;32,0;42,0</t>
         </is>
       </c>
       <c r="AN4" t="inlineStr">
         <is>
-          <t>21,11030;31,2184;41,1437;22,60;32,60;42,60</t>
+          <t>21,18703;31,0;41,2422;22,117;32,0;42,95</t>
         </is>
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>21,5490;31,959;41,812;22,105;32,105;42,105</t>
+          <t>21,6582;31,701;41,784;22,136;32,73;42,111</t>
         </is>
       </c>
       <c r="AP4" t="inlineStr">
         <is>
-          <t>21,5490;31,959;41,812;22,105;32,105;42,105</t>
+          <t>21,15730;31,0;41,0;22,409;32,0;42,0</t>
         </is>
       </c>
       <c r="AQ4" t="inlineStr">
         <is>
-          <t>21,2745;31,479;41,406;22,52;32,52;42,52</t>
+          <t>21,4511;31,0;41,537;22,101;32,0;42,83</t>
         </is>
       </c>
     </row>
@@ -5536,141 +5536,141 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>29336</v>
+        <v>36380</v>
       </c>
       <c r="C5" t="n">
-        <v>5808</v>
+        <v>3882</v>
       </c>
       <c r="D5" t="n">
-        <v>3869</v>
+        <v>4712</v>
       </c>
       <c r="E5" t="n">
-        <v>160</v>
+        <v>208</v>
       </c>
       <c r="F5" t="n">
-        <v>160</v>
+        <v>112</v>
       </c>
       <c r="G5" t="n">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="H5" t="n">
-        <v>29336</v>
+        <v>86944</v>
       </c>
       <c r="I5" t="n">
-        <v>5808</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>3869</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>160</v>
+        <v>624</v>
       </c>
       <c r="L5" t="n">
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>14668</v>
+        <v>24938</v>
       </c>
       <c r="O5" t="n">
-        <v>2904</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>1934</v>
+        <v>3230</v>
       </c>
       <c r="Q5" t="n">
-        <v>80</v>
+        <v>156</v>
       </c>
       <c r="R5" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>80</v>
+        <v>127</v>
       </c>
       <c r="T5" t="n">
-        <v>5881</v>
+        <v>7055</v>
       </c>
       <c r="U5" t="n">
-        <v>1026</v>
+        <v>751</v>
       </c>
       <c r="V5" t="n">
-        <v>883</v>
+        <v>854</v>
       </c>
       <c r="W5" t="n">
-        <v>140</v>
+        <v>182</v>
       </c>
       <c r="X5" t="n">
-        <v>140</v>
+        <v>98</v>
       </c>
       <c r="Y5" t="n">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="Z5" t="n">
-        <v>5881</v>
+        <v>16861</v>
       </c>
       <c r="AA5" t="n">
-        <v>1026</v>
+        <v>0</v>
       </c>
       <c r="AB5" t="n">
-        <v>883</v>
+        <v>0</v>
       </c>
       <c r="AC5" t="n">
-        <v>140</v>
+        <v>546</v>
       </c>
       <c r="AD5" t="n">
-        <v>140</v>
+        <v>0</v>
       </c>
       <c r="AE5" t="n">
-        <v>140</v>
+        <v>0</v>
       </c>
       <c r="AF5" t="n">
-        <v>2940</v>
+        <v>4836</v>
       </c>
       <c r="AG5" t="n">
-        <v>513</v>
+        <v>0</v>
       </c>
       <c r="AH5" t="n">
-        <v>441</v>
+        <v>585</v>
       </c>
       <c r="AI5" t="n">
-        <v>70</v>
+        <v>136</v>
       </c>
       <c r="AJ5" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="AK5" t="n">
-        <v>70</v>
+        <v>111</v>
       </c>
       <c r="AL5" t="inlineStr">
         <is>
-          <t>21,29336;31,5808;41,3869;22,160;32,160;42,160</t>
+          <t>21,36380;31,3882;41,4712;22,208;32,112;42,170</t>
         </is>
       </c>
       <c r="AM5" t="inlineStr">
         <is>
-          <t>21,29336;31,5808;41,3869;22,160;32,160;42,160</t>
+          <t>21,86944;31,0;41,0;22,624;32,0;42,0</t>
         </is>
       </c>
       <c r="AN5" t="inlineStr">
         <is>
-          <t>21,14668;31,2904;41,1934;22,80;32,80;42,80</t>
+          <t>21,24938;31,0;41,3230;22,156;32,0;42,127</t>
         </is>
       </c>
       <c r="AO5" t="inlineStr">
         <is>
-          <t>21,5881;31,1026;41,883;22,140;32,140;42,140</t>
+          <t>21,7055;31,751;41,854;22,182;32,98;42,149</t>
         </is>
       </c>
       <c r="AP5" t="inlineStr">
         <is>
-          <t>21,5881;31,1026;41,883;22,140;32,140;42,140</t>
+          <t>21,16861;31,0;41,0;22,546;32,0;42,0</t>
         </is>
       </c>
       <c r="AQ5" t="inlineStr">
         <is>
-          <t>21,2940;31,513;41,441;22,70;32,70;42,70</t>
+          <t>21,4836;31,0;41,585;22,136;32,0;42,111</t>
         </is>
       </c>
     </row>
@@ -5679,141 +5679,141 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>36581</v>
+        <v>45476</v>
       </c>
       <c r="C6" t="n">
-        <v>7242</v>
+        <v>4852</v>
       </c>
       <c r="D6" t="n">
-        <v>4884</v>
+        <v>5890</v>
       </c>
       <c r="E6" t="n">
-        <v>200</v>
+        <v>260</v>
       </c>
       <c r="F6" t="n">
-        <v>200</v>
+        <v>140</v>
       </c>
       <c r="G6" t="n">
-        <v>200</v>
+        <v>213</v>
       </c>
       <c r="H6" t="n">
-        <v>36581</v>
+        <v>108681</v>
       </c>
       <c r="I6" t="n">
-        <v>7242</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>4884</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>200</v>
+        <v>780</v>
       </c>
       <c r="L6" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>18290</v>
+        <v>31172</v>
       </c>
       <c r="O6" t="n">
-        <v>3621</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>2442</v>
+        <v>4037</v>
       </c>
       <c r="Q6" t="n">
-        <v>100</v>
+        <v>195</v>
       </c>
       <c r="R6" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>100</v>
+        <v>159</v>
       </c>
       <c r="T6" t="n">
-        <v>6161</v>
+        <v>7559</v>
       </c>
       <c r="U6" t="n">
-        <v>1075</v>
+        <v>805</v>
       </c>
       <c r="V6" t="n">
-        <v>932</v>
+        <v>929</v>
       </c>
       <c r="W6" t="n">
-        <v>175</v>
+        <v>227</v>
       </c>
       <c r="X6" t="n">
-        <v>175</v>
+        <v>122</v>
       </c>
       <c r="Y6" t="n">
-        <v>175</v>
+        <v>186</v>
       </c>
       <c r="Z6" t="n">
-        <v>6161</v>
+        <v>18065</v>
       </c>
       <c r="AA6" t="n">
-        <v>1075</v>
+        <v>0</v>
       </c>
       <c r="AB6" t="n">
-        <v>932</v>
+        <v>0</v>
       </c>
       <c r="AC6" t="n">
-        <v>175</v>
+        <v>682</v>
       </c>
       <c r="AD6" t="n">
-        <v>175</v>
+        <v>0</v>
       </c>
       <c r="AE6" t="n">
-        <v>175</v>
+        <v>0</v>
       </c>
       <c r="AF6" t="n">
-        <v>3080</v>
+        <v>5181</v>
       </c>
       <c r="AG6" t="n">
-        <v>537</v>
+        <v>0</v>
       </c>
       <c r="AH6" t="n">
-        <v>466</v>
+        <v>637</v>
       </c>
       <c r="AI6" t="n">
-        <v>87</v>
+        <v>169</v>
       </c>
       <c r="AJ6" t="n">
-        <v>87</v>
+        <v>0</v>
       </c>
       <c r="AK6" t="n">
-        <v>87</v>
+        <v>139</v>
       </c>
       <c r="AL6" t="inlineStr">
         <is>
-          <t>21,36581;31,7242;41,4884;22,200;32,200;42,200</t>
+          <t>21,45476;31,4852;41,5890;22,260;32,140;42,213</t>
         </is>
       </c>
       <c r="AM6" t="inlineStr">
         <is>
-          <t>21,36581;31,7242;41,4884;22,200;32,200;42,200</t>
+          <t>21,108681;31,0;41,0;22,780;32,0;42,0</t>
         </is>
       </c>
       <c r="AN6" t="inlineStr">
         <is>
-          <t>21,18290;31,3621;41,2442;22,100;32,100;42,100</t>
+          <t>21,31172;31,0;41,4037;22,195;32,0;42,159</t>
         </is>
       </c>
       <c r="AO6" t="inlineStr">
         <is>
-          <t>21,6161;31,1075;41,932;22,175;32,175;42,175</t>
+          <t>21,7559;31,805;41,929;22,227;32,122;42,186</t>
         </is>
       </c>
       <c r="AP6" t="inlineStr">
         <is>
-          <t>21,6161;31,1075;41,932;22,175;32,175;42,175</t>
+          <t>21,18065;31,0;41,0;22,682;32,0;42,0</t>
         </is>
       </c>
       <c r="AQ6" t="inlineStr">
         <is>
-          <t>21,3080;31,537;41,466;22,87;32,87;42,87</t>
+          <t>21,5181;31,0;41,637;22,169;32,0;42,139</t>
         </is>
       </c>
     </row>
@@ -5822,141 +5822,141 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>42641</v>
+        <v>54571</v>
       </c>
       <c r="C7" t="n">
-        <v>8444</v>
+        <v>5823</v>
       </c>
       <c r="D7" t="n">
-        <v>6334</v>
+        <v>7068</v>
       </c>
       <c r="E7" t="n">
-        <v>240</v>
+        <v>312</v>
       </c>
       <c r="F7" t="n">
-        <v>240</v>
+        <v>168</v>
       </c>
       <c r="G7" t="n">
-        <v>240</v>
+        <v>255</v>
       </c>
       <c r="H7" t="n">
-        <v>42641</v>
+        <v>130417</v>
       </c>
       <c r="I7" t="n">
-        <v>8444</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>6334</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>240</v>
+        <v>936</v>
       </c>
       <c r="L7" t="n">
-        <v>240</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>240</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>21320</v>
+        <v>37407</v>
       </c>
       <c r="O7" t="n">
-        <v>4222</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>3167</v>
+        <v>4845</v>
       </c>
       <c r="Q7" t="n">
-        <v>120</v>
+        <v>234</v>
       </c>
       <c r="R7" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>120</v>
+        <v>191</v>
       </c>
       <c r="T7" t="n">
-        <v>6454</v>
+        <v>8095</v>
       </c>
       <c r="U7" t="n">
-        <v>1126</v>
+        <v>863</v>
       </c>
       <c r="V7" t="n">
-        <v>984</v>
+        <v>1010</v>
       </c>
       <c r="W7" t="n">
-        <v>210</v>
+        <v>273</v>
       </c>
       <c r="X7" t="n">
-        <v>210</v>
+        <v>147</v>
       </c>
       <c r="Y7" t="n">
-        <v>210</v>
+        <v>223</v>
       </c>
       <c r="Z7" t="n">
-        <v>6454</v>
+        <v>19346</v>
       </c>
       <c r="AA7" t="n">
-        <v>1126</v>
+        <v>0</v>
       </c>
       <c r="AB7" t="n">
-        <v>984</v>
+        <v>0</v>
       </c>
       <c r="AC7" t="n">
-        <v>210</v>
+        <v>819</v>
       </c>
       <c r="AD7" t="n">
-        <v>210</v>
+        <v>0</v>
       </c>
       <c r="AE7" t="n">
-        <v>210</v>
+        <v>0</v>
       </c>
       <c r="AF7" t="n">
-        <v>3227</v>
+        <v>5549</v>
       </c>
       <c r="AG7" t="n">
-        <v>563</v>
+        <v>0</v>
       </c>
       <c r="AH7" t="n">
-        <v>492</v>
+        <v>692</v>
       </c>
       <c r="AI7" t="n">
-        <v>105</v>
+        <v>204</v>
       </c>
       <c r="AJ7" t="n">
-        <v>105</v>
+        <v>0</v>
       </c>
       <c r="AK7" t="n">
-        <v>105</v>
+        <v>167</v>
       </c>
       <c r="AL7" t="inlineStr">
         <is>
-          <t>21,42641;31,8444;41,6334;22,240;32,240;42,240</t>
+          <t>21,54571;31,5823;41,7068;22,312;32,168;42,255</t>
         </is>
       </c>
       <c r="AM7" t="inlineStr">
         <is>
-          <t>21,42641;31,8444;41,6334;22,240;32,240;42,240</t>
+          <t>21,130417;31,0;41,0;22,936;32,0;42,0</t>
         </is>
       </c>
       <c r="AN7" t="inlineStr">
         <is>
-          <t>21,21320;31,4222;41,3167;22,120;32,120;42,120</t>
+          <t>21,37407;31,0;41,4845;22,234;32,0;42,191</t>
         </is>
       </c>
       <c r="AO7" t="inlineStr">
         <is>
-          <t>21,6454;31,1126;41,984;22,210;32,210;42,210</t>
+          <t>21,8095;31,863;41,1010;22,273;32,147;42,223</t>
         </is>
       </c>
       <c r="AP7" t="inlineStr">
         <is>
-          <t>21,6454;31,1126;41,984;22,210;32,210;42,210</t>
+          <t>21,19346;31,0;41,0;22,819;32,0;42,0</t>
         </is>
       </c>
       <c r="AQ7" t="inlineStr">
         <is>
-          <t>21,3227;31,563;41,492;22,105;32,105;42,105</t>
+          <t>21,5549;31,0;41,692;22,204;32,0;42,167</t>
         </is>
       </c>
     </row>
@@ -5965,141 +5965,141 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>48681</v>
+        <v>63666</v>
       </c>
       <c r="C8" t="n">
-        <v>9643</v>
+        <v>6793</v>
       </c>
       <c r="D8" t="n">
-        <v>7794</v>
+        <v>8246</v>
       </c>
       <c r="E8" t="n">
-        <v>280</v>
+        <v>364</v>
       </c>
       <c r="F8" t="n">
-        <v>280</v>
+        <v>196</v>
       </c>
       <c r="G8" t="n">
-        <v>280</v>
+        <v>298</v>
       </c>
       <c r="H8" t="n">
-        <v>48681</v>
+        <v>152153</v>
       </c>
       <c r="I8" t="n">
-        <v>9643</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>7794</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>280</v>
+        <v>1092</v>
       </c>
       <c r="L8" t="n">
-        <v>280</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>280</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>24340</v>
+        <v>43641</v>
       </c>
       <c r="O8" t="n">
-        <v>4821</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>3897</v>
+        <v>5652</v>
       </c>
       <c r="Q8" t="n">
-        <v>140</v>
+        <v>273</v>
       </c>
       <c r="R8" t="n">
-        <v>140</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>140</v>
+        <v>223</v>
       </c>
       <c r="T8" t="n">
-        <v>6762</v>
+        <v>8665</v>
       </c>
       <c r="U8" t="n">
-        <v>1179</v>
+        <v>924</v>
       </c>
       <c r="V8" t="n">
-        <v>1038</v>
+        <v>1096</v>
       </c>
       <c r="W8" t="n">
-        <v>245</v>
+        <v>318</v>
       </c>
       <c r="X8" t="n">
-        <v>245</v>
+        <v>171</v>
       </c>
       <c r="Y8" t="n">
-        <v>245</v>
+        <v>261</v>
       </c>
       <c r="Z8" t="n">
-        <v>6762</v>
+        <v>20709</v>
       </c>
       <c r="AA8" t="n">
-        <v>1179</v>
+        <v>0</v>
       </c>
       <c r="AB8" t="n">
-        <v>1038</v>
+        <v>0</v>
       </c>
       <c r="AC8" t="n">
-        <v>245</v>
+        <v>955</v>
       </c>
       <c r="AD8" t="n">
-        <v>245</v>
+        <v>0</v>
       </c>
       <c r="AE8" t="n">
-        <v>245</v>
+        <v>0</v>
       </c>
       <c r="AF8" t="n">
-        <v>3381</v>
+        <v>5940</v>
       </c>
       <c r="AG8" t="n">
-        <v>589</v>
+        <v>0</v>
       </c>
       <c r="AH8" t="n">
-        <v>519</v>
+        <v>751</v>
       </c>
       <c r="AI8" t="n">
-        <v>122</v>
+        <v>237</v>
       </c>
       <c r="AJ8" t="n">
-        <v>122</v>
+        <v>0</v>
       </c>
       <c r="AK8" t="n">
-        <v>122</v>
+        <v>195</v>
       </c>
       <c r="AL8" t="inlineStr">
         <is>
-          <t>21,48681;31,9643;41,7794;22,280;32,280;42,280</t>
+          <t>21,63666;31,6793;41,8246;22,364;32,196;42,298</t>
         </is>
       </c>
       <c r="AM8" t="inlineStr">
         <is>
-          <t>21,48681;31,9643;41,7794;22,280;32,280;42,280</t>
+          <t>21,152153;31,0;41,0;22,1092;32,0;42,0</t>
         </is>
       </c>
       <c r="AN8" t="inlineStr">
         <is>
-          <t>21,24340;31,4821;41,3897;22,140;32,140;42,140</t>
+          <t>21,43641;31,0;41,5652;22,273;32,0;42,223</t>
         </is>
       </c>
       <c r="AO8" t="inlineStr">
         <is>
-          <t>21,6762;31,1179;41,1038;22,245;32,245;42,245</t>
+          <t>21,8665;31,924;41,1096;22,318;32,171;42,261</t>
         </is>
       </c>
       <c r="AP8" t="inlineStr">
         <is>
-          <t>21,6762;31,1179;41,1038;22,245;32,245;42,245</t>
+          <t>21,20709;31,0;41,0;22,955;32,0;42,0</t>
         </is>
       </c>
       <c r="AQ8" t="inlineStr">
         <is>
-          <t>21,3381;31,589;41,519;22,122;32,122;42,122</t>
+          <t>21,5940;31,0;41,751;22,237;32,0;42,195</t>
         </is>
       </c>
     </row>
@@ -6108,141 +6108,141 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>55181</v>
+        <v>72761</v>
       </c>
       <c r="C9" t="n">
-        <v>10935</v>
+        <v>7764</v>
       </c>
       <c r="D9" t="n">
-        <v>9088</v>
+        <v>9424</v>
       </c>
       <c r="E9" t="n">
-        <v>315</v>
+        <v>409</v>
       </c>
       <c r="F9" t="n">
-        <v>315</v>
+        <v>220</v>
       </c>
       <c r="G9" t="n">
-        <v>315</v>
+        <v>335</v>
       </c>
       <c r="H9" t="n">
-        <v>55181</v>
+        <v>173889</v>
       </c>
       <c r="I9" t="n">
-        <v>10935</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>9088</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>315</v>
+        <v>1228</v>
       </c>
       <c r="L9" t="n">
-        <v>315</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>315</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>27590</v>
+        <v>49876</v>
       </c>
       <c r="O9" t="n">
-        <v>5467</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>4544</v>
+        <v>6460</v>
       </c>
       <c r="Q9" t="n">
-        <v>157</v>
+        <v>306</v>
       </c>
       <c r="R9" t="n">
-        <v>157</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>157</v>
+        <v>251</v>
       </c>
       <c r="T9" t="n">
-        <v>7353</v>
+        <v>9625</v>
       </c>
       <c r="U9" t="n">
-        <v>1283</v>
+        <v>1027</v>
       </c>
       <c r="V9" t="n">
-        <v>1144</v>
+        <v>1242</v>
       </c>
       <c r="W9" t="n">
-        <v>280</v>
+        <v>364</v>
       </c>
       <c r="X9" t="n">
-        <v>280</v>
+        <v>196</v>
       </c>
       <c r="Y9" t="n">
-        <v>280</v>
+        <v>298</v>
       </c>
       <c r="Z9" t="n">
-        <v>7353</v>
+        <v>23002</v>
       </c>
       <c r="AA9" t="n">
-        <v>1283</v>
+        <v>0</v>
       </c>
       <c r="AB9" t="n">
-        <v>1144</v>
+        <v>0</v>
       </c>
       <c r="AC9" t="n">
-        <v>280</v>
+        <v>1092</v>
       </c>
       <c r="AD9" t="n">
-        <v>280</v>
+        <v>0</v>
       </c>
       <c r="AE9" t="n">
-        <v>280</v>
+        <v>0</v>
       </c>
       <c r="AF9" t="n">
-        <v>3676</v>
+        <v>6597</v>
       </c>
       <c r="AG9" t="n">
-        <v>641</v>
+        <v>0</v>
       </c>
       <c r="AH9" t="n">
-        <v>572</v>
+        <v>851</v>
       </c>
       <c r="AI9" t="n">
-        <v>140</v>
+        <v>273</v>
       </c>
       <c r="AJ9" t="n">
-        <v>140</v>
+        <v>0</v>
       </c>
       <c r="AK9" t="n">
-        <v>140</v>
+        <v>223</v>
       </c>
       <c r="AL9" t="inlineStr">
         <is>
-          <t>21,55181;31,10935;41,9088;22,315;32,315;42,315</t>
+          <t>21,72761;31,7764;41,9424;22,409;32,220;42,335</t>
         </is>
       </c>
       <c r="AM9" t="inlineStr">
         <is>
-          <t>21,55181;31,10935;41,9088;22,315;32,315;42,315</t>
+          <t>21,173889;31,0;41,0;22,1228;32,0;42,0</t>
         </is>
       </c>
       <c r="AN9" t="inlineStr">
         <is>
-          <t>21,27590;31,5467;41,4544;22,157;32,157;42,157</t>
+          <t>21,49876;31,0;41,6460;22,306;32,0;42,251</t>
         </is>
       </c>
       <c r="AO9" t="inlineStr">
         <is>
-          <t>21,7353;31,1283;41,1144;22,280;32,280;42,280</t>
+          <t>21,9625;31,1027;41,1242;22,364;32,196;42,298</t>
         </is>
       </c>
       <c r="AP9" t="inlineStr">
         <is>
-          <t>21,7353;31,1283;41,1144;22,280;32,280;42,280</t>
+          <t>21,23002;31,0;41,0;22,1092;32,0;42,0</t>
         </is>
       </c>
       <c r="AQ9" t="inlineStr">
         <is>
-          <t>21,3676;31,641;41,572;22,140;32,140;42,140</t>
+          <t>21,6597;31,0;41,851;22,273;32,0;42,223</t>
         </is>
       </c>
     </row>
@@ -6251,141 +6251,141 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>62633</v>
+        <v>81856</v>
       </c>
       <c r="C10" t="n">
-        <v>12412</v>
+        <v>8734</v>
       </c>
       <c r="D10" t="n">
-        <v>10009</v>
+        <v>10602</v>
       </c>
       <c r="E10" t="n">
+        <v>435</v>
+      </c>
+      <c r="F10" t="n">
+        <v>234</v>
+      </c>
+      <c r="G10" t="n">
+        <v>357</v>
+      </c>
+      <c r="H10" t="n">
+        <v>195625</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>1306</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>56110</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>7267</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>325</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0</v>
+      </c>
+      <c r="S10" t="n">
+        <v>267</v>
+      </c>
+      <c r="T10" t="n">
+        <v>10421</v>
+      </c>
+      <c r="U10" t="n">
+        <v>1112</v>
+      </c>
+      <c r="V10" t="n">
+        <v>1362</v>
+      </c>
+      <c r="W10" t="n">
+        <v>409</v>
+      </c>
+      <c r="X10" t="n">
+        <v>220</v>
+      </c>
+      <c r="Y10" t="n">
         <v>335</v>
       </c>
-      <c r="F10" t="n">
-        <v>335</v>
-      </c>
-      <c r="G10" t="n">
-        <v>335</v>
-      </c>
-      <c r="H10" t="n">
-        <v>62633</v>
-      </c>
-      <c r="I10" t="n">
-        <v>12412</v>
-      </c>
-      <c r="J10" t="n">
-        <v>10009</v>
-      </c>
-      <c r="K10" t="n">
-        <v>335</v>
-      </c>
-      <c r="L10" t="n">
-        <v>335</v>
-      </c>
-      <c r="M10" t="n">
-        <v>335</v>
-      </c>
-      <c r="N10" t="n">
-        <v>31316</v>
-      </c>
-      <c r="O10" t="n">
-        <v>6206</v>
-      </c>
-      <c r="P10" t="n">
-        <v>5004</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>167</v>
-      </c>
-      <c r="R10" t="n">
-        <v>167</v>
-      </c>
-      <c r="S10" t="n">
-        <v>167</v>
-      </c>
-      <c r="T10" t="n">
-        <v>7961</v>
-      </c>
-      <c r="U10" t="n">
-        <v>1389</v>
-      </c>
-      <c r="V10" t="n">
-        <v>1254</v>
-      </c>
-      <c r="W10" t="n">
-        <v>315</v>
-      </c>
-      <c r="X10" t="n">
-        <v>315</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>315</v>
-      </c>
       <c r="Z10" t="n">
-        <v>7961</v>
+        <v>24906</v>
       </c>
       <c r="AA10" t="n">
-        <v>1389</v>
+        <v>0</v>
       </c>
       <c r="AB10" t="n">
-        <v>1254</v>
+        <v>0</v>
       </c>
       <c r="AC10" t="n">
-        <v>315</v>
+        <v>1228</v>
       </c>
       <c r="AD10" t="n">
-        <v>315</v>
+        <v>0</v>
       </c>
       <c r="AE10" t="n">
-        <v>315</v>
+        <v>0</v>
       </c>
       <c r="AF10" t="n">
-        <v>3980</v>
+        <v>7143</v>
       </c>
       <c r="AG10" t="n">
-        <v>694</v>
+        <v>0</v>
       </c>
       <c r="AH10" t="n">
-        <v>627</v>
+        <v>933</v>
       </c>
       <c r="AI10" t="n">
-        <v>157</v>
+        <v>306</v>
       </c>
       <c r="AJ10" t="n">
-        <v>157</v>
+        <v>0</v>
       </c>
       <c r="AK10" t="n">
-        <v>157</v>
+        <v>251</v>
       </c>
       <c r="AL10" t="inlineStr">
         <is>
-          <t>21,62633;31,12412;41,10009;22,335;32,335;42,335</t>
+          <t>21,81856;31,8734;41,10602;22,435;32,234;42,357</t>
         </is>
       </c>
       <c r="AM10" t="inlineStr">
         <is>
-          <t>21,62633;31,12412;41,10009;22,335;32,335;42,335</t>
+          <t>21,195625;31,0;41,0;22,1306;32,0;42,0</t>
         </is>
       </c>
       <c r="AN10" t="inlineStr">
         <is>
-          <t>21,31316;31,6206;41,5004;22,167;32,167;42,167</t>
+          <t>21,56110;31,0;41,7267;22,325;32,0;42,267</t>
         </is>
       </c>
       <c r="AO10" t="inlineStr">
         <is>
-          <t>21,7961;31,1389;41,1254;22,315;32,315;42,315</t>
+          <t>21,10421;31,1112;41,1362;22,409;32,220;42,335</t>
         </is>
       </c>
       <c r="AP10" t="inlineStr">
         <is>
-          <t>21,7961;31,1389;41,1254;22,315;32,315;42,315</t>
+          <t>21,24906;31,0;41,0;22,1228;32,0;42,0</t>
         </is>
       </c>
       <c r="AQ10" t="inlineStr">
         <is>
-          <t>21,3980;31,694;41,627;22,157;32,157;42,157</t>
+          <t>21,7143;31,0;41,933;22,306;32,0;42,251</t>
         </is>
       </c>
     </row>
@@ -6394,141 +6394,141 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>69963</v>
+        <v>90952</v>
       </c>
       <c r="C11" t="n">
-        <v>13865</v>
+        <v>9705</v>
       </c>
       <c r="D11" t="n">
-        <v>11046</v>
+        <v>11781</v>
       </c>
       <c r="E11" t="n">
-        <v>350</v>
+        <v>455</v>
       </c>
       <c r="F11" t="n">
-        <v>350</v>
+        <v>244</v>
       </c>
       <c r="G11" t="n">
-        <v>350</v>
+        <v>373</v>
       </c>
       <c r="H11" t="n">
-        <v>69963</v>
+        <v>217362</v>
       </c>
       <c r="I11" t="n">
-        <v>13865</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>11046</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>350</v>
+        <v>1365</v>
       </c>
       <c r="L11" t="n">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>34981</v>
+        <v>62345</v>
       </c>
       <c r="O11" t="n">
-        <v>6932</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>5523</v>
+        <v>8075</v>
       </c>
       <c r="Q11" t="n">
-        <v>175</v>
+        <v>341</v>
       </c>
       <c r="R11" t="n">
-        <v>175</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>175</v>
+        <v>279</v>
       </c>
       <c r="T11" t="n">
-        <v>8582</v>
+        <v>11235</v>
       </c>
       <c r="U11" t="n">
-        <v>1497</v>
+        <v>1198</v>
       </c>
       <c r="V11" t="n">
-        <v>1368</v>
+        <v>1485</v>
       </c>
       <c r="W11" t="n">
-        <v>350</v>
+        <v>455</v>
       </c>
       <c r="X11" t="n">
-        <v>350</v>
+        <v>244</v>
       </c>
       <c r="Y11" t="n">
-        <v>350</v>
+        <v>373</v>
       </c>
       <c r="Z11" t="n">
-        <v>8582</v>
+        <v>26851</v>
       </c>
       <c r="AA11" t="n">
-        <v>1497</v>
+        <v>0</v>
       </c>
       <c r="AB11" t="n">
-        <v>1368</v>
+        <v>0</v>
       </c>
       <c r="AC11" t="n">
-        <v>350</v>
+        <v>1365</v>
       </c>
       <c r="AD11" t="n">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="AE11" t="n">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="AF11" t="n">
-        <v>4291</v>
+        <v>7701</v>
       </c>
       <c r="AG11" t="n">
-        <v>748</v>
+        <v>0</v>
       </c>
       <c r="AH11" t="n">
-        <v>684</v>
+        <v>1018</v>
       </c>
       <c r="AI11" t="n">
-        <v>175</v>
+        <v>341</v>
       </c>
       <c r="AJ11" t="n">
-        <v>175</v>
+        <v>0</v>
       </c>
       <c r="AK11" t="n">
-        <v>175</v>
+        <v>279</v>
       </c>
       <c r="AL11" t="inlineStr">
         <is>
-          <t>21,69963;31,13865;41,11046;22,350;32,350;42,350</t>
+          <t>21,90952;31,9705;41,11781;22,455;32,244;42,373</t>
         </is>
       </c>
       <c r="AM11" t="inlineStr">
         <is>
-          <t>21,69963;31,13865;41,11046;22,350;32,350;42,350</t>
+          <t>21,217362;31,0;41,0;22,1365;32,0;42,0</t>
         </is>
       </c>
       <c r="AN11" t="inlineStr">
         <is>
-          <t>21,34981;31,6932;41,5523;22,175;32,175;42,175</t>
+          <t>21,62345;31,0;41,8075;22,341;32,0;42,279</t>
         </is>
       </c>
       <c r="AO11" t="inlineStr">
         <is>
-          <t>21,8582;31,1497;41,1368;22,350;32,350;42,350</t>
+          <t>21,11235;31,1198;41,1485;22,455;32,244;42,373</t>
         </is>
       </c>
       <c r="AP11" t="inlineStr">
         <is>
-          <t>21,8582;31,1497;41,1368;22,350;32,350;42,350</t>
+          <t>21,26851;31,0;41,0;22,1365;32,0;42,0</t>
         </is>
       </c>
       <c r="AQ11" t="inlineStr">
         <is>
-          <t>21,4291;31,748;41,684;22,175;32,175;42,175</t>
+          <t>21,7701;31,0;41,1018;22,341;32,0;42,279</t>
         </is>
       </c>
     </row>
@@ -6839,13 +6839,13 @@
         </is>
       </c>
       <c r="T2" t="n">
-        <v>5555301.8662278</v>
+        <v>5808668.6394667</v>
       </c>
       <c r="U2" t="n">
-        <v>856778.5745</v>
+        <v>883744.1973178</v>
       </c>
       <c r="V2" t="n">
-        <v>875561.0043080001</v>
+        <v>908364.4837436401</v>
       </c>
       <c r="W2" t="n">
         <v>1940</v>
@@ -6886,8 +6886,16 @@
       <c r="AI2" t="n">
         <v>0</v>
       </c>
-      <c r="AJ2" t="inlineStr"/>
-      <c r="AK2" t="inlineStr"/>
+      <c r="AJ2" t="inlineStr">
+        <is>
+          <t>21,704606;31,0;41,0</t>
+        </is>
+      </c>
+      <c r="AK2" t="inlineStr">
+        <is>
+          <t>21,184066;31,0;41,23799</t>
+        </is>
+      </c>
       <c r="AL2" t="n">
         <v>11692188.96395</v>
       </c>
@@ -6907,10 +6915,10 @@
         <v>0</v>
       </c>
       <c r="AR2" t="n">
-        <v>0</v>
+        <v>628049.5774366501</v>
       </c>
       <c r="AS2" t="n">
-        <v>16516817.8050488</v>
+        <v>17144867.38248545</v>
       </c>
     </row>
     <row r="3">
@@ -6974,13 +6982,13 @@
         </is>
       </c>
       <c r="T3" t="n">
-        <v>700702.8953131</v>
+        <v>730228.51853215</v>
       </c>
       <c r="U3" t="n">
-        <v>124651.1565</v>
+        <v>127792.9863186</v>
       </c>
       <c r="V3" t="n">
-        <v>115667.323924</v>
+        <v>119569.14536092</v>
       </c>
       <c r="W3" t="n">
         <v>1940</v>
@@ -7021,8 +7029,16 @@
       <c r="AI3" t="n">
         <v>0</v>
       </c>
-      <c r="AJ3" t="inlineStr"/>
-      <c r="AK3" t="inlineStr"/>
+      <c r="AJ3" t="inlineStr">
+        <is>
+          <t>21,81722;31,0;41,0</t>
+        </is>
+      </c>
+      <c r="AK3" t="inlineStr">
+        <is>
+          <t>21,21408;31,0;41,2825</t>
+        </is>
+      </c>
       <c r="AL3" t="n">
         <v>1325072.60625</v>
       </c>
@@ -7042,10 +7058,10 @@
         <v>0</v>
       </c>
       <c r="AR3" t="n">
-        <v>0</v>
+        <v>73639.72222968</v>
       </c>
       <c r="AS3" t="n">
-        <v>2241150.9877261</v>
+        <v>2314790.70995578</v>
       </c>
     </row>
     <row r="4">
@@ -7514,13 +7530,13 @@
         </is>
       </c>
       <c r="T7" t="n">
-        <v>57348.1924</v>
+        <v>66641.62540048</v>
       </c>
       <c r="U7" t="n">
-        <v>10355.975</v>
+        <v>11348.61013</v>
       </c>
       <c r="V7" t="n">
-        <v>5963.632</v>
+        <v>7159.6316544</v>
       </c>
       <c r="W7" t="n">
         <v>900</v>
@@ -7561,8 +7577,16 @@
       <c r="AI7" t="n">
         <v>0</v>
       </c>
-      <c r="AJ7" t="inlineStr"/>
-      <c r="AK7" t="inlineStr"/>
+      <c r="AJ7" t="inlineStr">
+        <is>
+          <t>21,22331;31,0;41,0</t>
+        </is>
+      </c>
+      <c r="AK7" t="inlineStr">
+        <is>
+          <t>21,6382;31,0;41,820</t>
+        </is>
+      </c>
       <c r="AL7" t="n">
         <v>119407.0039</v>
       </c>
@@ -7582,10 +7606,10 @@
         <v>0</v>
       </c>
       <c r="AR7" t="n">
-        <v>0</v>
+        <v>23019.61341028</v>
       </c>
       <c r="AS7" t="n">
-        <v>167844.8039</v>
+        <v>190864.41731028</v>
       </c>
     </row>
     <row r="8">
@@ -7649,13 +7673,13 @@
         </is>
       </c>
       <c r="T8" t="n">
-        <v>57767.9545164</v>
+        <v>76354.82051736</v>
       </c>
       <c r="U8" t="n">
-        <v>10355.975</v>
+        <v>12342.24526</v>
       </c>
       <c r="V8" t="n">
-        <v>6006.488319999999</v>
+        <v>8398.916192000001</v>
       </c>
       <c r="W8" t="n">
         <v>900</v>
@@ -7696,8 +7720,16 @@
       <c r="AI8" t="n">
         <v>0</v>
       </c>
-      <c r="AJ8" t="inlineStr"/>
-      <c r="AK8" t="inlineStr"/>
+      <c r="AJ8" t="inlineStr">
+        <is>
+          <t>21,44662;31,0;41,0</t>
+        </is>
+      </c>
+      <c r="AK8" t="inlineStr">
+        <is>
+          <t>21,12766;31,0;41,1641</t>
+        </is>
+      </c>
       <c r="AL8" t="n">
         <v>119407.0039</v>
       </c>
@@ -7717,10 +7749,10 @@
         <v>0</v>
       </c>
       <c r="AR8" t="n">
-        <v>0</v>
+        <v>46048.59105896</v>
       </c>
       <c r="AS8" t="n">
-        <v>168510.9898564</v>
+        <v>214559.58091536</v>
       </c>
     </row>
     <row r="9">
@@ -7919,13 +7951,13 @@
         </is>
       </c>
       <c r="T10" t="n">
-        <v>242387.7769134</v>
+        <v>252384.01137428</v>
       </c>
       <c r="U10" t="n">
-        <v>42321.152</v>
+        <v>43387.1644256</v>
       </c>
       <c r="V10" t="n">
-        <v>29162.333503</v>
+        <v>30436.09904826</v>
       </c>
       <c r="W10" t="n">
         <v>1940</v>
@@ -7966,8 +7998,16 @@
       <c r="AI10" t="n">
         <v>0</v>
       </c>
-      <c r="AJ10" t="inlineStr"/>
-      <c r="AK10" t="inlineStr"/>
+      <c r="AJ10" t="inlineStr">
+        <is>
+          <t>21,24439;31,0;41,0</t>
+        </is>
+      </c>
+      <c r="AK10" t="inlineStr">
+        <is>
+          <t>21,6909;31,0;41,877</t>
+        </is>
+      </c>
       <c r="AL10" t="n">
         <v>541848.9599250001</v>
       </c>
@@ -7987,10 +8027,10 @@
         <v>0</v>
       </c>
       <c r="AR10" t="n">
-        <v>0</v>
+        <v>24675.872082765</v>
       </c>
       <c r="AS10" t="n">
-        <v>713232.14335565</v>
+        <v>737908.015438415</v>
       </c>
     </row>
     <row r="11">
@@ -8054,13 +8094,13 @@
         </is>
       </c>
       <c r="T11" t="n">
-        <v>261452.3520474</v>
+        <v>311434.5243518</v>
       </c>
       <c r="U11" t="n">
-        <v>42321.152</v>
+        <v>47653.214128</v>
       </c>
       <c r="V11" t="n">
-        <v>31442.465533</v>
+        <v>37818.13365539</v>
       </c>
       <c r="W11" t="n">
         <v>1940</v>
@@ -8101,8 +8141,16 @@
       <c r="AI11" t="n">
         <v>0</v>
       </c>
-      <c r="AJ11" t="inlineStr"/>
-      <c r="AK11" t="inlineStr"/>
+      <c r="AJ11" t="inlineStr">
+        <is>
+          <t>21,122199;31,0;41,0</t>
+        </is>
+      </c>
+      <c r="AK11" t="inlineStr">
+        <is>
+          <t>21,34551;31,0;41,4399</t>
+        </is>
+      </c>
       <c r="AL11" t="n">
         <v>541848.9599250001</v>
       </c>
@@ -8122,10 +8170,10 @@
         <v>0</v>
       </c>
       <c r="AR11" t="n">
-        <v>0</v>
+        <v>123433.4926913425</v>
       </c>
       <c r="AS11" t="n">
-        <v>745932.4776621499</v>
+        <v>869365.9703534924</v>
       </c>
     </row>
     <row r="12">
@@ -8189,13 +8237,13 @@
         </is>
       </c>
       <c r="T12" t="n">
-        <v>280516.9271814</v>
+        <v>330499.0994858</v>
       </c>
       <c r="U12" t="n">
-        <v>42321.152</v>
+        <v>47653.214128</v>
       </c>
       <c r="V12" t="n">
-        <v>33722.597563</v>
+        <v>40098.26568539</v>
       </c>
       <c r="W12" t="n">
         <v>1940</v>
@@ -8236,8 +8284,16 @@
       <c r="AI12" t="n">
         <v>0</v>
       </c>
-      <c r="AJ12" t="inlineStr"/>
-      <c r="AK12" t="inlineStr"/>
+      <c r="AJ12" t="inlineStr">
+        <is>
+          <t>21,122199;31,0;41,0</t>
+        </is>
+      </c>
+      <c r="AK12" t="inlineStr">
+        <is>
+          <t>21,34551;31,0;41,4399</t>
+        </is>
+      </c>
       <c r="AL12" t="n">
         <v>541848.9599250001</v>
       </c>
@@ -8257,10 +8313,10 @@
         <v>0</v>
       </c>
       <c r="AR12" t="n">
-        <v>0</v>
+        <v>123433.4926913425</v>
       </c>
       <c r="AS12" t="n">
-        <v>778632.81196865</v>
+        <v>902066.3046599925</v>
       </c>
     </row>
     <row r="13">
@@ -8324,13 +8380,13 @@
         </is>
       </c>
       <c r="T13" t="n">
-        <v>299581.5023154</v>
+        <v>398419.3038481</v>
       </c>
       <c r="U13" t="n">
-        <v>42321.152</v>
+        <v>52862.8317088</v>
       </c>
       <c r="V13" t="n">
-        <v>36002.729593</v>
+        <v>48634.21884019</v>
       </c>
       <c r="W13" t="n">
         <v>1940</v>
@@ -8371,8 +8427,16 @@
       <c r="AI13" t="n">
         <v>0</v>
       </c>
-      <c r="AJ13" t="inlineStr"/>
-      <c r="AK13" t="inlineStr"/>
+      <c r="AJ13" t="inlineStr">
+        <is>
+          <t>21,241019;31,0;41,0</t>
+        </is>
+      </c>
+      <c r="AK13" t="inlineStr">
+        <is>
+          <t>21,68255;31,0;41,8711</t>
+        </is>
+      </c>
       <c r="AL13" t="n">
         <v>541848.9599250001</v>
       </c>
@@ -8392,10 +8456,10 @@
         <v>0</v>
       </c>
       <c r="AR13" t="n">
-        <v>0</v>
+        <v>244206.4546947625</v>
       </c>
       <c r="AS13" t="n">
-        <v>811333.14627515</v>
+        <v>1055539.600969912</v>
       </c>
     </row>
     <row r="14">
@@ -8459,13 +8523,13 @@
         </is>
       </c>
       <c r="T14" t="n">
-        <v>299581.5023154</v>
+        <v>349563.6746198</v>
       </c>
       <c r="U14" t="n">
-        <v>42321.152</v>
+        <v>47653.214128</v>
       </c>
       <c r="V14" t="n">
-        <v>36002.729593</v>
+        <v>42378.39771539</v>
       </c>
       <c r="W14" t="n">
         <v>1940</v>
@@ -8506,8 +8570,16 @@
       <c r="AI14" t="n">
         <v>0</v>
       </c>
-      <c r="AJ14" t="inlineStr"/>
-      <c r="AK14" t="inlineStr"/>
+      <c r="AJ14" t="inlineStr">
+        <is>
+          <t>21,122199;31,0;41,0</t>
+        </is>
+      </c>
+      <c r="AK14" t="inlineStr">
+        <is>
+          <t>21,34551;31,0;41,4399</t>
+        </is>
+      </c>
       <c r="AL14" t="n">
         <v>541848.9599250001</v>
       </c>
@@ -8527,10 +8599,10 @@
         <v>0</v>
       </c>
       <c r="AR14" t="n">
-        <v>0</v>
+        <v>123433.4926913425</v>
       </c>
       <c r="AS14" t="n">
-        <v>811151.14627515</v>
+        <v>934584.6389664925</v>
       </c>
     </row>
     <row r="15">
@@ -8594,13 +8666,13 @@
         </is>
       </c>
       <c r="T15" t="n">
-        <v>441568.2552688</v>
+        <v>504243.30416096</v>
       </c>
       <c r="U15" t="n">
-        <v>64700.3752</v>
+        <v>71387.17030336001</v>
       </c>
       <c r="V15" t="n">
-        <v>61210.657798</v>
+        <v>69255.57365589999</v>
       </c>
       <c r="W15" t="n">
         <v>1940</v>
@@ -8641,8 +8713,16 @@
       <c r="AI15" t="n">
         <v>0</v>
       </c>
-      <c r="AJ15" t="inlineStr"/>
-      <c r="AK15" t="inlineStr"/>
+      <c r="AJ15" t="inlineStr">
+        <is>
+          <t>21,154729;31,0;41,0</t>
+        </is>
+      </c>
+      <c r="AK15" t="inlineStr">
+        <is>
+          <t>21,43485;31,0;41,5576</t>
+        </is>
+      </c>
       <c r="AL15" t="n">
         <v>835628.09403</v>
       </c>
@@ -8662,10 +8742,10 @@
         <v>0</v>
       </c>
       <c r="AR15" t="n">
-        <v>0</v>
+        <v>155072.201288269</v>
       </c>
       <c r="AS15" t="n">
-        <v>1252864.1264873</v>
+        <v>1407936.327775569</v>
       </c>
     </row>
     <row r="16">
@@ -8729,13 +8809,13 @@
         </is>
       </c>
       <c r="T16" t="n">
-        <v>441568.2552688</v>
+        <v>514688.97897632</v>
       </c>
       <c r="U16" t="n">
-        <v>64700.3752</v>
+        <v>72501.13615392</v>
       </c>
       <c r="V16" t="n">
-        <v>61210.657798</v>
+        <v>70598.30848684</v>
       </c>
       <c r="W16" t="n">
         <v>1940</v>
@@ -8776,8 +8856,16 @@
       <c r="AI16" t="n">
         <v>0</v>
       </c>
-      <c r="AJ16" t="inlineStr"/>
-      <c r="AK16" t="inlineStr"/>
+      <c r="AJ16" t="inlineStr">
+        <is>
+          <t>21,180517;31,0;41,0</t>
+        </is>
+      </c>
+      <c r="AK16" t="inlineStr">
+        <is>
+          <t>21,50732;31,0;41,6506</t>
+        </is>
+      </c>
       <c r="AL16" t="n">
         <v>835628.09403</v>
       </c>
@@ -8797,10 +8885,10 @@
         <v>0</v>
       </c>
       <c r="AR16" t="n">
-        <v>0</v>
+        <v>180924.965750398</v>
       </c>
       <c r="AS16" t="n">
-        <v>1253046.1264873</v>
+        <v>1433971.092237698</v>
       </c>
     </row>
     <row r="17">
@@ -8864,13 +8952,13 @@
         </is>
       </c>
       <c r="T17" t="n">
-        <v>1063232.9632116</v>
+        <v>1159541.65672044</v>
       </c>
       <c r="U17" t="n">
-        <v>167333.96</v>
+        <v>177607.12512</v>
       </c>
       <c r="V17" t="n">
-        <v>175955.059</v>
+        <v>188610.09715</v>
       </c>
       <c r="W17" t="n">
         <v>1940</v>
@@ -8911,8 +8999,16 @@
       <c r="AI17" t="n">
         <v>0</v>
       </c>
-      <c r="AJ17" t="inlineStr"/>
-      <c r="AK17" t="inlineStr"/>
+      <c r="AJ17" t="inlineStr">
+        <is>
+          <t>21,244589;31,0;41,0</t>
+        </is>
+      </c>
+      <c r="AK17" t="inlineStr">
+        <is>
+          <t>21,67493;31,0;41,8880</t>
+        </is>
+      </c>
       <c r="AL17" t="n">
         <v>1918109.8266</v>
       </c>
@@ -8932,10 +9028,10 @@
         <v>0</v>
       </c>
       <c r="AR17" t="n">
-        <v>0</v>
+        <v>239960.00219934</v>
       </c>
       <c r="AS17" t="n">
-        <v>3243390.8764616</v>
+        <v>3483350.878660941</v>
       </c>
     </row>
     <row r="18">
@@ -8999,13 +9095,13 @@
         </is>
       </c>
       <c r="T18" t="n">
-        <v>5555301.8662278</v>
+        <v>5808668.6394667</v>
       </c>
       <c r="U18" t="n">
-        <v>856778.5745</v>
+        <v>883744.1973178</v>
       </c>
       <c r="V18" t="n">
-        <v>875561.0043080001</v>
+        <v>908364.4837436401</v>
       </c>
       <c r="W18" t="n">
         <v>1940</v>
@@ -9046,8 +9142,16 @@
       <c r="AI18" t="n">
         <v>0</v>
       </c>
-      <c r="AJ18" t="inlineStr"/>
-      <c r="AK18" t="inlineStr"/>
+      <c r="AJ18" t="inlineStr">
+        <is>
+          <t>21,704606;31,0;41,0</t>
+        </is>
+      </c>
+      <c r="AK18" t="inlineStr">
+        <is>
+          <t>21,184066;31,0;41,23799</t>
+        </is>
+      </c>
       <c r="AL18" t="n">
         <v>11692188.96395</v>
       </c>
@@ -9067,10 +9171,10 @@
         <v>0</v>
       </c>
       <c r="AR18" t="n">
-        <v>0</v>
+        <v>628049.5774366501</v>
       </c>
       <c r="AS18" t="n">
-        <v>16516817.8050488</v>
+        <v>17144867.38248545</v>
       </c>
     </row>
     <row r="19">
@@ -9134,13 +9238,13 @@
         </is>
       </c>
       <c r="T19" t="n">
-        <v>9155386.6970999</v>
+        <v>9408753.470338799</v>
       </c>
       <c r="U19" t="n">
-        <v>1417934.8855</v>
+        <v>1444900.5083178</v>
       </c>
       <c r="V19" t="n">
-        <v>1436695.278256</v>
+        <v>1469498.75769164</v>
       </c>
       <c r="W19" t="n">
         <v>1940</v>
@@ -9181,8 +9285,16 @@
       <c r="AI19" t="n">
         <v>0</v>
       </c>
-      <c r="AJ19" t="inlineStr"/>
-      <c r="AK19" t="inlineStr"/>
+      <c r="AJ19" t="inlineStr">
+        <is>
+          <t>21,704606;31,0;41,0</t>
+        </is>
+      </c>
+      <c r="AK19" t="inlineStr">
+        <is>
+          <t>21,184066;31,0;41,23799</t>
+        </is>
+      </c>
       <c r="AL19" t="n">
         <v>18971715.02505</v>
       </c>
@@ -9202,10 +9314,10 @@
         <v>0</v>
       </c>
       <c r="AR19" t="n">
-        <v>0</v>
+        <v>628049.5774366501</v>
       </c>
       <c r="AS19" t="n">
-        <v>27217769.2570219</v>
+        <v>27845818.83445855</v>
       </c>
     </row>
     <row r="20">
@@ -9269,13 +9381,13 @@
         </is>
       </c>
       <c r="T20" t="n">
-        <v>210961.2515871</v>
+        <v>216453.67110455</v>
       </c>
       <c r="U20" t="n">
-        <v>42495.3747</v>
+        <v>43119.82039928</v>
       </c>
       <c r="V20" t="n">
-        <v>25196.115552</v>
+        <v>25746.54528224</v>
       </c>
       <c r="W20" t="n">
         <v>900</v>
@@ -9316,8 +9428,16 @@
       <c r="AI20" t="n">
         <v>0</v>
       </c>
-      <c r="AJ20" t="inlineStr"/>
-      <c r="AK20" t="inlineStr"/>
+      <c r="AJ20" t="inlineStr">
+        <is>
+          <t>21,13639;31,0;41,0</t>
+        </is>
+      </c>
+      <c r="AK20" t="inlineStr">
+        <is>
+          <t>21,3803;31,0;41,380</t>
+        </is>
+      </c>
       <c r="AL20" t="n">
         <v>570370.8139299999</v>
       </c>
@@ -9337,10 +9457,10 @@
         <v>0</v>
       </c>
       <c r="AR20" t="n">
-        <v>0</v>
+        <v>12966.065791362</v>
       </c>
       <c r="AS20" t="n">
-        <v>653806.5014411</v>
+        <v>666772.567232462</v>
       </c>
     </row>
     <row r="21">
@@ -9404,13 +9524,13 @@
         </is>
       </c>
       <c r="T21" t="n">
-        <v>285795.4733008</v>
+        <v>293117.91157648</v>
       </c>
       <c r="U21" t="n">
-        <v>50991.734</v>
+        <v>51799.1717966</v>
       </c>
       <c r="V21" t="n">
-        <v>36491.171128</v>
+        <v>37284.81893552</v>
       </c>
       <c r="W21" t="n">
         <v>1100</v>
@@ -9451,8 +9571,16 @@
       <c r="AI21" t="n">
         <v>0</v>
       </c>
-      <c r="AJ21" t="inlineStr"/>
-      <c r="AK21" t="inlineStr"/>
+      <c r="AJ21" t="inlineStr">
+        <is>
+          <t>21,18681;31,0;41,0</t>
+        </is>
+      </c>
+      <c r="AK21" t="inlineStr">
+        <is>
+          <t>21,5139;31,0;41,555</t>
+        </is>
+      </c>
       <c r="AL21" t="n">
         <v>676967.802</v>
       </c>
@@ -9472,10 +9600,10 @@
         <v>0</v>
       </c>
       <c r="AR21" t="n">
-        <v>0</v>
+        <v>17457.23396546</v>
       </c>
       <c r="AS21" t="n">
-        <v>854790.4218868001</v>
+        <v>872247.65585226</v>
       </c>
     </row>
     <row r="22">
@@ -9539,13 +9667,13 @@
         </is>
       </c>
       <c r="T22" t="n">
-        <v>414593.5216346001</v>
+        <v>428215.8100514201</v>
       </c>
       <c r="U22" t="n">
-        <v>65390.4367</v>
+        <v>66839.93142774</v>
       </c>
       <c r="V22" t="n">
-        <v>56401.482761</v>
+        <v>58063.43778526</v>
       </c>
       <c r="W22" t="n">
         <v>1940</v>
@@ -9586,8 +9714,16 @@
       <c r="AI22" t="n">
         <v>0</v>
       </c>
-      <c r="AJ22" t="inlineStr"/>
-      <c r="AK22" t="inlineStr"/>
+      <c r="AJ22" t="inlineStr">
+        <is>
+          <t>21,36281;31,0;41,0</t>
+        </is>
+      </c>
+      <c r="AK22" t="inlineStr">
+        <is>
+          <t>21,9695;31,0;41,1184</t>
+        </is>
+      </c>
       <c r="AL22" t="n">
         <v>859025.0884050002</v>
       </c>
@@ -9607,10 +9743,10 @@
         <v>0</v>
       </c>
       <c r="AR22" t="n">
-        <v>0</v>
+        <v>33180.043427721</v>
       </c>
       <c r="AS22" t="n">
-        <v>1202291.06074035</v>
+        <v>1235471.104168071</v>
       </c>
     </row>
     <row r="23">
@@ -9674,13 +9810,13 @@
         </is>
       </c>
       <c r="T23" t="n">
-        <v>487629.3863176</v>
+        <v>505518.5771340801</v>
       </c>
       <c r="U23" t="n">
-        <v>74612.4296</v>
+        <v>76518.26764616001</v>
       </c>
       <c r="V23" t="n">
-        <v>69245.52171099999</v>
+        <v>71484.59256341</v>
       </c>
       <c r="W23" t="n">
         <v>1940</v>
@@ -9721,8 +9857,16 @@
       <c r="AI23" t="n">
         <v>0</v>
       </c>
-      <c r="AJ23" t="inlineStr"/>
-      <c r="AK23" t="inlineStr"/>
+      <c r="AJ23" t="inlineStr">
+        <is>
+          <t>21,48410;31,0;41,0</t>
+        </is>
+      </c>
+      <c r="AK23" t="inlineStr">
+        <is>
+          <t>21,12814;31,0;41,1605</t>
+        </is>
+      </c>
       <c r="AL23" t="n">
         <v>938900.111915</v>
       </c>
@@ -9742,10 +9886,10 @@
         <v>0</v>
       </c>
       <c r="AR23" t="n">
-        <v>0</v>
+        <v>43914.1307363415</v>
       </c>
       <c r="AS23" t="n">
-        <v>1413700.90039585</v>
+        <v>1457615.031132192</v>
       </c>
     </row>
     <row r="24">
@@ -9809,13 +9953,13 @@
         </is>
       </c>
       <c r="T24" t="n">
-        <v>557268.48404</v>
+        <v>578772.057656</v>
       </c>
       <c r="U24" t="n">
-        <v>91109.51999999999</v>
+        <v>93403.67019199999</v>
       </c>
       <c r="V24" t="n">
-        <v>84569.15152699999</v>
+        <v>87321.44627166</v>
       </c>
       <c r="W24" t="n">
         <v>1940</v>
@@ -9856,8 +10000,16 @@
       <c r="AI24" t="n">
         <v>0</v>
       </c>
-      <c r="AJ24" t="inlineStr"/>
-      <c r="AK24" t="inlineStr"/>
+      <c r="AJ24" t="inlineStr">
+        <is>
+          <t>21,58637;31,0;41,0</t>
+        </is>
+      </c>
+      <c r="AK24" t="inlineStr">
+        <is>
+          <t>21,15505;31,0;41,1981</t>
+        </is>
+      </c>
       <c r="AL24" t="n">
         <v>1064663.960275</v>
       </c>
@@ -9877,10 +10029,10 @@
         <v>0</v>
       </c>
       <c r="AR24" t="n">
-        <v>0</v>
+        <v>53158.90472259501</v>
       </c>
       <c r="AS24" t="n">
-        <v>1686008.79332025</v>
+        <v>1739167.698042845</v>
       </c>
     </row>
     <row r="25">
@@ -9944,13 +10096,13 @@
         </is>
       </c>
       <c r="T25" t="n">
-        <v>700702.8953131</v>
+        <v>730228.51853215</v>
       </c>
       <c r="U25" t="n">
-        <v>124651.1565</v>
+        <v>127792.9863186</v>
       </c>
       <c r="V25" t="n">
-        <v>115667.323924</v>
+        <v>119569.14536092</v>
       </c>
       <c r="W25" t="n">
         <v>1940</v>
@@ -9991,8 +10143,16 @@
       <c r="AI25" t="n">
         <v>0</v>
       </c>
-      <c r="AJ25" t="inlineStr"/>
-      <c r="AK25" t="inlineStr"/>
+      <c r="AJ25" t="inlineStr">
+        <is>
+          <t>21,81722;31,0;41,0</t>
+        </is>
+      </c>
+      <c r="AK25" t="inlineStr">
+        <is>
+          <t>21,21408;31,0;41,2825</t>
+        </is>
+      </c>
       <c r="AL25" t="n">
         <v>1325072.60625</v>
       </c>
@@ -10012,10 +10172,10 @@
         <v>0</v>
       </c>
       <c r="AR25" t="n">
-        <v>0</v>
+        <v>73639.72222968</v>
       </c>
       <c r="AS25" t="n">
-        <v>2241150.9877261</v>
+        <v>2314790.70995578</v>
       </c>
     </row>
   </sheetData>

--- a/opm_hero_property/heroes/2.xlsx
+++ b/opm_hero_property/heroes/2.xlsx
@@ -6543,7 +6543,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AS25"/>
+  <dimension ref="A1:AW25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6739,40 +6739,60 @@
       </c>
       <c r="AL1" t="inlineStr">
         <is>
+          <t>job_contact</t>
+        </is>
+      </c>
+      <c r="AM1" t="inlineStr">
+        <is>
+          <t>attr_addition</t>
+        </is>
+      </c>
+      <c r="AN1" t="inlineStr">
+        <is>
+          <t>pvp_addition</t>
+        </is>
+      </c>
+      <c r="AO1" t="inlineStr">
+        <is>
           <t>基础战力</t>
         </is>
       </c>
-      <c r="AM1" t="inlineStr">
+      <c r="AP1" t="inlineStr">
         <is>
           <t>装备战力</t>
         </is>
       </c>
-      <c r="AN1" t="inlineStr">
+      <c r="AQ1" t="inlineStr">
         <is>
           <t>天赋战力</t>
         </is>
       </c>
-      <c r="AO1" t="inlineStr">
+      <c r="AR1" t="inlineStr">
         <is>
           <t>研究所战力</t>
         </is>
       </c>
-      <c r="AP1" t="inlineStr">
+      <c r="AS1" t="inlineStr">
         <is>
           <t>职阶战力</t>
         </is>
       </c>
-      <c r="AQ1" t="inlineStr">
+      <c r="AT1" t="inlineStr">
         <is>
           <t>机械核心战力</t>
         </is>
       </c>
-      <c r="AR1" t="inlineStr">
+      <c r="AU1" t="inlineStr">
         <is>
           <t>限制器战力</t>
         </is>
       </c>
-      <c r="AS1" t="inlineStr">
+      <c r="AV1" t="inlineStr">
+        <is>
+          <t>收集战力</t>
+        </is>
+      </c>
+      <c r="AW1" t="inlineStr">
         <is>
           <t>总战力</t>
         </is>
@@ -6812,7 +6832,7 @@
         <v>10</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="L2" t="n">
         <v>2</v>
@@ -6839,13 +6859,13 @@
         </is>
       </c>
       <c r="T2" t="n">
-        <v>5808668.6394667</v>
+        <v>6665361.075930701</v>
       </c>
       <c r="U2" t="n">
-        <v>883744.1973178</v>
+        <v>1053520.4032778</v>
       </c>
       <c r="V2" t="n">
-        <v>908364.4837436401</v>
+        <v>1043628.91148764</v>
       </c>
       <c r="W2" t="n">
         <v>1940</v>
@@ -6884,7 +6904,7 @@
         <v>10</v>
       </c>
       <c r="AI2" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AJ2" t="inlineStr">
         <is>
@@ -6897,28 +6917,36 @@
         </is>
       </c>
       <c r="AL2" t="n">
+        <v>80</v>
+      </c>
+      <c r="AM2" t="inlineStr"/>
+      <c r="AN2" t="inlineStr"/>
+      <c r="AO2" t="n">
         <v>11692188.96395</v>
       </c>
-      <c r="AM2" t="n">
+      <c r="AP2" t="n">
         <v>114159.6</v>
       </c>
-      <c r="AN2" t="n">
+      <c r="AQ2" t="n">
         <v>2223419.9410988</v>
       </c>
-      <c r="AO2" t="n">
+      <c r="AR2" t="n">
         <v>481003.7</v>
       </c>
-      <c r="AP2" t="n">
-        <v>2006045.6</v>
-      </c>
-      <c r="AQ2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR2" t="n">
+      <c r="AS2" t="n">
+        <v>2941354.717116</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>1870609.6</v>
+      </c>
+      <c r="AU2" t="n">
         <v>628049.5774366501</v>
       </c>
-      <c r="AS2" t="n">
-        <v>17144867.38248545</v>
+      <c r="AV2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW2" t="n">
+        <v>19950786.09960145</v>
       </c>
     </row>
     <row r="3">
@@ -6955,7 +6983,7 @@
         <v>10</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="L3" t="n">
         <v>2</v>
@@ -6982,13 +7010,13 @@
         </is>
       </c>
       <c r="T3" t="n">
-        <v>730228.51853215</v>
+        <v>826705.85606015</v>
       </c>
       <c r="U3" t="n">
-        <v>127792.9863186</v>
+        <v>146912.1988386</v>
       </c>
       <c r="V3" t="n">
-        <v>119569.14536092</v>
+        <v>135119.67659292</v>
       </c>
       <c r="W3" t="n">
         <v>1940</v>
@@ -7027,7 +7055,7 @@
         <v>10</v>
       </c>
       <c r="AI3" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AJ3" t="inlineStr">
         <is>
@@ -7040,28 +7068,36 @@
         </is>
       </c>
       <c r="AL3" t="n">
+        <v>80</v>
+      </c>
+      <c r="AM3" t="inlineStr"/>
+      <c r="AN3" t="inlineStr"/>
+      <c r="AO3" t="n">
         <v>1325072.60625</v>
       </c>
-      <c r="AM3" t="n">
+      <c r="AP3" t="n">
         <v>114159.6</v>
       </c>
-      <c r="AN3" t="n">
+      <c r="AQ3" t="n">
         <v>254149.7314761</v>
       </c>
-      <c r="AO3" t="n">
+      <c r="AR3" t="n">
         <v>68760.45</v>
       </c>
-      <c r="AP3" t="n">
-        <v>479008.6</v>
-      </c>
-      <c r="AQ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR3" t="n">
+      <c r="AS3" t="n">
+        <v>584948.4085</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>211875.65</v>
+      </c>
+      <c r="AU3" t="n">
         <v>73639.72222968</v>
       </c>
-      <c r="AS3" t="n">
-        <v>2314790.70995578</v>
+      <c r="AV3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>2632606.16845578</v>
       </c>
     </row>
     <row r="4">
@@ -7098,7 +7134,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L4" t="n">
         <v>2</v>
@@ -7125,13 +7161,13 @@
         </is>
       </c>
       <c r="T4" t="n">
-        <v>7673.5248</v>
+        <v>8124.5248</v>
       </c>
       <c r="U4" t="n">
-        <v>1613.1494</v>
+        <v>1702.1494</v>
       </c>
       <c r="V4" t="n">
-        <v>607.6985</v>
+        <v>678.6985</v>
       </c>
       <c r="W4" t="n">
         <v>550</v>
@@ -7170,25 +7206,21 @@
         <v>0</v>
       </c>
       <c r="AI4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ4" t="inlineStr"/>
       <c r="AK4" t="inlineStr"/>
       <c r="AL4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM4" t="inlineStr"/>
+      <c r="AN4" t="inlineStr"/>
+      <c r="AO4" t="n">
         <v>19529.122035</v>
       </c>
-      <c r="AM4" t="n">
+      <c r="AP4" t="n">
         <v>4498.9</v>
       </c>
-      <c r="AN4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP4" t="n">
-        <v>0</v>
-      </c>
       <c r="AQ4" t="n">
         <v>0</v>
       </c>
@@ -7196,7 +7228,19 @@
         <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>24028.022035</v>
+        <v>0</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>1473.35</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW4" t="n">
+        <v>25501.372035</v>
       </c>
     </row>
     <row r="5">
@@ -7233,7 +7277,7 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L5" t="n">
         <v>2</v>
@@ -7260,13 +7304,13 @@
         </is>
       </c>
       <c r="T5" t="n">
-        <v>20462.6731</v>
+        <v>33724.6731</v>
       </c>
       <c r="U5" t="n">
-        <v>4043.3012</v>
+        <v>6671.3012</v>
       </c>
       <c r="V5" t="n">
-        <v>1853.456</v>
+        <v>3947.456</v>
       </c>
       <c r="W5" t="n">
         <v>638</v>
@@ -7305,25 +7349,21 @@
         <v>0</v>
       </c>
       <c r="AI5" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AJ5" t="inlineStr"/>
       <c r="AK5" t="inlineStr"/>
       <c r="AL5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM5" t="inlineStr"/>
+      <c r="AN5" t="inlineStr"/>
+      <c r="AO5" t="n">
         <v>49808.72338</v>
       </c>
-      <c r="AM5" t="n">
+      <c r="AP5" t="n">
         <v>11906.8</v>
       </c>
-      <c r="AN5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP5" t="n">
-        <v>0</v>
-      </c>
       <c r="AQ5" t="n">
         <v>0</v>
       </c>
@@ -7331,7 +7371,19 @@
         <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>61715.52338</v>
+        <v>0</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>43435.7</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW5" t="n">
+        <v>105151.22338</v>
       </c>
     </row>
     <row r="6">
@@ -7368,7 +7420,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L6" t="n">
         <v>2</v>
@@ -7395,13 +7447,13 @@
         </is>
       </c>
       <c r="T6" t="n">
-        <v>57348.1924</v>
+        <v>114204.1924</v>
       </c>
       <c r="U6" t="n">
-        <v>10355.975</v>
+        <v>21622.975</v>
       </c>
       <c r="V6" t="n">
-        <v>5963.632</v>
+        <v>14940.632</v>
       </c>
       <c r="W6" t="n">
         <v>900</v>
@@ -7440,33 +7492,41 @@
         <v>0</v>
       </c>
       <c r="AI6" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AJ6" t="inlineStr"/>
       <c r="AK6" t="inlineStr"/>
       <c r="AL6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM6" t="inlineStr"/>
+      <c r="AN6" t="inlineStr"/>
+      <c r="AO6" t="n">
         <v>119407.0039</v>
       </c>
-      <c r="AM6" t="n">
+      <c r="AP6" t="n">
         <v>32738.5</v>
       </c>
-      <c r="AN6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO6" t="n">
+      <c r="AQ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR6" t="n">
         <v>6160.5</v>
       </c>
-      <c r="AP6" t="n">
+      <c r="AS6" t="n">
         <v>9356.799999999999</v>
       </c>
-      <c r="AQ6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS6" t="n">
-        <v>167662.8039</v>
+      <c r="AT6" t="n">
+        <v>186216.05</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW6" t="n">
+        <v>353878.8539</v>
       </c>
     </row>
     <row r="7">
@@ -7503,7 +7563,7 @@
         <v>1</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L7" t="n">
         <v>2</v>
@@ -7530,13 +7590,13 @@
         </is>
       </c>
       <c r="T7" t="n">
-        <v>66641.62540048</v>
+        <v>123497.62540048</v>
       </c>
       <c r="U7" t="n">
-        <v>11348.61013</v>
+        <v>22615.61013</v>
       </c>
       <c r="V7" t="n">
-        <v>7159.6316544</v>
+        <v>16136.6316544</v>
       </c>
       <c r="W7" t="n">
         <v>900</v>
@@ -7575,7 +7635,7 @@
         <v>1</v>
       </c>
       <c r="AI7" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AJ7" t="inlineStr">
         <is>
@@ -7588,28 +7648,36 @@
         </is>
       </c>
       <c r="AL7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM7" t="inlineStr"/>
+      <c r="AN7" t="inlineStr"/>
+      <c r="AO7" t="n">
         <v>119407.0039</v>
       </c>
-      <c r="AM7" t="n">
+      <c r="AP7" t="n">
         <v>32738.5</v>
       </c>
-      <c r="AN7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO7" t="n">
+      <c r="AQ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR7" t="n">
         <v>6160.5</v>
       </c>
-      <c r="AP7" t="n">
+      <c r="AS7" t="n">
         <v>9538.799999999999</v>
       </c>
-      <c r="AQ7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR7" t="n">
+      <c r="AT7" t="n">
+        <v>186216.05</v>
+      </c>
+      <c r="AU7" t="n">
         <v>23019.61341028</v>
       </c>
-      <c r="AS7" t="n">
-        <v>190864.41731028</v>
+      <c r="AV7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW7" t="n">
+        <v>377080.46731028</v>
       </c>
     </row>
     <row r="8">
@@ -7646,7 +7714,7 @@
         <v>2</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L8" t="n">
         <v>2</v>
@@ -7673,13 +7741,13 @@
         </is>
       </c>
       <c r="T8" t="n">
-        <v>76354.82051736</v>
+        <v>133210.82051736</v>
       </c>
       <c r="U8" t="n">
-        <v>12342.24526</v>
+        <v>23609.24526</v>
       </c>
       <c r="V8" t="n">
-        <v>8398.916192000001</v>
+        <v>17375.916192</v>
       </c>
       <c r="W8" t="n">
         <v>900</v>
@@ -7718,7 +7786,7 @@
         <v>2</v>
       </c>
       <c r="AI8" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AJ8" t="inlineStr">
         <is>
@@ -7731,28 +7799,36 @@
         </is>
       </c>
       <c r="AL8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM8" t="inlineStr"/>
+      <c r="AN8" t="inlineStr"/>
+      <c r="AO8" t="n">
         <v>119407.0039</v>
       </c>
-      <c r="AM8" t="n">
+      <c r="AP8" t="n">
         <v>32738.5</v>
       </c>
-      <c r="AN8" t="n">
+      <c r="AQ8" t="n">
         <v>666.1859563999999</v>
       </c>
-      <c r="AO8" t="n">
+      <c r="AR8" t="n">
         <v>6160.5</v>
       </c>
-      <c r="AP8" t="n">
+      <c r="AS8" t="n">
         <v>9538.799999999999</v>
       </c>
-      <c r="AQ8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR8" t="n">
+      <c r="AT8" t="n">
+        <v>186216.05</v>
+      </c>
+      <c r="AU8" t="n">
         <v>46048.59105896</v>
       </c>
-      <c r="AS8" t="n">
-        <v>214559.58091536</v>
+      <c r="AV8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW8" t="n">
+        <v>400775.6309153601</v>
       </c>
     </row>
     <row r="9">
@@ -7789,7 +7865,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L9" t="n">
         <v>2</v>
@@ -7816,31 +7892,31 @@
         </is>
       </c>
       <c r="T9" t="n">
-        <v>240481.3194</v>
+        <v>412226.462594</v>
       </c>
       <c r="U9" t="n">
-        <v>42321.152</v>
+        <v>74009.05352</v>
       </c>
       <c r="V9" t="n">
-        <v>28934.3203</v>
+        <v>54252.333503</v>
       </c>
       <c r="W9" t="n">
-        <v>1940</v>
+        <v>1950</v>
       </c>
       <c r="X9" t="n">
-        <v>720</v>
+        <v>730</v>
       </c>
       <c r="Y9" t="n">
         <v>15000</v>
       </c>
       <c r="Z9" t="n">
-        <v>930</v>
+        <v>940</v>
       </c>
       <c r="AA9" t="n">
-        <v>2880</v>
+        <v>2890</v>
       </c>
       <c r="AB9" t="n">
-        <v>2010</v>
+        <v>2050</v>
       </c>
       <c r="AC9" t="n">
         <v>0</v>
@@ -7861,33 +7937,41 @@
         <v>0</v>
       </c>
       <c r="AI9" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AJ9" t="inlineStr"/>
       <c r="AK9" t="inlineStr"/>
       <c r="AL9" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM9" t="inlineStr"/>
+      <c r="AN9" t="inlineStr"/>
+      <c r="AO9" t="n">
         <v>541848.9599250001</v>
       </c>
-      <c r="AM9" t="n">
+      <c r="AP9" t="n">
         <v>114159.6</v>
       </c>
-      <c r="AN9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO9" t="n">
+      <c r="AQ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR9" t="n">
         <v>15121.05</v>
       </c>
-      <c r="AP9" t="n">
-        <v>38885</v>
-      </c>
-      <c r="AQ9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR9" t="n">
-        <v>0</v>
-      </c>
       <c r="AS9" t="n">
-        <v>710014.609925</v>
+        <v>44295.23959925</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>436332.4</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV9" t="n">
+        <v>94347.60000000001</v>
+      </c>
+      <c r="AW9" t="n">
+        <v>1246104.84952425</v>
       </c>
     </row>
     <row r="10">
@@ -7924,7 +8008,7 @@
         <v>1</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L10" t="n">
         <v>2</v>
@@ -7951,31 +8035,31 @@
         </is>
       </c>
       <c r="T10" t="n">
-        <v>252384.01137428</v>
+        <v>481360.4393505091</v>
       </c>
       <c r="U10" t="n">
-        <v>43387.1644256</v>
+        <v>84499.3363196416</v>
       </c>
       <c r="V10" t="n">
-        <v>30436.09904826</v>
+        <v>62254.88627178268</v>
       </c>
       <c r="W10" t="n">
-        <v>1940</v>
+        <v>1950</v>
       </c>
       <c r="X10" t="n">
-        <v>720</v>
+        <v>730</v>
       </c>
       <c r="Y10" t="n">
         <v>15000</v>
       </c>
       <c r="Z10" t="n">
-        <v>930</v>
+        <v>940</v>
       </c>
       <c r="AA10" t="n">
-        <v>2880</v>
+        <v>2890</v>
       </c>
       <c r="AB10" t="n">
-        <v>2010</v>
+        <v>2050</v>
       </c>
       <c r="AC10" t="n">
         <v>0</v>
@@ -7996,7 +8080,7 @@
         <v>1</v>
       </c>
       <c r="AI10" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AJ10" t="inlineStr">
         <is>
@@ -8009,28 +8093,40 @@
         </is>
       </c>
       <c r="AL10" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM10" t="inlineStr"/>
+      <c r="AN10" t="inlineStr">
+        <is>
+          <t>1,1,0;2,1,0;3,1,0;4,1,0;1,2,0;2,2,0;3,2,0;4,2,0;5,1,0;5,2,0</t>
+        </is>
+      </c>
+      <c r="AO10" t="n">
         <v>541848.9599250001</v>
       </c>
-      <c r="AM10" t="n">
+      <c r="AP10" t="n">
         <v>114159.6</v>
       </c>
-      <c r="AN10" t="n">
+      <c r="AQ10" t="n">
         <v>3217.53343065</v>
       </c>
-      <c r="AO10" t="n">
+      <c r="AR10" t="n">
         <v>15121.05</v>
       </c>
-      <c r="AP10" t="n">
-        <v>38885</v>
-      </c>
-      <c r="AQ10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR10" t="n">
+      <c r="AS10" t="n">
+        <v>44295.23959925</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>436332.4</v>
+      </c>
+      <c r="AU10" t="n">
         <v>24675.872082765</v>
       </c>
-      <c r="AS10" t="n">
-        <v>737908.015438415</v>
+      <c r="AV10" t="n">
+        <v>253985.8009811215</v>
+      </c>
+      <c r="AW10" t="n">
+        <v>1433636.456018787</v>
       </c>
     </row>
     <row r="11">
@@ -8067,7 +8163,7 @@
         <v>5</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L11" t="n">
         <v>2</v>
@@ -8094,31 +8190,31 @@
         </is>
       </c>
       <c r="T11" t="n">
-        <v>311434.5243518</v>
+        <v>605648.5815616244</v>
       </c>
       <c r="U11" t="n">
-        <v>47653.214128</v>
+        <v>97629.651811328</v>
       </c>
       <c r="V11" t="n">
-        <v>37818.13365539</v>
+        <v>76895.79750184102</v>
       </c>
       <c r="W11" t="n">
-        <v>1940</v>
+        <v>1950</v>
       </c>
       <c r="X11" t="n">
-        <v>720</v>
+        <v>730</v>
       </c>
       <c r="Y11" t="n">
         <v>15000</v>
       </c>
       <c r="Z11" t="n">
-        <v>930</v>
+        <v>940</v>
       </c>
       <c r="AA11" t="n">
-        <v>2880</v>
+        <v>2890</v>
       </c>
       <c r="AB11" t="n">
-        <v>2310</v>
+        <v>2350</v>
       </c>
       <c r="AC11" t="n">
         <v>0</v>
@@ -8139,7 +8235,7 @@
         <v>5</v>
       </c>
       <c r="AI11" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AJ11" t="inlineStr">
         <is>
@@ -8152,28 +8248,40 @@
         </is>
       </c>
       <c r="AL11" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM11" t="inlineStr"/>
+      <c r="AN11" t="inlineStr">
+        <is>
+          <t>1,1,0;2,1,0;3,1,0;4,1,0;1,2,0;2,2,0;3,2,0;4,2,0;5,1,0;5,2,0</t>
+        </is>
+      </c>
+      <c r="AO11" t="n">
         <v>541848.9599250001</v>
       </c>
-      <c r="AM11" t="n">
+      <c r="AP11" t="n">
         <v>114159.6</v>
       </c>
-      <c r="AN11" t="n">
+      <c r="AQ11" t="n">
         <v>35917.86773714999</v>
       </c>
-      <c r="AO11" t="n">
+      <c r="AR11" t="n">
         <v>15121.05</v>
       </c>
-      <c r="AP11" t="n">
-        <v>38885</v>
-      </c>
-      <c r="AQ11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR11" t="n">
+      <c r="AS11" t="n">
+        <v>44295.23959925</v>
+      </c>
+      <c r="AT11" t="n">
+        <v>436332.4</v>
+      </c>
+      <c r="AU11" t="n">
         <v>123433.4926913425</v>
       </c>
-      <c r="AS11" t="n">
-        <v>869365.9703534924</v>
+      <c r="AV11" t="n">
+        <v>422125.404742631</v>
+      </c>
+      <c r="AW11" t="n">
+        <v>1733234.014695374</v>
       </c>
     </row>
     <row r="12">
@@ -8210,7 +8318,7 @@
         <v>5</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L12" t="n">
         <v>2</v>
@@ -8237,31 +8345,31 @@
         </is>
       </c>
       <c r="T12" t="n">
-        <v>330499.0994858</v>
+        <v>707532.8277760758</v>
       </c>
       <c r="U12" t="n">
-        <v>47653.214128</v>
+        <v>106997.855076608</v>
       </c>
       <c r="V12" t="n">
-        <v>40098.26568539</v>
+        <v>90204.14660170238</v>
       </c>
       <c r="W12" t="n">
-        <v>1940</v>
+        <v>1960</v>
       </c>
       <c r="X12" t="n">
-        <v>720</v>
+        <v>740</v>
       </c>
       <c r="Y12" t="n">
         <v>15000</v>
       </c>
       <c r="Z12" t="n">
-        <v>930</v>
+        <v>950</v>
       </c>
       <c r="AA12" t="n">
-        <v>2880</v>
+        <v>2900</v>
       </c>
       <c r="AB12" t="n">
-        <v>2610</v>
+        <v>2690</v>
       </c>
       <c r="AC12" t="n">
         <v>0</v>
@@ -8282,7 +8390,7 @@
         <v>5</v>
       </c>
       <c r="AI12" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AJ12" t="inlineStr">
         <is>
@@ -8295,28 +8403,40 @@
         </is>
       </c>
       <c r="AL12" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM12" t="inlineStr"/>
+      <c r="AN12" t="inlineStr">
+        <is>
+          <t>1,1,0;2,1,0;3,1,0;4,1,0;1,2,0;2,2,0;3,2,0;4,2,0;5,1,0;5,2,0</t>
+        </is>
+      </c>
+      <c r="AO12" t="n">
         <v>541848.9599250001</v>
       </c>
-      <c r="AM12" t="n">
+      <c r="AP12" t="n">
         <v>114159.6</v>
       </c>
-      <c r="AN12" t="n">
+      <c r="AQ12" t="n">
         <v>68618.20204365</v>
       </c>
-      <c r="AO12" t="n">
+      <c r="AR12" t="n">
         <v>15121.05</v>
       </c>
-      <c r="AP12" t="n">
-        <v>38885</v>
-      </c>
-      <c r="AQ12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR12" t="n">
+      <c r="AS12" t="n">
+        <v>44295.23959925</v>
+      </c>
+      <c r="AT12" t="n">
+        <v>436332.4</v>
+      </c>
+      <c r="AU12" t="n">
         <v>123433.4926913425</v>
       </c>
-      <c r="AS12" t="n">
-        <v>902066.3046599925</v>
+      <c r="AV12" t="n">
+        <v>633117.9265052171</v>
+      </c>
+      <c r="AW12" t="n">
+        <v>1976926.87076446</v>
       </c>
     </row>
     <row r="13">
@@ -8353,7 +8473,7 @@
         <v>10</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L13" t="n">
         <v>2</v>
@@ -8380,31 +8500,31 @@
         </is>
       </c>
       <c r="T13" t="n">
-        <v>398419.3038481</v>
+        <v>872951.372429984</v>
       </c>
       <c r="U13" t="n">
-        <v>52862.8317088</v>
+        <v>125165.1386266048</v>
       </c>
       <c r="V13" t="n">
-        <v>48634.21884019</v>
+        <v>109952.081789004</v>
       </c>
       <c r="W13" t="n">
-        <v>1940</v>
+        <v>1990</v>
       </c>
       <c r="X13" t="n">
-        <v>720</v>
+        <v>770</v>
       </c>
       <c r="Y13" t="n">
         <v>15000</v>
       </c>
       <c r="Z13" t="n">
-        <v>930</v>
+        <v>980</v>
       </c>
       <c r="AA13" t="n">
-        <v>2880</v>
+        <v>2930</v>
       </c>
       <c r="AB13" t="n">
-        <v>2910</v>
+        <v>3110</v>
       </c>
       <c r="AC13" t="n">
         <v>0</v>
@@ -8425,7 +8545,7 @@
         <v>10</v>
       </c>
       <c r="AI13" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AJ13" t="inlineStr">
         <is>
@@ -8438,28 +8558,40 @@
         </is>
       </c>
       <c r="AL13" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM13" t="inlineStr"/>
+      <c r="AN13" t="inlineStr">
+        <is>
+          <t>1,1,0;2,1,0;3,1,0;4,1,0;1,2,0;2,2,0;3,2,0;4,2,0;5,1,0;5,2,0</t>
+        </is>
+      </c>
+      <c r="AO13" t="n">
         <v>541848.9599250001</v>
       </c>
-      <c r="AM13" t="n">
+      <c r="AP13" t="n">
         <v>114159.6</v>
       </c>
-      <c r="AN13" t="n">
+      <c r="AQ13" t="n">
         <v>101318.53635015</v>
       </c>
-      <c r="AO13" t="n">
+      <c r="AR13" t="n">
         <v>15121.05</v>
       </c>
-      <c r="AP13" t="n">
-        <v>38885</v>
-      </c>
-      <c r="AQ13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR13" t="n">
+      <c r="AS13" t="n">
+        <v>44295.23959925</v>
+      </c>
+      <c r="AT13" t="n">
+        <v>436332.4</v>
+      </c>
+      <c r="AU13" t="n">
         <v>244206.4546947625</v>
       </c>
-      <c r="AS13" t="n">
-        <v>1055539.600969912</v>
+      <c r="AV13" t="n">
+        <v>884853.0586711676</v>
+      </c>
+      <c r="AW13" t="n">
+        <v>2382135.29924033</v>
       </c>
     </row>
     <row r="14">
@@ -8496,7 +8628,7 @@
         <v>5</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L14" t="n">
         <v>2</v>
@@ -8523,31 +8655,31 @@
         </is>
       </c>
       <c r="T14" t="n">
-        <v>349563.6746198</v>
+        <v>955948.7290688624</v>
       </c>
       <c r="U14" t="n">
-        <v>47653.214128</v>
+        <v>134681.718423552</v>
       </c>
       <c r="V14" t="n">
-        <v>42378.39771539</v>
+        <v>113705.3807804314</v>
       </c>
       <c r="W14" t="n">
-        <v>1940</v>
+        <v>1990</v>
       </c>
       <c r="X14" t="n">
-        <v>720</v>
+        <v>770</v>
       </c>
       <c r="Y14" t="n">
         <v>15000</v>
       </c>
       <c r="Z14" t="n">
-        <v>860</v>
+        <v>910</v>
       </c>
       <c r="AA14" t="n">
-        <v>2880</v>
+        <v>2930</v>
       </c>
       <c r="AB14" t="n">
-        <v>2840</v>
+        <v>3040</v>
       </c>
       <c r="AC14" t="n">
         <v>0</v>
@@ -8568,7 +8700,7 @@
         <v>5</v>
       </c>
       <c r="AI14" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AJ14" t="inlineStr">
         <is>
@@ -8581,28 +8713,40 @@
         </is>
       </c>
       <c r="AL14" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM14" t="inlineStr"/>
+      <c r="AN14" t="inlineStr">
+        <is>
+          <t>1,1,1000;2,1,1000;3,1,1000;4,1,1000;1,2,1000;2,2,1000;3,2,1000;4,2,1000;5,1,1000;5,2,1000</t>
+        </is>
+      </c>
+      <c r="AO14" t="n">
         <v>541848.9599250001</v>
       </c>
-      <c r="AM14" t="n">
+      <c r="AP14" t="n">
         <v>114159.6</v>
       </c>
-      <c r="AN14" t="n">
+      <c r="AQ14" t="n">
         <v>101318.53635015</v>
       </c>
-      <c r="AO14" t="n">
+      <c r="AR14" t="n">
         <v>15121.05</v>
       </c>
-      <c r="AP14" t="n">
-        <v>38703</v>
-      </c>
-      <c r="AQ14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR14" t="n">
+      <c r="AS14" t="n">
+        <v>44113.23959925</v>
+      </c>
+      <c r="AT14" t="n">
+        <v>436332.4</v>
+      </c>
+      <c r="AU14" t="n">
         <v>123433.4926913425</v>
       </c>
-      <c r="AS14" t="n">
-        <v>934584.6389664925</v>
+      <c r="AV14" t="n">
+        <v>1175869.247113109</v>
+      </c>
+      <c r="AW14" t="n">
+        <v>2552196.525678852</v>
       </c>
     </row>
     <row r="15">
@@ -8639,7 +8783,7 @@
         <v>6</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L15" t="n">
         <v>2</v>
@@ -8666,31 +8810,31 @@
         </is>
       </c>
       <c r="T15" t="n">
-        <v>504243.30416096</v>
+        <v>1500954.398210729</v>
       </c>
       <c r="U15" t="n">
-        <v>71387.17030336001</v>
+        <v>227200.0526538752</v>
       </c>
       <c r="V15" t="n">
-        <v>69255.57365589999</v>
+        <v>192474.9928052917</v>
       </c>
       <c r="W15" t="n">
-        <v>1940</v>
+        <v>2040</v>
       </c>
       <c r="X15" t="n">
-        <v>720</v>
+        <v>820</v>
       </c>
       <c r="Y15" t="n">
         <v>15000</v>
       </c>
       <c r="Z15" t="n">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="AA15" t="n">
-        <v>2880</v>
+        <v>2980</v>
       </c>
       <c r="AB15" t="n">
-        <v>2980</v>
+        <v>3380</v>
       </c>
       <c r="AC15" t="n">
         <v>0</v>
@@ -8711,7 +8855,7 @@
         <v>6</v>
       </c>
       <c r="AI15" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AJ15" t="inlineStr">
         <is>
@@ -8724,28 +8868,40 @@
         </is>
       </c>
       <c r="AL15" t="n">
+        <v>20</v>
+      </c>
+      <c r="AM15" t="inlineStr"/>
+      <c r="AN15" t="inlineStr">
+        <is>
+          <t>1,1,1000;2,1,1000;3,1,1000;4,1,1000;1,2,1000;2,2,1000;3,2,1000;4,2,1000;5,1,1000;5,2,1000</t>
+        </is>
+      </c>
+      <c r="AO15" t="n">
         <v>835628.09403</v>
       </c>
-      <c r="AM15" t="n">
+      <c r="AP15" t="n">
         <v>114159.6</v>
       </c>
-      <c r="AN15" t="n">
+      <c r="AQ15" t="n">
         <v>158436.4324573</v>
       </c>
-      <c r="AO15" t="n">
+      <c r="AR15" t="n">
         <v>33220.2</v>
       </c>
-      <c r="AP15" t="n">
-        <v>111419.8</v>
-      </c>
-      <c r="AQ15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR15" t="n">
+      <c r="AS15" t="n">
+        <v>128115.8618806</v>
+      </c>
+      <c r="AT15" t="n">
+        <v>798347</v>
+      </c>
+      <c r="AU15" t="n">
         <v>155072.201288269</v>
       </c>
-      <c r="AS15" t="n">
-        <v>1407936.327775569</v>
+      <c r="AV15" t="n">
+        <v>1966488.580496727</v>
+      </c>
+      <c r="AW15" t="n">
+        <v>4189467.970152895</v>
       </c>
     </row>
     <row r="16">
@@ -8782,7 +8938,7 @@
         <v>7</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L16" t="n">
         <v>2</v>
@@ -8809,31 +8965,31 @@
         </is>
       </c>
       <c r="T16" t="n">
-        <v>514688.97897632</v>
+        <v>1540124.755156947</v>
       </c>
       <c r="U16" t="n">
-        <v>72501.13615392</v>
+        <v>232589.1235325012</v>
       </c>
       <c r="V16" t="n">
-        <v>70598.30848684</v>
+        <v>197357.9055060075</v>
       </c>
       <c r="W16" t="n">
-        <v>1940</v>
+        <v>2140</v>
       </c>
       <c r="X16" t="n">
-        <v>720</v>
+        <v>920</v>
       </c>
       <c r="Y16" t="n">
         <v>15000</v>
       </c>
       <c r="Z16" t="n">
-        <v>1070</v>
+        <v>1270</v>
       </c>
       <c r="AA16" t="n">
-        <v>2880</v>
+        <v>3080</v>
       </c>
       <c r="AB16" t="n">
-        <v>3050</v>
+        <v>3850</v>
       </c>
       <c r="AC16" t="n">
         <v>0</v>
@@ -8854,7 +9010,7 @@
         <v>7</v>
       </c>
       <c r="AI16" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AJ16" t="inlineStr">
         <is>
@@ -8867,28 +9023,40 @@
         </is>
       </c>
       <c r="AL16" t="n">
+        <v>20</v>
+      </c>
+      <c r="AM16" t="inlineStr"/>
+      <c r="AN16" t="inlineStr">
+        <is>
+          <t>1,1,1000;2,1,1000;3,1,1000;4,1,1000;1,2,1000;2,2,1000;3,2,1000;4,2,1000;5,1,1000;5,2,1000</t>
+        </is>
+      </c>
+      <c r="AO16" t="n">
         <v>835628.09403</v>
       </c>
-      <c r="AM16" t="n">
+      <c r="AP16" t="n">
         <v>114159.6</v>
       </c>
-      <c r="AN16" t="n">
+      <c r="AQ16" t="n">
         <v>158436.4324573</v>
       </c>
-      <c r="AO16" t="n">
+      <c r="AR16" t="n">
         <v>33220.2</v>
       </c>
-      <c r="AP16" t="n">
-        <v>111601.8</v>
-      </c>
-      <c r="AQ16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR16" t="n">
+      <c r="AS16" t="n">
+        <v>128297.8618806</v>
+      </c>
+      <c r="AT16" t="n">
+        <v>798347</v>
+      </c>
+      <c r="AU16" t="n">
         <v>180924.965750398</v>
       </c>
-      <c r="AS16" t="n">
-        <v>1433971.092237698</v>
+      <c r="AV16" t="n">
+        <v>2046267.51007245</v>
+      </c>
+      <c r="AW16" t="n">
+        <v>4295281.664190749</v>
       </c>
     </row>
     <row r="17">
@@ -8925,7 +9093,7 @@
         <v>8</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="L17" t="n">
         <v>2</v>
@@ -8952,31 +9120,31 @@
         </is>
       </c>
       <c r="T17" t="n">
-        <v>1159541.65672044</v>
+        <v>2760483.8152038</v>
       </c>
       <c r="U17" t="n">
-        <v>177607.12512</v>
+        <v>421644.6610534401</v>
       </c>
       <c r="V17" t="n">
-        <v>188610.09715</v>
+        <v>391424.7769768001</v>
       </c>
       <c r="W17" t="n">
-        <v>1940</v>
+        <v>2140</v>
       </c>
       <c r="X17" t="n">
-        <v>720</v>
+        <v>920</v>
       </c>
       <c r="Y17" t="n">
         <v>15000</v>
       </c>
       <c r="Z17" t="n">
-        <v>1350</v>
+        <v>1550</v>
       </c>
       <c r="AA17" t="n">
-        <v>2880</v>
+        <v>3080</v>
       </c>
       <c r="AB17" t="n">
-        <v>3330</v>
+        <v>4130</v>
       </c>
       <c r="AC17" t="n">
         <v>0</v>
@@ -8997,7 +9165,7 @@
         <v>8</v>
       </c>
       <c r="AI17" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AJ17" t="inlineStr">
         <is>
@@ -9010,28 +9178,40 @@
         </is>
       </c>
       <c r="AL17" t="n">
+        <v>40</v>
+      </c>
+      <c r="AM17" t="inlineStr"/>
+      <c r="AN17" t="inlineStr">
+        <is>
+          <t>1,1,1000;2,1,1000;3,1,1000;4,1,1000;1,2,1000;2,2,1000;3,2,1000;4,2,1000;5,1,1000;5,2,1000</t>
+        </is>
+      </c>
+      <c r="AO17" t="n">
         <v>1918109.8266</v>
       </c>
-      <c r="AM17" t="n">
+      <c r="AP17" t="n">
         <v>114159.6</v>
       </c>
-      <c r="AN17" t="n">
+      <c r="AQ17" t="n">
         <v>369821.8998616</v>
       </c>
-      <c r="AO17" t="n">
+      <c r="AR17" t="n">
         <v>155697.55</v>
       </c>
-      <c r="AP17" t="n">
-        <v>685602</v>
-      </c>
-      <c r="AQ17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR17" t="n">
+      <c r="AS17" t="n">
+        <v>762293.3930640001</v>
+      </c>
+      <c r="AT17" t="n">
+        <v>1275566.25</v>
+      </c>
+      <c r="AU17" t="n">
         <v>239960.00219934</v>
       </c>
-      <c r="AS17" t="n">
-        <v>3483350.878660941</v>
+      <c r="AV17" t="n">
+        <v>3101127.922364197</v>
+      </c>
+      <c r="AW17" t="n">
+        <v>7936736.444089137</v>
       </c>
     </row>
     <row r="18">
@@ -9068,7 +9248,7 @@
         <v>10</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="L18" t="n">
         <v>2</v>
@@ -9095,31 +9275,31 @@
         </is>
       </c>
       <c r="T18" t="n">
-        <v>5808668.6394667</v>
+        <v>9921075.02099078</v>
       </c>
       <c r="U18" t="n">
-        <v>883744.1973178</v>
+        <v>1446379.41086458</v>
       </c>
       <c r="V18" t="n">
-        <v>908364.4837436401</v>
+        <v>1389938.867043182</v>
       </c>
       <c r="W18" t="n">
-        <v>1940</v>
+        <v>2140</v>
       </c>
       <c r="X18" t="n">
-        <v>720</v>
+        <v>920</v>
       </c>
       <c r="Y18" t="n">
         <v>15000</v>
       </c>
       <c r="Z18" t="n">
-        <v>1910</v>
+        <v>2110</v>
       </c>
       <c r="AA18" t="n">
-        <v>2880</v>
+        <v>3080</v>
       </c>
       <c r="AB18" t="n">
-        <v>3890</v>
+        <v>4690</v>
       </c>
       <c r="AC18" t="n">
         <v>0</v>
@@ -9140,7 +9320,7 @@
         <v>10</v>
       </c>
       <c r="AI18" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AJ18" t="inlineStr">
         <is>
@@ -9153,28 +9333,40 @@
         </is>
       </c>
       <c r="AL18" t="n">
+        <v>80</v>
+      </c>
+      <c r="AM18" t="inlineStr"/>
+      <c r="AN18" t="inlineStr">
+        <is>
+          <t>1,1,3000;2,1,3000;3,1,3000;4,1,3000;1,2,3000;2,2,3000;3,2,3000;4,2,3000;5,1,3000;5,2,3000</t>
+        </is>
+      </c>
+      <c r="AO18" t="n">
         <v>11692188.96395</v>
       </c>
-      <c r="AM18" t="n">
+      <c r="AP18" t="n">
         <v>114159.6</v>
       </c>
-      <c r="AN18" t="n">
+      <c r="AQ18" t="n">
         <v>2223419.9410988</v>
       </c>
-      <c r="AO18" t="n">
+      <c r="AR18" t="n">
         <v>481003.7</v>
       </c>
-      <c r="AP18" t="n">
-        <v>2006045.6</v>
-      </c>
-      <c r="AQ18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR18" t="n">
+      <c r="AS18" t="n">
+        <v>2941354.717116</v>
+      </c>
+      <c r="AT18" t="n">
+        <v>1870609.6</v>
+      </c>
+      <c r="AU18" t="n">
         <v>628049.5774366501</v>
       </c>
-      <c r="AS18" t="n">
-        <v>17144867.38248545</v>
+      <c r="AV18" t="n">
+        <v>7960123.341853226</v>
+      </c>
+      <c r="AW18" t="n">
+        <v>27910909.44145468</v>
       </c>
     </row>
     <row r="19">
@@ -9211,7 +9403,7 @@
         <v>10</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="L19" t="n">
         <v>2</v>
@@ -9238,31 +9430,31 @@
         </is>
       </c>
       <c r="T19" t="n">
-        <v>9408753.470338799</v>
+        <v>16902186.29480578</v>
       </c>
       <c r="U19" t="n">
-        <v>1444900.5083178</v>
+        <v>2589896.211913075</v>
       </c>
       <c r="V19" t="n">
-        <v>1469498.75769164</v>
+        <v>2458046.927624661</v>
       </c>
       <c r="W19" t="n">
-        <v>1940</v>
+        <v>2140</v>
       </c>
       <c r="X19" t="n">
-        <v>720</v>
+        <v>920</v>
       </c>
       <c r="Y19" t="n">
         <v>15000</v>
       </c>
       <c r="Z19" t="n">
-        <v>2820</v>
+        <v>3020</v>
       </c>
       <c r="AA19" t="n">
-        <v>2880</v>
+        <v>3080</v>
       </c>
       <c r="AB19" t="n">
-        <v>4800</v>
+        <v>5600</v>
       </c>
       <c r="AC19" t="n">
         <v>0</v>
@@ -9283,7 +9475,7 @@
         <v>10</v>
       </c>
       <c r="AI19" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AJ19" t="inlineStr">
         <is>
@@ -9296,28 +9488,40 @@
         </is>
       </c>
       <c r="AL19" t="n">
+        <v>150</v>
+      </c>
+      <c r="AM19" t="inlineStr"/>
+      <c r="AN19" t="inlineStr">
+        <is>
+          <t>1,1,5000;2,1,5000;3,1,5000;4,1,5000;1,2,5000;2,2,5000;3,2,5000;4,2,5000;5,1,5000;5,2,5000</t>
+        </is>
+      </c>
+      <c r="AO19" t="n">
         <v>18971715.02505</v>
       </c>
-      <c r="AM19" t="n">
+      <c r="AP19" t="n">
         <v>114159.6</v>
       </c>
-      <c r="AN19" t="n">
+      <c r="AQ19" t="n">
         <v>3602893.831971901</v>
       </c>
-      <c r="AO19" t="n">
+      <c r="AR19" t="n">
         <v>1061573.2</v>
       </c>
-      <c r="AP19" t="n">
-        <v>3467427.6</v>
-      </c>
-      <c r="AQ19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR19" t="n">
+      <c r="AS19" t="n">
+        <v>6313061.103757501</v>
+      </c>
+      <c r="AT19" t="n">
+        <v>1870609.6</v>
+      </c>
+      <c r="AU19" t="n">
         <v>628049.5774366501</v>
       </c>
-      <c r="AS19" t="n">
-        <v>27845818.83445855</v>
+      <c r="AV19" t="n">
+        <v>16364212.05263175</v>
+      </c>
+      <c r="AW19" t="n">
+        <v>48926273.9908478</v>
       </c>
     </row>
     <row r="20">
@@ -9354,7 +9558,7 @@
         <v>1</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L20" t="n">
         <v>2</v>
@@ -9381,13 +9585,13 @@
         </is>
       </c>
       <c r="T20" t="n">
-        <v>216453.67110455</v>
+        <v>222855.67110455</v>
       </c>
       <c r="U20" t="n">
-        <v>43119.82039928</v>
+        <v>44387.82039928</v>
       </c>
       <c r="V20" t="n">
-        <v>25746.54528224</v>
+        <v>26778.54528224</v>
       </c>
       <c r="W20" t="n">
         <v>900</v>
@@ -9426,7 +9630,7 @@
         <v>1</v>
       </c>
       <c r="AI20" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AJ20" t="inlineStr">
         <is>
@@ -9439,28 +9643,36 @@
         </is>
       </c>
       <c r="AL20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM20" t="inlineStr"/>
+      <c r="AN20" t="inlineStr"/>
+      <c r="AO20" t="n">
         <v>570370.8139299999</v>
       </c>
-      <c r="AM20" t="n">
+      <c r="AP20" t="n">
         <v>32738.5</v>
       </c>
-      <c r="AN20" t="n">
+      <c r="AQ20" t="n">
         <v>3246.4875111</v>
       </c>
-      <c r="AO20" t="n">
+      <c r="AR20" t="n">
         <v>14696.9</v>
       </c>
-      <c r="AP20" t="n">
+      <c r="AS20" t="n">
         <v>32753.8</v>
       </c>
-      <c r="AQ20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR20" t="n">
+      <c r="AT20" t="n">
+        <v>21085.2</v>
+      </c>
+      <c r="AU20" t="n">
         <v>12966.065791362</v>
       </c>
-      <c r="AS20" t="n">
-        <v>666772.567232462</v>
+      <c r="AV20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW20" t="n">
+        <v>687857.7672324621</v>
       </c>
     </row>
     <row r="21">
@@ -9497,7 +9709,7 @@
         <v>2</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="L21" t="n">
         <v>2</v>
@@ -9524,13 +9736,13 @@
         </is>
       </c>
       <c r="T21" t="n">
-        <v>293117.91157648</v>
+        <v>306352.76682448</v>
       </c>
       <c r="U21" t="n">
-        <v>51799.1717966</v>
+        <v>54435.7591366</v>
       </c>
       <c r="V21" t="n">
-        <v>37284.81893552</v>
+        <v>39358.12678352</v>
       </c>
       <c r="W21" t="n">
         <v>1100</v>
@@ -9569,7 +9781,7 @@
         <v>2</v>
       </c>
       <c r="AI21" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AJ21" t="inlineStr">
         <is>
@@ -9582,28 +9794,36 @@
         </is>
       </c>
       <c r="AL21" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM21" t="inlineStr"/>
+      <c r="AN21" t="inlineStr"/>
+      <c r="AO21" t="n">
         <v>676967.802</v>
       </c>
-      <c r="AM21" t="n">
+      <c r="AP21" t="n">
         <v>49107.75</v>
       </c>
-      <c r="AN21" t="n">
+      <c r="AQ21" t="n">
         <v>44179.1698868</v>
       </c>
-      <c r="AO21" t="n">
+      <c r="AR21" t="n">
         <v>19028.1</v>
       </c>
-      <c r="AP21" t="n">
-        <v>65507.60000000001</v>
-      </c>
-      <c r="AQ21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR21" t="n">
+      <c r="AS21" t="n">
+        <v>72269.02802</v>
+      </c>
+      <c r="AT21" t="n">
+        <v>36587.4</v>
+      </c>
+      <c r="AU21" t="n">
         <v>17457.23396546</v>
       </c>
-      <c r="AS21" t="n">
-        <v>872247.65585226</v>
+      <c r="AV21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW21" t="n">
+        <v>915596.4838722601</v>
       </c>
     </row>
     <row r="22">
@@ -9640,7 +9860,7 @@
         <v>5</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L22" t="n">
         <v>2</v>
@@ -9667,31 +9887,31 @@
         </is>
       </c>
       <c r="T22" t="n">
-        <v>428215.8100514201</v>
+        <v>557353.6652303356</v>
       </c>
       <c r="U22" t="n">
-        <v>66839.93142774</v>
+        <v>85690.01146411394</v>
       </c>
       <c r="V22" t="n">
-        <v>58063.43778526</v>
+        <v>74036.65759486584</v>
       </c>
       <c r="W22" t="n">
-        <v>1940</v>
+        <v>1990</v>
       </c>
       <c r="X22" t="n">
-        <v>720</v>
+        <v>770</v>
       </c>
       <c r="Y22" t="n">
         <v>15000</v>
       </c>
       <c r="Z22" t="n">
-        <v>930</v>
+        <v>980</v>
       </c>
       <c r="AA22" t="n">
-        <v>2880</v>
+        <v>2930</v>
       </c>
       <c r="AB22" t="n">
-        <v>2610</v>
+        <v>2810</v>
       </c>
       <c r="AC22" t="n">
         <v>0</v>
@@ -9712,7 +9932,7 @@
         <v>5</v>
       </c>
       <c r="AI22" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AJ22" t="inlineStr">
         <is>
@@ -9725,28 +9945,40 @@
         </is>
       </c>
       <c r="AL22" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM22" t="inlineStr"/>
+      <c r="AN22" t="inlineStr">
+        <is>
+          <t>1,1,1000;2,1,1000;3,1,1000;4,1,1000;1,2,1000;2,2,1000;3,2,1000;4,2,1000;5,1,1000;5,2,1000</t>
+        </is>
+      </c>
+      <c r="AO22" t="n">
         <v>859025.0884050002</v>
       </c>
-      <c r="AM22" t="n">
+      <c r="AP22" t="n">
         <v>114159.6</v>
       </c>
-      <c r="AN22" t="n">
+      <c r="AQ22" t="n">
         <v>110334.27233535</v>
       </c>
-      <c r="AO22" t="n">
+      <c r="AR22" t="n">
         <v>23382.7</v>
       </c>
-      <c r="AP22" t="n">
-        <v>95389.39999999999</v>
-      </c>
-      <c r="AQ22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR22" t="n">
+      <c r="AS22" t="n">
+        <v>103971.40088405</v>
+      </c>
+      <c r="AT22" t="n">
+        <v>49419.2</v>
+      </c>
+      <c r="AU22" t="n">
         <v>33180.043427721</v>
       </c>
-      <c r="AS22" t="n">
-        <v>1235471.104168071</v>
+      <c r="AV22" t="n">
+        <v>293648.2204510792</v>
+      </c>
+      <c r="AW22" t="n">
+        <v>1587120.5255032</v>
       </c>
     </row>
     <row r="23">
@@ -9783,7 +10015,7 @@
         <v>7</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L23" t="n">
         <v>2</v>
@@ -9810,31 +10042,31 @@
         </is>
       </c>
       <c r="T23" t="n">
-        <v>505518.5771340801</v>
+        <v>728143.1364369676</v>
       </c>
       <c r="U23" t="n">
-        <v>76518.26764616001</v>
+        <v>112043.2221499327</v>
       </c>
       <c r="V23" t="n">
-        <v>71484.59256341</v>
+        <v>99999.36570174363</v>
       </c>
       <c r="W23" t="n">
-        <v>1940</v>
+        <v>2140</v>
       </c>
       <c r="X23" t="n">
-        <v>720</v>
+        <v>920</v>
       </c>
       <c r="Y23" t="n">
         <v>15000</v>
       </c>
       <c r="Z23" t="n">
-        <v>1070</v>
+        <v>1270</v>
       </c>
       <c r="AA23" t="n">
-        <v>2880</v>
+        <v>3080</v>
       </c>
       <c r="AB23" t="n">
-        <v>3050</v>
+        <v>3850</v>
       </c>
       <c r="AC23" t="n">
         <v>0</v>
@@ -9855,7 +10087,7 @@
         <v>7</v>
       </c>
       <c r="AI23" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AJ23" t="inlineStr">
         <is>
@@ -9868,28 +10100,40 @@
         </is>
       </c>
       <c r="AL23" t="n">
+        <v>20</v>
+      </c>
+      <c r="AM23" t="inlineStr"/>
+      <c r="AN23" t="inlineStr">
+        <is>
+          <t>1,1,1000;2,1,1000;3,1,1000;4,1,1000;1,2,1000;2,2,1000;3,2,1000;4,2,1000;5,1,1000;5,2,1000</t>
+        </is>
+      </c>
+      <c r="AO23" t="n">
         <v>938900.111915</v>
       </c>
-      <c r="AM23" t="n">
+      <c r="AP23" t="n">
         <v>114159.6</v>
       </c>
-      <c r="AN23" t="n">
+      <c r="AQ23" t="n">
         <v>178554.53848085</v>
       </c>
-      <c r="AO23" t="n">
+      <c r="AR23" t="n">
         <v>30363.65</v>
       </c>
-      <c r="AP23" t="n">
-        <v>151723</v>
-      </c>
-      <c r="AQ23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR23" t="n">
+      <c r="AS23" t="n">
+        <v>170484.5022383</v>
+      </c>
+      <c r="AT23" t="n">
+        <v>90417.10000000001</v>
+      </c>
+      <c r="AU23" t="n">
         <v>43914.1307363415</v>
       </c>
-      <c r="AS23" t="n">
-        <v>1457615.031132192</v>
+      <c r="AV23" t="n">
+        <v>524928.0886860379</v>
+      </c>
+      <c r="AW23" t="n">
+        <v>2091721.722056529</v>
       </c>
     </row>
     <row r="24">
@@ -9926,7 +10170,7 @@
         <v>8</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="L24" t="n">
         <v>2</v>
@@ -9953,31 +10197,31 @@
         </is>
       </c>
       <c r="T24" t="n">
-        <v>578772.057656</v>
+        <v>906886.090213616</v>
       </c>
       <c r="U24" t="n">
-        <v>93403.67019199999</v>
+        <v>147129.306027344</v>
       </c>
       <c r="V24" t="n">
-        <v>87321.44627166</v>
+        <v>130983.7563594178</v>
       </c>
       <c r="W24" t="n">
-        <v>1940</v>
+        <v>2140</v>
       </c>
       <c r="X24" t="n">
-        <v>720</v>
+        <v>920</v>
       </c>
       <c r="Y24" t="n">
         <v>15000</v>
       </c>
       <c r="Z24" t="n">
-        <v>1350</v>
+        <v>1550</v>
       </c>
       <c r="AA24" t="n">
-        <v>2880</v>
+        <v>3080</v>
       </c>
       <c r="AB24" t="n">
-        <v>3330</v>
+        <v>4130</v>
       </c>
       <c r="AC24" t="n">
         <v>0</v>
@@ -9998,7 +10242,7 @@
         <v>8</v>
       </c>
       <c r="AI24" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AJ24" t="inlineStr">
         <is>
@@ -10011,28 +10255,40 @@
         </is>
       </c>
       <c r="AL24" t="n">
+        <v>40</v>
+      </c>
+      <c r="AM24" t="inlineStr"/>
+      <c r="AN24" t="inlineStr">
+        <is>
+          <t>1,1,1000;2,1,1000;3,1,1000;4,1,1000;1,2,1000;2,2,1000;3,2,1000;4,2,1000;5,1,1000;5,2,1000</t>
+        </is>
+      </c>
+      <c r="AO24" t="n">
         <v>1064663.960275</v>
       </c>
-      <c r="AM24" t="n">
+      <c r="AP24" t="n">
         <v>114159.6</v>
       </c>
-      <c r="AN24" t="n">
+      <c r="AQ24" t="n">
         <v>203193.98304525</v>
       </c>
-      <c r="AO24" t="n">
+      <c r="AR24" t="n">
         <v>43173.05</v>
       </c>
-      <c r="AP24" t="n">
-        <v>260818.2</v>
-      </c>
-      <c r="AQ24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR24" t="n">
+      <c r="AS24" t="n">
+        <v>303371.758411</v>
+      </c>
+      <c r="AT24" t="n">
+        <v>144472.65</v>
+      </c>
+      <c r="AU24" t="n">
         <v>53158.90472259501</v>
       </c>
-      <c r="AS24" t="n">
-        <v>1739167.698042845</v>
+      <c r="AV24" t="n">
+        <v>765252.9944150969</v>
+      </c>
+      <c r="AW24" t="n">
+        <v>2691446.900868942</v>
       </c>
     </row>
     <row r="25">
@@ -10069,7 +10325,7 @@
         <v>10</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="L25" t="n">
         <v>2</v>
@@ -10096,31 +10352,31 @@
         </is>
       </c>
       <c r="T25" t="n">
-        <v>730228.51853215</v>
+        <v>1533785.545817503</v>
       </c>
       <c r="U25" t="n">
-        <v>127792.9863186</v>
+        <v>254412.9865031946</v>
       </c>
       <c r="V25" t="n">
-        <v>119569.14536092</v>
+        <v>227635.6693235836</v>
       </c>
       <c r="W25" t="n">
-        <v>1940</v>
+        <v>2140</v>
       </c>
       <c r="X25" t="n">
-        <v>720</v>
+        <v>920</v>
       </c>
       <c r="Y25" t="n">
         <v>15000</v>
       </c>
       <c r="Z25" t="n">
-        <v>1910</v>
+        <v>2110</v>
       </c>
       <c r="AA25" t="n">
-        <v>2880</v>
+        <v>3080</v>
       </c>
       <c r="AB25" t="n">
-        <v>3890</v>
+        <v>4690</v>
       </c>
       <c r="AC25" t="n">
         <v>0</v>
@@ -10141,7 +10397,7 @@
         <v>10</v>
       </c>
       <c r="AI25" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AJ25" t="inlineStr">
         <is>
@@ -10154,28 +10410,40 @@
         </is>
       </c>
       <c r="AL25" t="n">
+        <v>80</v>
+      </c>
+      <c r="AM25" t="inlineStr"/>
+      <c r="AN25" t="inlineStr">
+        <is>
+          <t>1,1,3000;2,1,3000;3,1,3000;4,1,3000;1,2,3000;2,2,3000;3,2,3000;4,2,3000;5,1,3000;5,2,3000</t>
+        </is>
+      </c>
+      <c r="AO25" t="n">
         <v>1325072.60625</v>
       </c>
-      <c r="AM25" t="n">
+      <c r="AP25" t="n">
         <v>114159.6</v>
       </c>
-      <c r="AN25" t="n">
+      <c r="AQ25" t="n">
         <v>254149.7314761</v>
       </c>
-      <c r="AO25" t="n">
+      <c r="AR25" t="n">
         <v>68760.45</v>
       </c>
-      <c r="AP25" t="n">
-        <v>479008.6</v>
-      </c>
-      <c r="AQ25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR25" t="n">
+      <c r="AS25" t="n">
+        <v>584948.4085</v>
+      </c>
+      <c r="AT25" t="n">
+        <v>211875.65</v>
+      </c>
+      <c r="AU25" t="n">
         <v>73639.72222968</v>
       </c>
-      <c r="AS25" t="n">
-        <v>2314790.70995578</v>
+      <c r="AV25" t="n">
+        <v>1983202.082844372</v>
+      </c>
+      <c r="AW25" t="n">
+        <v>4615808.251300151</v>
       </c>
     </row>
   </sheetData>
